--- a/CORRIDAS TK MULTIMARCAS.xlsx
+++ b/CORRIDAS TK MULTIMARCAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\CORRIDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C3747D6-FF5F-4A2A-9D86-C5CCFB0F10F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85D4FEE-C493-4316-B161-3B2D3E2479AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
   </bookViews>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F9604B-4253-4656-9EE1-52445E75917C}">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,7 +815,9 @@
       <c r="B29" s="14"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
+      <c r="A30" s="12">
+        <v>0</v>
+      </c>
       <c r="B30" s="8"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -825,7 +827,9 @@
       <c r="B31" s="14"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
+      <c r="A32" s="12">
+        <v>0</v>
+      </c>
       <c r="B32" s="8"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -835,7 +839,9 @@
       <c r="B33" s="14"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
+      <c r="A34" s="12">
+        <v>0</v>
+      </c>
       <c r="B34" s="8"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -845,7 +851,9 @@
       <c r="B35" s="14"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
+      <c r="A36" s="12">
+        <v>0</v>
+      </c>
       <c r="B36" s="8"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -855,7 +863,9 @@
       <c r="B37" s="14"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
+      <c r="A38" s="12">
+        <v>0</v>
+      </c>
       <c r="B38" s="8"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -865,7 +875,9 @@
       <c r="B39" s="14"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
+      <c r="A40" s="12">
+        <v>0</v>
+      </c>
       <c r="B40" s="8"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -875,7 +887,9 @@
       <c r="B41" s="14"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
+      <c r="A42" s="12">
+        <v>0</v>
+      </c>
       <c r="B42" s="8"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -885,7 +899,9 @@
       <c r="B43" s="14"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
+      <c r="A44" s="12">
+        <v>0</v>
+      </c>
       <c r="B44" s="8"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -895,7 +911,9 @@
       <c r="B45" s="16"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
+      <c r="A46" s="12">
+        <v>0</v>
+      </c>
       <c r="B46" s="8"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -905,7 +923,9 @@
       <c r="B47" s="14"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
+      <c r="A48" s="12">
+        <v>0</v>
+      </c>
       <c r="B48" s="8"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -915,7 +935,9 @@
       <c r="B49" s="14"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
+      <c r="A50" s="12">
+        <v>0</v>
+      </c>
       <c r="B50" s="8"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -925,7 +947,9 @@
       <c r="B51" s="14"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
+      <c r="A52" s="12">
+        <v>0</v>
+      </c>
       <c r="B52" s="8"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -935,7 +959,9 @@
       <c r="B53" s="14"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
+      <c r="A54" s="12">
+        <v>0</v>
+      </c>
       <c r="B54" s="8"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -945,7 +971,9 @@
       <c r="B55" s="14"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
+      <c r="A56" s="12">
+        <v>0</v>
+      </c>
       <c r="B56" s="8"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -955,7 +983,9 @@
       <c r="B57" s="14"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
+      <c r="A58" s="12">
+        <v>0</v>
+      </c>
       <c r="B58" s="8"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -965,7 +995,9 @@
       <c r="B59" s="14"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
+      <c r="A60" s="12">
+        <v>0</v>
+      </c>
       <c r="B60" s="8"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -975,7 +1007,9 @@
       <c r="B61" s="14"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
+      <c r="A62" s="12">
+        <v>0</v>
+      </c>
       <c r="B62" s="8"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -985,7 +1019,9 @@
       <c r="B63" s="14"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="12"/>
+      <c r="A64" s="12">
+        <v>0</v>
+      </c>
       <c r="B64" s="8"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">

--- a/CORRIDAS TK MULTIMARCAS.xlsx
+++ b/CORRIDAS TK MULTIMARCAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\CORRIDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85D4FEE-C493-4316-B161-3B2D3E2479AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE1B87D-027D-44DB-80DF-EF145B189D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>VALOR</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>TOTAL =</t>
+  </si>
+  <si>
+    <t>NOVA ARAGUAINA</t>
+  </si>
+  <si>
+    <t>JARDIM AMERICA</t>
   </si>
 </sst>
 </file>
@@ -91,7 +97,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -219,46 +225,52 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -266,12 +278,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,21 +593,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F9604B-4253-4656-9EE1-52445E75917C}">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -609,458 +615,486 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="17">
         <v>45192</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="18"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="8">
         <v>10</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="17">
         <v>45194</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="18"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="9">
         <v>10</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="17">
         <v>45195</v>
       </c>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="B6" s="18"/>
+    </row>
+    <row r="7" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>15</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="17">
         <v>45196</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="18"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="9">
         <v>15</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="9">
         <v>5</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="9">
         <v>5</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="9">
         <v>15</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="17">
         <v>45197</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="18"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="9">
         <v>10</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="13">
         <v>45198</v>
       </c>
       <c r="B16" s="14"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="A17" s="8">
         <v>10</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="A18" s="8">
         <v>15</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="A19" s="8">
         <v>5</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="A20" s="8">
         <v>15</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="13">
         <v>45201</v>
       </c>
       <c r="B21" s="14"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+      <c r="A22" s="8">
         <v>15</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="A23" s="9">
         <v>15</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="A24" s="9">
         <v>5</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+      <c r="A25" s="9">
         <v>10</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="13">
         <v>45202</v>
       </c>
       <c r="B26" s="14"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+      <c r="A27" s="9">
         <v>15</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
+      <c r="A28" s="9">
         <v>10</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="13">
         <v>45203</v>
       </c>
       <c r="B29" s="14"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
-        <v>0</v>
-      </c>
-      <c r="B30" s="8"/>
+      <c r="A30" s="9">
+        <v>5</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="9">
+        <v>5</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
         <v>45204</v>
       </c>
-      <c r="B31" s="14"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
-        <v>0</v>
-      </c>
-      <c r="B32" s="8"/>
+      <c r="B32" s="14"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33" s="9">
+        <v>10</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>15</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>5</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
         <v>45205</v>
       </c>
-      <c r="B33" s="14"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
-        <v>0</v>
-      </c>
-      <c r="B34" s="8"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="B36" s="14"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>0</v>
+      </c>
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
         <v>45206</v>
       </c>
-      <c r="B35" s="14"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
-        <v>0</v>
-      </c>
-      <c r="B36" s="8"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="B38" s="14"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>0</v>
+      </c>
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
         <v>45207</v>
       </c>
-      <c r="B37" s="14"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="12">
-        <v>0</v>
-      </c>
-      <c r="B38" s="8"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="B40" s="14"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>0</v>
+      </c>
+      <c r="B41" s="5"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
         <v>45208</v>
       </c>
-      <c r="B39" s="14"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="12">
-        <v>0</v>
-      </c>
-      <c r="B40" s="8"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="B42" s="14"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>0</v>
+      </c>
+      <c r="B43" s="5"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
         <v>45209</v>
       </c>
-      <c r="B41" s="14"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="12">
-        <v>0</v>
-      </c>
-      <c r="B42" s="8"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="B44" s="14"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>0</v>
+      </c>
+      <c r="B45" s="5"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="13">
         <v>45210</v>
       </c>
-      <c r="B43" s="14"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="12">
-        <v>0</v>
-      </c>
-      <c r="B44" s="8"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="15">
+      <c r="B46" s="14"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>0</v>
+      </c>
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="15">
         <v>45211</v>
       </c>
-      <c r="B45" s="16"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="12">
-        <v>0</v>
-      </c>
-      <c r="B46" s="8"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="B48" s="16"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>0</v>
+      </c>
+      <c r="B49" s="5"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="13">
         <v>45212</v>
       </c>
-      <c r="B47" s="14"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="12">
-        <v>0</v>
-      </c>
-      <c r="B48" s="8"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+      <c r="B50" s="14"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>0</v>
+      </c>
+      <c r="B51" s="5"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="13">
         <v>45213</v>
       </c>
-      <c r="B49" s="14"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="12">
-        <v>0</v>
-      </c>
-      <c r="B50" s="8"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+      <c r="B52" s="14"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>0</v>
+      </c>
+      <c r="B53" s="5"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="13">
         <v>45214</v>
       </c>
-      <c r="B51" s="14"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="12">
-        <v>0</v>
-      </c>
-      <c r="B52" s="8"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+      <c r="B54" s="14"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>0</v>
+      </c>
+      <c r="B55" s="5"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="13">
         <v>45215</v>
       </c>
-      <c r="B53" s="14"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="12">
-        <v>0</v>
-      </c>
-      <c r="B54" s="8"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+      <c r="B56" s="14"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>0</v>
+      </c>
+      <c r="B57" s="5"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="13">
         <v>45216</v>
       </c>
-      <c r="B55" s="14"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="12">
-        <v>0</v>
-      </c>
-      <c r="B56" s="8"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
+      <c r="B58" s="14"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>0</v>
+      </c>
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="13">
         <v>45217</v>
       </c>
-      <c r="B57" s="14"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="12">
-        <v>0</v>
-      </c>
-      <c r="B58" s="8"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+      <c r="B60" s="14"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <v>0</v>
+      </c>
+      <c r="B61" s="5"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="13">
         <v>45218</v>
       </c>
-      <c r="B59" s="14"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="12">
-        <v>0</v>
-      </c>
-      <c r="B60" s="8"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+      <c r="B62" s="14"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <v>0</v>
+      </c>
+      <c r="B63" s="5"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="13">
         <v>45219</v>
       </c>
-      <c r="B61" s="14"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="12">
-        <v>0</v>
-      </c>
-      <c r="B62" s="8"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+      <c r="B64" s="14"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
+        <v>0</v>
+      </c>
+      <c r="B65" s="5"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="13">
         <v>45220</v>
       </c>
-      <c r="B63" s="14"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="12">
-        <v>0</v>
-      </c>
-      <c r="B64" s="8"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="20" t="s">
+      <c r="B66" s="14"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>0</v>
+      </c>
+      <c r="B67" s="5"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="11">
-        <f>SUM(A3,A5,A7,A9:A13,A15,A17:A20,A22:A25,A27:A28,A30,A32,A34,A36,A38,A40,A42,A44,A46,A48,A50,A52,A54,A56,A58,A60,A62,A64)</f>
-        <v>210</v>
+      <c r="B68" s="8">
+        <f>SUM(A3,A5,A7,A9:A13,A15,A17:A20,A22:A25,A27:A28,A30:A31,A33:A35,A37,A39,A41,A43,A45,A47,A49,A51,A53,A55,A57,A59,A61,A63,A65,A67)</f>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1080,7 +1114,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1088,193 +1122,215 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="19">
         <v>45222</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="20"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="19">
         <v>45223</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="20"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="19">
         <v>45224</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="20"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="19">
         <v>45225</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="20"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="19">
         <v>45226</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="20"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="19">
         <v>45227</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="20"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="19">
         <v>45228</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="20"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="19">
         <v>45229</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="20"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="19">
         <v>45230</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="20"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="A11" s="19">
         <v>45231</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="20"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="19">
         <v>45232</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="20"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="19">
         <v>45233</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="20"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="19">
         <v>45234</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="20"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+      <c r="A15" s="19">
         <v>45235</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="20"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="A16" s="19">
         <v>45236</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="20"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
+      <c r="A17" s="19">
         <v>45237</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="20"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+      <c r="A18" s="19">
         <v>45238</v>
       </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="20"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
+      <c r="A19" s="19">
         <v>45239</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="20"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+      <c r="A20" s="19">
         <v>45240</v>
       </c>
-      <c r="B20" s="18"/>
+      <c r="B20" s="20"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
+      <c r="A21" s="19">
         <v>45241</v>
       </c>
-      <c r="B21" s="18"/>
+      <c r="B21" s="20"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
+      <c r="A22" s="19">
         <v>45242</v>
       </c>
-      <c r="B22" s="18"/>
+      <c r="B22" s="20"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
+      <c r="A23" s="19">
         <v>45243</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="20"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
+      <c r="A24" s="19">
         <v>45244</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="20"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
+      <c r="A25" s="19">
         <v>45245</v>
       </c>
-      <c r="B25" s="18"/>
+      <c r="B25" s="20"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
+      <c r="A26" s="19">
         <v>45246</v>
       </c>
-      <c r="B26" s="18"/>
+      <c r="B26" s="20"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
+      <c r="A27" s="19">
         <v>45247</v>
       </c>
-      <c r="B27" s="18"/>
+      <c r="B27" s="20"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
+      <c r="A28" s="19">
         <v>45248</v>
       </c>
-      <c r="B28" s="18"/>
+      <c r="B28" s="20"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
+      <c r="A29" s="19">
         <v>45249</v>
       </c>
-      <c r="B29" s="18"/>
+      <c r="B29" s="20"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
+      <c r="A30" s="19">
         <v>45250</v>
       </c>
-      <c r="B30" s="18"/>
+      <c r="B30" s="20"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
+      <c r="A31" s="19">
         <v>45251</v>
       </c>
-      <c r="B31" s="18"/>
+      <c r="B31" s="20"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
+      <c r="A32" s="19">
         <v>45252</v>
       </c>
-      <c r="B32" s="18"/>
+      <c r="B32" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A17:B17"/>
@@ -1283,29 +1339,7 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1325,7 +1359,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1333,192 +1367,205 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="19">
         <v>45253</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="20"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="19">
         <v>45254</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="20"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="19">
         <v>45255</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="20"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="19">
         <v>45256</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="20"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="19">
         <v>45257</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="20"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="19">
         <v>45258</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="20"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="19">
         <v>45259</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="20"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="19">
         <v>45260</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="20"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="19">
         <v>45261</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="20"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="A11" s="19">
         <v>45262</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="20"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="19">
         <v>45263</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="20"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="19">
         <v>45264</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="20"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="19">
         <v>45265</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="20"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+      <c r="A15" s="19">
         <v>45266</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="20"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="A16" s="19">
         <v>45267</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="20"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
+      <c r="A17" s="19">
         <v>45268</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="20"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+      <c r="A18" s="19">
         <v>45269</v>
       </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="20"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
+      <c r="A19" s="19">
         <v>45270</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="20"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+      <c r="A20" s="19">
         <v>45271</v>
       </c>
-      <c r="B20" s="18"/>
+      <c r="B20" s="20"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
+      <c r="A21" s="19">
         <v>45272</v>
       </c>
-      <c r="B21" s="18"/>
+      <c r="B21" s="20"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
+      <c r="A22" s="19">
         <v>45273</v>
       </c>
-      <c r="B22" s="18"/>
+      <c r="B22" s="20"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
+      <c r="A23" s="19">
         <v>45274</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="20"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
+      <c r="A24" s="19">
         <v>45275</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="20"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
+      <c r="A25" s="19">
         <v>45276</v>
       </c>
-      <c r="B25" s="18"/>
+      <c r="B25" s="20"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
+      <c r="A26" s="19">
         <v>45277</v>
       </c>
-      <c r="B26" s="18"/>
+      <c r="B26" s="20"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
+      <c r="A27" s="19">
         <v>45278</v>
       </c>
-      <c r="B27" s="18"/>
+      <c r="B27" s="20"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
+      <c r="A28" s="19">
         <v>45279</v>
       </c>
-      <c r="B28" s="18"/>
+      <c r="B28" s="20"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
+      <c r="A29" s="19">
         <v>45280</v>
       </c>
-      <c r="B29" s="18"/>
+      <c r="B29" s="20"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
+      <c r="A30" s="19">
         <v>45281</v>
       </c>
-      <c r="B30" s="18"/>
+      <c r="B30" s="20"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
+      <c r="A31" s="19">
         <v>45282</v>
       </c>
-      <c r="B31" s="18"/>
+      <c r="B31" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
@@ -1526,24 +1573,11 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/CORRIDAS TK MULTIMARCAS.xlsx
+++ b/CORRIDAS TK MULTIMARCAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\CORRIDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE1B87D-027D-44DB-80DF-EF145B189D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491493BC-8811-467C-BCA0-411C1177CEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>VALOR</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>JARDIM AMERICA</t>
+  </si>
+  <si>
+    <t>ITAPUÃ</t>
+  </si>
+  <si>
+    <t>MERCADO MUNICIPAL</t>
+  </si>
+  <si>
+    <t>LAGO AZUL</t>
   </si>
 </sst>
 </file>
@@ -255,6 +264,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -265,12 +280,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -595,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F9604B-4253-4656-9EE1-52445E75917C}">
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,10 +624,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="13">
         <v>45192</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -629,10 +638,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="13">
         <v>45194</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="14"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
@@ -643,10 +652,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="13">
         <v>45195</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
@@ -657,10 +666,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="13">
         <v>45196</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -703,10 +712,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="13">
         <v>45197</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="14"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
@@ -717,10 +726,10 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="A16" s="15">
         <v>45198</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="16"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
@@ -755,10 +764,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+      <c r="A21" s="15">
         <v>45201</v>
       </c>
-      <c r="B21" s="14"/>
+      <c r="B21" s="16"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
@@ -793,10 +802,10 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
+      <c r="A26" s="15">
         <v>45202</v>
       </c>
-      <c r="B26" s="14"/>
+      <c r="B26" s="16"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
@@ -815,10 +824,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
+      <c r="A29" s="15">
         <v>45203</v>
       </c>
-      <c r="B29" s="14"/>
+      <c r="B29" s="16"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
@@ -837,10 +846,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
-        <v>45204</v>
-      </c>
-      <c r="B32" s="14"/>
+      <c r="A32" s="15">
+        <v>45205</v>
+      </c>
+      <c r="B32" s="16"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
@@ -867,58 +876,72 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
-        <v>45205</v>
-      </c>
-      <c r="B36" s="14"/>
+      <c r="A36" s="9">
+        <v>15</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
-        <v>0</v>
-      </c>
-      <c r="B37" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
-        <v>45206</v>
-      </c>
-      <c r="B38" s="14"/>
+      <c r="A38" s="9">
+        <v>5</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
-        <v>0</v>
-      </c>
-      <c r="B39" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
-        <v>45207</v>
-      </c>
-      <c r="B40" s="14"/>
+      <c r="A40" s="15">
+        <v>45208</v>
+      </c>
+      <c r="B40" s="16"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
-        <v>0</v>
-      </c>
-      <c r="B41" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="13">
-        <v>45208</v>
-      </c>
-      <c r="B42" s="14"/>
+      <c r="A42" s="9">
+        <v>5</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
-        <v>0</v>
-      </c>
-      <c r="B43" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="13">
+      <c r="A44" s="15">
         <v>45209</v>
       </c>
-      <c r="B44" s="14"/>
+      <c r="B44" s="16"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
@@ -927,10 +950,10 @@
       <c r="B45" s="5"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="13">
+      <c r="A46" s="15">
         <v>45210</v>
       </c>
-      <c r="B46" s="14"/>
+      <c r="B46" s="16"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
@@ -939,10 +962,10 @@
       <c r="B47" s="5"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="15">
+      <c r="A48" s="17">
         <v>45211</v>
       </c>
-      <c r="B48" s="16"/>
+      <c r="B48" s="18"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
@@ -951,10 +974,10 @@
       <c r="B49" s="5"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="13">
+      <c r="A50" s="15">
         <v>45212</v>
       </c>
-      <c r="B50" s="14"/>
+      <c r="B50" s="16"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
@@ -963,10 +986,10 @@
       <c r="B51" s="5"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="13">
+      <c r="A52" s="15">
         <v>45213</v>
       </c>
-      <c r="B52" s="14"/>
+      <c r="B52" s="16"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
@@ -975,10 +998,10 @@
       <c r="B53" s="5"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="13">
+      <c r="A54" s="15">
         <v>45214</v>
       </c>
-      <c r="B54" s="14"/>
+      <c r="B54" s="16"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
@@ -987,10 +1010,10 @@
       <c r="B55" s="5"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="13">
+      <c r="A56" s="15">
         <v>45215</v>
       </c>
-      <c r="B56" s="14"/>
+      <c r="B56" s="16"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
@@ -999,10 +1022,10 @@
       <c r="B57" s="5"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="13">
+      <c r="A58" s="15">
         <v>45216</v>
       </c>
-      <c r="B58" s="14"/>
+      <c r="B58" s="16"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
@@ -1011,10 +1034,10 @@
       <c r="B59" s="5"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="13">
+      <c r="A60" s="15">
         <v>45217</v>
       </c>
-      <c r="B60" s="14"/>
+      <c r="B60" s="16"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
@@ -1023,10 +1046,10 @@
       <c r="B61" s="5"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="13">
+      <c r="A62" s="15">
         <v>45218</v>
       </c>
-      <c r="B62" s="14"/>
+      <c r="B62" s="16"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
@@ -1035,10 +1058,10 @@
       <c r="B63" s="5"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="13">
+      <c r="A64" s="15">
         <v>45219</v>
       </c>
-      <c r="B64" s="14"/>
+      <c r="B64" s="16"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
@@ -1047,10 +1070,10 @@
       <c r="B65" s="5"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="13">
+      <c r="A66" s="15">
         <v>45220</v>
       </c>
-      <c r="B66" s="14"/>
+      <c r="B66" s="16"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="9">
@@ -1063,17 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B68" s="8">
-        <f>SUM(A3,A5,A7,A9:A13,A15,A17:A20,A22:A25,A27:A28,A30:A31,A33:A35,A37,A39,A41,A43,A45,A47,A49,A51,A53,A55,A57,A59,A61,A63,A65,A67)</f>
-        <v>250</v>
+        <f>SUM(A3,A5,A7,A9:A13,A15,A17:A20,A22:A25,A27:A28,A30:A31,A33:A39,A41:A43,A45,A47,A49,A51,A53,A55,A57,A59,A61,A63,A65,A67)</f>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A14:B14"/>
+  <mergeCells count="23">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A66:B66"/>
     <mergeCell ref="A44:B44"/>
@@ -1082,19 +1110,11 @@
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1309,28 +1329,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A17:B17"/>
@@ -1340,6 +1338,28 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1548,12 +1568,18 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
@@ -1566,18 +1592,12 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/CORRIDAS TK MULTIMARCAS.xlsx
+++ b/CORRIDAS TK MULTIMARCAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\CORRIDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491493BC-8811-467C-BCA0-411C1177CEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD904D94-BD0D-49F0-A725-9761B97E5422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
+    <workbookView xWindow="5940" yWindow="1380" windowWidth="11730" windowHeight="11160" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
   </bookViews>
   <sheets>
     <sheet name="MES 01" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>VALOR</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>LAGO AZUL</t>
+  </si>
+  <si>
+    <t>DOM ORIONE</t>
   </si>
 </sst>
 </file>
@@ -264,22 +267,22 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -602,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F9604B-4253-4656-9EE1-52445E75917C}">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,10 +627,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="17">
         <v>45192</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="18"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -638,10 +641,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="17">
         <v>45194</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="18"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
@@ -652,10 +655,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="17">
         <v>45195</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="18"/>
     </row>
     <row r="7" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
@@ -666,10 +669,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="17">
         <v>45196</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="18"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -712,10 +715,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="A14" s="17">
         <v>45197</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="18"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
@@ -726,10 +729,10 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="13">
         <v>45198</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="14"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
@@ -764,10 +767,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="A21" s="13">
         <v>45201</v>
       </c>
-      <c r="B21" s="16"/>
+      <c r="B21" s="14"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
@@ -802,10 +805,10 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
+      <c r="A26" s="13">
         <v>45202</v>
       </c>
-      <c r="B26" s="16"/>
+      <c r="B26" s="14"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
@@ -824,10 +827,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
+      <c r="A29" s="13">
         <v>45203</v>
       </c>
-      <c r="B29" s="16"/>
+      <c r="B29" s="14"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
@@ -846,10 +849,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
+      <c r="A32" s="13">
         <v>45205</v>
       </c>
-      <c r="B32" s="16"/>
+      <c r="B32" s="14"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
@@ -908,10 +911,10 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="15">
+      <c r="A40" s="13">
         <v>45208</v>
       </c>
-      <c r="B40" s="16"/>
+      <c r="B40" s="14"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
@@ -938,34 +941,40 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="15">
+      <c r="A44" s="13">
         <v>45209</v>
       </c>
-      <c r="B44" s="16"/>
+      <c r="B44" s="14"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
-        <v>0</v>
-      </c>
-      <c r="B45" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="15">
-        <v>45210</v>
-      </c>
-      <c r="B46" s="16"/>
+      <c r="A46" s="9">
+        <v>15</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
-        <v>0</v>
-      </c>
-      <c r="B47" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="17">
-        <v>45211</v>
-      </c>
-      <c r="B48" s="18"/>
+      <c r="A48" s="13">
+        <v>45210</v>
+      </c>
+      <c r="B48" s="14"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
@@ -975,7 +984,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="15">
-        <v>45212</v>
+        <v>45211</v>
       </c>
       <c r="B50" s="16"/>
     </row>
@@ -986,10 +995,10 @@
       <c r="B51" s="5"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="15">
-        <v>45213</v>
-      </c>
-      <c r="B52" s="16"/>
+      <c r="A52" s="13">
+        <v>45212</v>
+      </c>
+      <c r="B52" s="14"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
@@ -998,10 +1007,10 @@
       <c r="B53" s="5"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="15">
-        <v>45214</v>
-      </c>
-      <c r="B54" s="16"/>
+      <c r="A54" s="13">
+        <v>45213</v>
+      </c>
+      <c r="B54" s="14"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
@@ -1010,10 +1019,10 @@
       <c r="B55" s="5"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="15">
-        <v>45215</v>
-      </c>
-      <c r="B56" s="16"/>
+      <c r="A56" s="13">
+        <v>45214</v>
+      </c>
+      <c r="B56" s="14"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
@@ -1022,10 +1031,10 @@
       <c r="B57" s="5"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="15">
-        <v>45216</v>
-      </c>
-      <c r="B58" s="16"/>
+      <c r="A58" s="13">
+        <v>45215</v>
+      </c>
+      <c r="B58" s="14"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
@@ -1034,10 +1043,10 @@
       <c r="B59" s="5"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="15">
-        <v>45217</v>
-      </c>
-      <c r="B60" s="16"/>
+      <c r="A60" s="13">
+        <v>45216</v>
+      </c>
+      <c r="B60" s="14"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
@@ -1046,10 +1055,10 @@
       <c r="B61" s="5"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="15">
-        <v>45218</v>
-      </c>
-      <c r="B62" s="16"/>
+      <c r="A62" s="13">
+        <v>45217</v>
+      </c>
+      <c r="B62" s="14"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
@@ -1058,10 +1067,10 @@
       <c r="B63" s="5"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="15">
-        <v>45219</v>
-      </c>
-      <c r="B64" s="16"/>
+      <c r="A64" s="13">
+        <v>45218</v>
+      </c>
+      <c r="B64" s="14"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
@@ -1070,10 +1079,10 @@
       <c r="B65" s="5"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="15">
-        <v>45220</v>
-      </c>
-      <c r="B66" s="16"/>
+      <c r="A66" s="13">
+        <v>45219</v>
+      </c>
+      <c r="B66" s="14"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="9">
@@ -1082,39 +1091,51 @@
       <c r="B67" s="5"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="13">
+        <v>45220</v>
+      </c>
+      <c r="B68" s="14"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
+        <v>0</v>
+      </c>
+      <c r="B69" s="5"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B68" s="8">
-        <f>SUM(A3,A5,A7,A9:A13,A15,A17:A20,A22:A25,A27:A28,A30:A31,A33:A39,A41:A43,A45,A47,A49,A51,A53,A55,A57,A59,A61,A63,A65,A67)</f>
-        <v>320</v>
+      <c r="B70" s="8">
+        <f>SUM(A3,A5,A7,A9:A13,A15,A17:A20,A22:A25,A27:A28,A30:A31,A33:A39,A41:A43,A45:A47,A49,A51,A53,A55,A57,A59,A61,A63,A65,A67,A69)</f>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A56:B56"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A56:B56"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A64:B64"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1329,6 +1350,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A17:B17"/>
@@ -1338,13 +1374,6 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A29:B29"/>
@@ -1352,14 +1381,6 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1568,6 +1589,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
@@ -1580,24 +1619,6 @@
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/CORRIDAS TK MULTIMARCAS.xlsx
+++ b/CORRIDAS TK MULTIMARCAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\CORRIDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD904D94-BD0D-49F0-A725-9761B97E5422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E614091-E6C6-4820-AA7D-3FCB28CE76A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="1380" windowWidth="11730" windowHeight="11160" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
   </bookViews>
   <sheets>
     <sheet name="MES 01" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>VALOR</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>DOM ORIONE</t>
+  </si>
+  <si>
+    <t>SETOR TOCANTINS</t>
+  </si>
+  <si>
+    <t>SENADOR</t>
   </si>
 </sst>
 </file>
@@ -158,7 +164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -201,35 +207,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -267,22 +249,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -605,16 +581,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F9604B-4253-4656-9EE1-52445E75917C}">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -627,10 +603,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="13">
         <v>45192</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -641,10 +617,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="13">
         <v>45194</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="14"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
@@ -655,10 +631,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="13">
         <v>45195</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
@@ -669,10 +645,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="13">
         <v>45196</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -715,10 +691,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="13">
         <v>45197</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="14"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
@@ -729,10 +705,10 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="A16" s="15">
         <v>45198</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="16"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
@@ -767,10 +743,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+      <c r="A21" s="15">
         <v>45201</v>
       </c>
-      <c r="B21" s="14"/>
+      <c r="B21" s="16"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
@@ -805,10 +781,10 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
+      <c r="A26" s="15">
         <v>45202</v>
       </c>
-      <c r="B26" s="14"/>
+      <c r="B26" s="16"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
@@ -827,10 +803,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
+      <c r="A29" s="15">
         <v>45203</v>
       </c>
-      <c r="B29" s="14"/>
+      <c r="B29" s="16"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
@@ -849,10 +825,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
+      <c r="A32" s="15">
         <v>45205</v>
       </c>
-      <c r="B32" s="14"/>
+      <c r="B32" s="16"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
@@ -911,10 +887,10 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
+      <c r="A40" s="15">
         <v>45208</v>
       </c>
-      <c r="B40" s="14"/>
+      <c r="B40" s="16"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
@@ -941,10 +917,10 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="13">
+      <c r="A44" s="15">
         <v>45209</v>
       </c>
-      <c r="B44" s="14"/>
+      <c r="B44" s="16"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
@@ -971,171 +947,171 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="13">
-        <v>45210</v>
-      </c>
-      <c r="B48" s="14"/>
+      <c r="A48" s="15">
+        <v>45212</v>
+      </c>
+      <c r="B48" s="16"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
-        <v>0</v>
-      </c>
-      <c r="B49" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="15">
-        <v>45211</v>
-      </c>
-      <c r="B50" s="16"/>
+      <c r="A50" s="9">
+        <v>10</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
+        <v>15</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>5</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="15">
+        <v>45213</v>
+      </c>
+      <c r="B53" s="16"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
         <v>0</v>
       </c>
-      <c r="B51" s="5"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="13">
-        <v>45212</v>
-      </c>
-      <c r="B52" s="14"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="9">
+      <c r="B54" s="5"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="15">
+        <v>45214</v>
+      </c>
+      <c r="B55" s="16"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
         <v>0</v>
       </c>
-      <c r="B53" s="5"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="13">
-        <v>45213</v>
-      </c>
-      <c r="B54" s="14"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="9">
+      <c r="B56" s="5"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="15">
+        <v>45215</v>
+      </c>
+      <c r="B57" s="16"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
         <v>0</v>
       </c>
-      <c r="B55" s="5"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="13">
-        <v>45214</v>
-      </c>
-      <c r="B56" s="14"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="9">
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="15">
+        <v>45216</v>
+      </c>
+      <c r="B59" s="16"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
         <v>0</v>
       </c>
-      <c r="B57" s="5"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="13">
-        <v>45215</v>
-      </c>
-      <c r="B58" s="14"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="9">
+      <c r="B60" s="5"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="15">
+        <v>45217</v>
+      </c>
+      <c r="B61" s="16"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
         <v>0</v>
       </c>
-      <c r="B59" s="5"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="13">
-        <v>45216</v>
-      </c>
-      <c r="B60" s="14"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="9">
+      <c r="B62" s="5"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="15">
+        <v>45218</v>
+      </c>
+      <c r="B63" s="16"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
         <v>0</v>
       </c>
-      <c r="B61" s="5"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="13">
-        <v>45217</v>
-      </c>
-      <c r="B62" s="14"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="9">
+      <c r="B64" s="5"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="15">
+        <v>45219</v>
+      </c>
+      <c r="B65" s="16"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
         <v>0</v>
       </c>
-      <c r="B63" s="5"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="13">
-        <v>45218</v>
-      </c>
-      <c r="B64" s="14"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="9">
+      <c r="B66" s="5"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="15">
+        <v>45220</v>
+      </c>
+      <c r="B67" s="16"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
         <v>0</v>
       </c>
-      <c r="B65" s="5"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="13">
-        <v>45219</v>
-      </c>
-      <c r="B66" s="14"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="9">
-        <v>0</v>
-      </c>
-      <c r="B67" s="5"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="13">
-        <v>45220</v>
-      </c>
-      <c r="B68" s="14"/>
+      <c r="B68" s="5"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="9">
-        <v>0</v>
-      </c>
-      <c r="B69" s="5"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
+      <c r="A69" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B70" s="8">
-        <f>SUM(A3,A5,A7,A9:A13,A15,A17:A20,A22:A25,A27:A28,A30:A31,A33:A39,A41:A43,A45:A47,A49,A51,A53,A55,A57,A59,A61,A63,A65,A67,A69)</f>
-        <v>360</v>
+      <c r="B69" s="8">
+        <f>SUM(A3,A5,A7,A9:A13,A15,A17:A20,A22:A25,A27:A28,A30:A31,A33:A39,A41:A43,A45:A47,A49:A52,A54,A56,A58,A60,A62,A64,A66,A68)</f>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="21">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A55:B55"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1163,208 +1139,193 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
+      <c r="A2" s="17">
         <v>45222</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="18"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="17">
         <v>45223</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="18"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="17">
         <v>45224</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="18"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="A5" s="17">
         <v>45225</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="18"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="17">
         <v>45226</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="18"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="17">
         <v>45227</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="18"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="17">
         <v>45228</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="18"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+      <c r="A9" s="17">
         <v>45229</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="18"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="17">
         <v>45230</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="18"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <v>45231</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="18"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="17">
         <v>45232</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="18"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+      <c r="A13" s="17">
         <v>45233</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B13" s="18"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="17">
         <v>45234</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="18"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="17">
         <v>45235</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="18"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="A16" s="17">
         <v>45236</v>
       </c>
-      <c r="B16" s="20"/>
+      <c r="B16" s="18"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+      <c r="A17" s="17">
         <v>45237</v>
       </c>
-      <c r="B17" s="20"/>
+      <c r="B17" s="18"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="17">
         <v>45238</v>
       </c>
-      <c r="B18" s="20"/>
+      <c r="B18" s="18"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+      <c r="A19" s="17">
         <v>45239</v>
       </c>
-      <c r="B19" s="20"/>
+      <c r="B19" s="18"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="A20" s="17">
         <v>45240</v>
       </c>
-      <c r="B20" s="20"/>
+      <c r="B20" s="18"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
+      <c r="A21" s="17">
         <v>45241</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="18"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="A22" s="17">
         <v>45242</v>
       </c>
-      <c r="B22" s="20"/>
+      <c r="B22" s="18"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="A23" s="17">
         <v>45243</v>
       </c>
-      <c r="B23" s="20"/>
+      <c r="B23" s="18"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
+      <c r="A24" s="17">
         <v>45244</v>
       </c>
-      <c r="B24" s="20"/>
+      <c r="B24" s="18"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
+      <c r="A25" s="17">
         <v>45245</v>
       </c>
-      <c r="B25" s="20"/>
+      <c r="B25" s="18"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
+      <c r="A26" s="17">
         <v>45246</v>
       </c>
-      <c r="B26" s="20"/>
+      <c r="B26" s="18"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
+      <c r="A27" s="17">
         <v>45247</v>
       </c>
-      <c r="B27" s="20"/>
+      <c r="B27" s="18"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
+      <c r="A28" s="17">
         <v>45248</v>
       </c>
-      <c r="B28" s="20"/>
+      <c r="B28" s="18"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="19">
+      <c r="A29" s="17">
         <v>45249</v>
       </c>
-      <c r="B29" s="20"/>
+      <c r="B29" s="18"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
+      <c r="A30" s="17">
         <v>45250</v>
       </c>
-      <c r="B30" s="20"/>
+      <c r="B30" s="18"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="19">
+      <c r="A31" s="17">
         <v>45251</v>
       </c>
-      <c r="B31" s="20"/>
+      <c r="B31" s="18"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
+      <c r="A32" s="17">
         <v>45252</v>
       </c>
-      <c r="B32" s="20"/>
+      <c r="B32" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A17:B17"/>
@@ -1381,6 +1342,21 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1408,193 +1384,199 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
+      <c r="A2" s="17">
         <v>45253</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="18"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="17">
         <v>45254</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="18"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="17">
         <v>45255</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="18"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="A5" s="17">
         <v>45256</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="18"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="17">
         <v>45257</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="18"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="17">
         <v>45258</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="18"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="17">
         <v>45259</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="18"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+      <c r="A9" s="17">
         <v>45260</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="18"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="17">
         <v>45261</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="18"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <v>45262</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="18"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="17">
         <v>45263</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="18"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+      <c r="A13" s="17">
         <v>45264</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B13" s="18"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="17">
         <v>45265</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="18"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="17">
         <v>45266</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="18"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="A16" s="17">
         <v>45267</v>
       </c>
-      <c r="B16" s="20"/>
+      <c r="B16" s="18"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+      <c r="A17" s="17">
         <v>45268</v>
       </c>
-      <c r="B17" s="20"/>
+      <c r="B17" s="18"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="17">
         <v>45269</v>
       </c>
-      <c r="B18" s="20"/>
+      <c r="B18" s="18"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+      <c r="A19" s="17">
         <v>45270</v>
       </c>
-      <c r="B19" s="20"/>
+      <c r="B19" s="18"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="A20" s="17">
         <v>45271</v>
       </c>
-      <c r="B20" s="20"/>
+      <c r="B20" s="18"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
+      <c r="A21" s="17">
         <v>45272</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="18"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="A22" s="17">
         <v>45273</v>
       </c>
-      <c r="B22" s="20"/>
+      <c r="B22" s="18"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="A23" s="17">
         <v>45274</v>
       </c>
-      <c r="B23" s="20"/>
+      <c r="B23" s="18"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
+      <c r="A24" s="17">
         <v>45275</v>
       </c>
-      <c r="B24" s="20"/>
+      <c r="B24" s="18"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
+      <c r="A25" s="17">
         <v>45276</v>
       </c>
-      <c r="B25" s="20"/>
+      <c r="B25" s="18"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
+      <c r="A26" s="17">
         <v>45277</v>
       </c>
-      <c r="B26" s="20"/>
+      <c r="B26" s="18"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
+      <c r="A27" s="17">
         <v>45278</v>
       </c>
-      <c r="B27" s="20"/>
+      <c r="B27" s="18"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
+      <c r="A28" s="17">
         <v>45279</v>
       </c>
-      <c r="B28" s="20"/>
+      <c r="B28" s="18"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="19">
+      <c r="A29" s="17">
         <v>45280</v>
       </c>
-      <c r="B29" s="20"/>
+      <c r="B29" s="18"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
+      <c r="A30" s="17">
         <v>45281</v>
       </c>
-      <c r="B30" s="20"/>
+      <c r="B30" s="18"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="19">
+      <c r="A31" s="17">
         <v>45282</v>
       </c>
-      <c r="B31" s="20"/>
+      <c r="B31" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
@@ -1607,18 +1589,12 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/CORRIDAS TK MULTIMARCAS.xlsx
+++ b/CORRIDAS TK MULTIMARCAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\CORRIDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E614091-E6C6-4820-AA7D-3FCB28CE76A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DCFA82-BECA-4F55-A513-8A7AE7193779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>VALOR</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>SENADOR</t>
+  </si>
+  <si>
+    <t>RAIZAL</t>
   </si>
 </sst>
 </file>
@@ -249,16 +252,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -583,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F9604B-4253-4656-9EE1-52445E75917C}">
   <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,10 +606,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="15">
         <v>45192</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -617,10 +620,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="15">
         <v>45194</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="16"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
@@ -631,10 +634,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="15">
         <v>45195</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="16"/>
     </row>
     <row r="7" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
@@ -645,10 +648,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="15">
         <v>45196</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="16"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -691,10 +694,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="A14" s="15">
         <v>45197</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="16"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
@@ -705,10 +708,10 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="13">
         <v>45198</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="14"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
@@ -743,10 +746,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="A21" s="13">
         <v>45201</v>
       </c>
-      <c r="B21" s="16"/>
+      <c r="B21" s="14"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
@@ -781,10 +784,10 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
+      <c r="A26" s="13">
         <v>45202</v>
       </c>
-      <c r="B26" s="16"/>
+      <c r="B26" s="14"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
@@ -803,10 +806,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
+      <c r="A29" s="13">
         <v>45203</v>
       </c>
-      <c r="B29" s="16"/>
+      <c r="B29" s="14"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
@@ -825,10 +828,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
+      <c r="A32" s="13">
         <v>45205</v>
       </c>
-      <c r="B32" s="16"/>
+      <c r="B32" s="14"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
@@ -887,10 +890,10 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="15">
+      <c r="A40" s="13">
         <v>45208</v>
       </c>
-      <c r="B40" s="16"/>
+      <c r="B40" s="14"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
@@ -917,10 +920,10 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="15">
+      <c r="A44" s="13">
         <v>45209</v>
       </c>
-      <c r="B44" s="16"/>
+      <c r="B44" s="14"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
@@ -947,10 +950,10 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="15">
+      <c r="A48" s="13">
         <v>45212</v>
       </c>
-      <c r="B48" s="16"/>
+      <c r="B48" s="14"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
@@ -985,22 +988,24 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="15">
+      <c r="A53" s="13">
         <v>45213</v>
       </c>
-      <c r="B53" s="16"/>
+      <c r="B53" s="14"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
-        <v>0</v>
-      </c>
-      <c r="B54" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="15">
+      <c r="A55" s="13">
         <v>45214</v>
       </c>
-      <c r="B55" s="16"/>
+      <c r="B55" s="14"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
@@ -1009,10 +1014,10 @@
       <c r="B56" s="5"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="15">
+      <c r="A57" s="13">
         <v>45215</v>
       </c>
-      <c r="B57" s="16"/>
+      <c r="B57" s="14"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
@@ -1021,10 +1026,10 @@
       <c r="B58" s="5"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="15">
+      <c r="A59" s="13">
         <v>45216</v>
       </c>
-      <c r="B59" s="16"/>
+      <c r="B59" s="14"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="9">
@@ -1033,10 +1038,10 @@
       <c r="B60" s="5"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="15">
+      <c r="A61" s="13">
         <v>45217</v>
       </c>
-      <c r="B61" s="16"/>
+      <c r="B61" s="14"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
@@ -1045,10 +1050,10 @@
       <c r="B62" s="5"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="15">
+      <c r="A63" s="13">
         <v>45218</v>
       </c>
-      <c r="B63" s="16"/>
+      <c r="B63" s="14"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
@@ -1057,10 +1062,10 @@
       <c r="B64" s="5"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="15">
+      <c r="A65" s="13">
         <v>45219</v>
       </c>
-      <c r="B65" s="16"/>
+      <c r="B65" s="14"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="9">
@@ -1069,10 +1074,10 @@
       <c r="B66" s="5"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="15">
+      <c r="A67" s="13">
         <v>45220</v>
       </c>
-      <c r="B67" s="16"/>
+      <c r="B67" s="14"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="9">
@@ -1086,11 +1091,22 @@
       </c>
       <c r="B69" s="8">
         <f>SUM(A3,A5,A7,A9:A13,A15,A17:A20,A22:A25,A27:A28,A30:A31,A33:A39,A41:A43,A45:A47,A49:A52,A54,A56,A58,A60,A62,A64,A66,A68)</f>
-        <v>400</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A55:B55"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="A59:B59"/>
@@ -1101,17 +1117,6 @@
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1326,6 +1331,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A17:B17"/>
@@ -1342,21 +1362,6 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1565,6 +1570,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
@@ -1577,24 +1600,6 @@
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/CORRIDAS TK MULTIMARCAS.xlsx
+++ b/CORRIDAS TK MULTIMARCAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\CORRIDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DCFA82-BECA-4F55-A513-8A7AE7193779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217848A3-D4A5-4BC2-98E0-292A2CEB40B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>VALOR</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>RAIZAL</t>
+  </si>
+  <si>
+    <t>SÃO MIGUEL</t>
   </si>
 </sst>
 </file>
@@ -120,7 +123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +133,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -214,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -252,6 +263,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -259,16 +276,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F9604B-4253-4656-9EE1-52445E75917C}">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,10 +620,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="A2" s="13">
         <v>45192</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -620,10 +634,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="13">
         <v>45194</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="14"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
@@ -634,10 +648,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="13">
         <v>45195</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
@@ -648,10 +662,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="13">
         <v>45196</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -694,10 +708,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="A14" s="13">
         <v>45197</v>
       </c>
-      <c r="B14" s="16"/>
+      <c r="B14" s="14"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
@@ -708,10 +722,10 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="A16" s="15">
         <v>45198</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="16"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
@@ -746,10 +760,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+      <c r="A21" s="15">
         <v>45201</v>
       </c>
-      <c r="B21" s="14"/>
+      <c r="B21" s="16"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
@@ -784,10 +798,10 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
+      <c r="A26" s="15">
         <v>45202</v>
       </c>
-      <c r="B26" s="14"/>
+      <c r="B26" s="16"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
@@ -806,10 +820,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
+      <c r="A29" s="15">
         <v>45203</v>
       </c>
-      <c r="B29" s="14"/>
+      <c r="B29" s="16"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
@@ -828,10 +842,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
+      <c r="A32" s="15">
         <v>45205</v>
       </c>
-      <c r="B32" s="14"/>
+      <c r="B32" s="16"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
@@ -890,10 +904,10 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
+      <c r="A40" s="15">
         <v>45208</v>
       </c>
-      <c r="B40" s="14"/>
+      <c r="B40" s="16"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
@@ -920,10 +934,10 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="13">
+      <c r="A44" s="15">
         <v>45209</v>
       </c>
-      <c r="B44" s="14"/>
+      <c r="B44" s="16"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
@@ -950,10 +964,10 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="13">
+      <c r="A48" s="15">
         <v>45212</v>
       </c>
-      <c r="B48" s="14"/>
+      <c r="B48" s="16"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
@@ -988,10 +1002,10 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="13">
+      <c r="A53" s="15">
         <v>45213</v>
       </c>
-      <c r="B53" s="14"/>
+      <c r="B53" s="16"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
@@ -1002,22 +1016,24 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="13">
-        <v>45214</v>
-      </c>
-      <c r="B55" s="14"/>
+      <c r="A55" s="15">
+        <v>45215</v>
+      </c>
+      <c r="B55" s="16"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
-        <v>0</v>
-      </c>
-      <c r="B56" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="13">
-        <v>45215</v>
-      </c>
-      <c r="B57" s="14"/>
+      <c r="A57" s="15">
+        <v>45216</v>
+      </c>
+      <c r="B57" s="16"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
@@ -1026,10 +1042,10 @@
       <c r="B58" s="5"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="13">
-        <v>45216</v>
-      </c>
-      <c r="B59" s="14"/>
+      <c r="A59" s="15">
+        <v>45217</v>
+      </c>
+      <c r="B59" s="16"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="9">
@@ -1038,10 +1054,10 @@
       <c r="B60" s="5"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="13">
-        <v>45217</v>
-      </c>
-      <c r="B61" s="14"/>
+      <c r="A61" s="15">
+        <v>45218</v>
+      </c>
+      <c r="B61" s="16"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
@@ -1050,10 +1066,10 @@
       <c r="B62" s="5"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="13">
-        <v>45218</v>
-      </c>
-      <c r="B63" s="14"/>
+      <c r="A63" s="15">
+        <v>45219</v>
+      </c>
+      <c r="B63" s="16"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
@@ -1062,10 +1078,10 @@
       <c r="B64" s="5"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="13">
-        <v>45219</v>
-      </c>
-      <c r="B65" s="14"/>
+      <c r="A65" s="15">
+        <v>45220</v>
+      </c>
+      <c r="B65" s="16"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="9">
@@ -1074,49 +1090,36 @@
       <c r="B66" s="5"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="13">
-        <v>45220</v>
-      </c>
-      <c r="B67" s="14"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="9">
-        <v>0</v>
-      </c>
-      <c r="B68" s="5"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
+      <c r="A67" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B69" s="8">
-        <f>SUM(A3,A5,A7,A9:A13,A15,A17:A20,A22:A25,A27:A28,A30:A31,A33:A39,A41:A43,A45:A47,A49:A52,A54,A56,A58,A60,A62,A64,A66,A68)</f>
-        <v>410</v>
+      <c r="B67" s="8" t="e">
+        <f>SUM(A3,A5,A7,A9:A13,A15,A17:A20,A22:A25,A27:A28,A30:A31,A33:A39,A41:A43,A45:A47,A49:A52,A54,#REF!,A56,A58,A60,A62,A64,A66)</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="20">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A53:B53"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1331,21 +1334,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A17:B17"/>
@@ -1362,6 +1350,21 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1570,12 +1573,18 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
@@ -1588,18 +1597,12 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/CORRIDAS TK MULTIMARCAS.xlsx
+++ b/CORRIDAS TK MULTIMARCAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\CORRIDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217848A3-D4A5-4BC2-98E0-292A2CEB40B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C53333-89C7-47CC-A6B4-70E5869EFEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>VALOR</t>
   </si>
@@ -123,7 +123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,14 +133,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -263,25 +255,25 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -598,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F9604B-4253-4656-9EE1-52445E75917C}">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:B57"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,10 +612,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="15">
         <v>45192</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -634,10 +626,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="15">
         <v>45194</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="16"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
@@ -648,10 +640,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="15">
         <v>45195</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="16"/>
     </row>
     <row r="7" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
@@ -662,10 +654,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="15">
         <v>45196</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="16"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -708,10 +700,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="A14" s="15">
         <v>45197</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="16"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
@@ -722,10 +714,10 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="13">
         <v>45198</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="14"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
@@ -760,10 +752,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="A21" s="13">
         <v>45201</v>
       </c>
-      <c r="B21" s="16"/>
+      <c r="B21" s="14"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
@@ -798,10 +790,10 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
+      <c r="A26" s="13">
         <v>45202</v>
       </c>
-      <c r="B26" s="16"/>
+      <c r="B26" s="14"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
@@ -820,10 +812,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
+      <c r="A29" s="13">
         <v>45203</v>
       </c>
-      <c r="B29" s="16"/>
+      <c r="B29" s="14"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
@@ -842,10 +834,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
+      <c r="A32" s="13">
         <v>45205</v>
       </c>
-      <c r="B32" s="16"/>
+      <c r="B32" s="14"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
@@ -904,10 +896,10 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="15">
+      <c r="A40" s="13">
         <v>45208</v>
       </c>
-      <c r="B40" s="16"/>
+      <c r="B40" s="14"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
@@ -934,10 +926,10 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="15">
+      <c r="A44" s="13">
         <v>45209</v>
       </c>
-      <c r="B44" s="16"/>
+      <c r="B44" s="14"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
@@ -964,10 +956,10 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="15">
+      <c r="A48" s="13">
         <v>45212</v>
       </c>
-      <c r="B48" s="16"/>
+      <c r="B48" s="14"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
@@ -1002,10 +994,10 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="15">
+      <c r="A53" s="13">
         <v>45213</v>
       </c>
-      <c r="B53" s="16"/>
+      <c r="B53" s="14"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
@@ -1016,10 +1008,10 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="15">
+      <c r="A55" s="13">
         <v>45215</v>
       </c>
-      <c r="B55" s="16"/>
+      <c r="B55" s="14"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
@@ -1030,96 +1022,104 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="15">
+      <c r="A57" s="9">
+        <v>10</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="13">
         <v>45216</v>
       </c>
-      <c r="B57" s="16"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="9">
+      <c r="B58" s="14"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
         <v>0</v>
       </c>
-      <c r="B58" s="5"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="15">
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="13">
         <v>45217</v>
       </c>
-      <c r="B59" s="16"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="9">
+      <c r="B60" s="14"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
         <v>0</v>
       </c>
-      <c r="B60" s="5"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="15">
+      <c r="B61" s="5"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="13">
         <v>45218</v>
       </c>
-      <c r="B61" s="16"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="9">
+      <c r="B62" s="14"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
         <v>0</v>
       </c>
-      <c r="B62" s="5"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="15">
+      <c r="B63" s="5"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="13">
         <v>45219</v>
       </c>
-      <c r="B63" s="16"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="9">
+      <c r="B64" s="14"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
         <v>0</v>
       </c>
-      <c r="B64" s="5"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="15">
+      <c r="B65" s="5"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="13">
         <v>45220</v>
       </c>
-      <c r="B65" s="16"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="9">
+      <c r="B66" s="14"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
         <v>0</v>
       </c>
-      <c r="B66" s="5"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="12" t="s">
+      <c r="B67" s="5"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B67" s="8" t="e">
-        <f>SUM(A3,A5,A7,A9:A13,A15,A17:A20,A22:A25,A27:A28,A30:A31,A33:A39,A41:A43,A45:A47,A49:A52,A54,#REF!,A56,A58,A60,A62,A64,A66)</f>
-        <v>#REF!</v>
+      <c r="B68" s="8">
+        <f>SUM(A3,A5,A7,A9:A13,A15,A17:A20,A22:A25,A27:A28,A30:A31,A33:A39,A41:A43,A45:A47,A49:A52,A54,A56:A57,A59,A61,A63,A65,A67)</f>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A53:B53"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A62:B62"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1334,6 +1334,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A17:B17"/>
@@ -1350,21 +1365,6 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1573,6 +1573,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
@@ -1585,24 +1603,6 @@
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/CORRIDAS TK MULTIMARCAS.xlsx
+++ b/CORRIDAS TK MULTIMARCAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\CORRIDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C53333-89C7-47CC-A6B4-70E5869EFEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D84C98-B907-47B8-B3DE-5CF7DA2D6073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>VALOR</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>SÃO MIGUEL</t>
+  </si>
+  <si>
+    <t>BARROS</t>
   </si>
 </sst>
 </file>
@@ -217,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -255,6 +258,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -262,19 +271,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F9604B-4253-4656-9EE1-52445E75917C}">
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,10 +612,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="A2" s="13">
         <v>45192</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -626,10 +626,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="13">
         <v>45194</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="14"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
@@ -640,10 +640,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="13">
         <v>45195</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
@@ -654,10 +654,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="13">
         <v>45196</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -700,10 +700,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="A14" s="13">
         <v>45197</v>
       </c>
-      <c r="B14" s="16"/>
+      <c r="B14" s="14"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
@@ -714,10 +714,10 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="A16" s="15">
         <v>45198</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="16"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
@@ -752,10 +752,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+      <c r="A21" s="15">
         <v>45201</v>
       </c>
-      <c r="B21" s="14"/>
+      <c r="B21" s="16"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
@@ -790,10 +790,10 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
+      <c r="A26" s="15">
         <v>45202</v>
       </c>
-      <c r="B26" s="14"/>
+      <c r="B26" s="16"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
@@ -812,10 +812,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
+      <c r="A29" s="15">
         <v>45203</v>
       </c>
-      <c r="B29" s="14"/>
+      <c r="B29" s="16"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
@@ -834,10 +834,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
+      <c r="A32" s="15">
         <v>45205</v>
       </c>
-      <c r="B32" s="14"/>
+      <c r="B32" s="16"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
@@ -896,10 +896,10 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
+      <c r="A40" s="15">
         <v>45208</v>
       </c>
-      <c r="B40" s="14"/>
+      <c r="B40" s="16"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
@@ -926,10 +926,10 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="13">
+      <c r="A44" s="15">
         <v>45209</v>
       </c>
-      <c r="B44" s="14"/>
+      <c r="B44" s="16"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
@@ -956,10 +956,10 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="13">
+      <c r="A48" s="15">
         <v>45212</v>
       </c>
-      <c r="B48" s="14"/>
+      <c r="B48" s="16"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
@@ -994,10 +994,10 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="13">
+      <c r="A53" s="15">
         <v>45213</v>
       </c>
-      <c r="B53" s="14"/>
+      <c r="B53" s="16"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
@@ -1008,16 +1008,16 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="13">
+      <c r="A55" s="15">
         <v>45215</v>
       </c>
-      <c r="B55" s="14"/>
+      <c r="B55" s="16"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
         <v>12</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1030,22 +1030,24 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="13">
+      <c r="A58" s="15">
         <v>45216</v>
       </c>
-      <c r="B58" s="14"/>
+      <c r="B58" s="16"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
-        <v>0</v>
-      </c>
-      <c r="B59" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="13">
+      <c r="A60" s="15">
         <v>45217</v>
       </c>
-      <c r="B60" s="14"/>
+      <c r="B60" s="16"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
@@ -1054,10 +1056,10 @@
       <c r="B61" s="5"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="13">
+      <c r="A62" s="15">
         <v>45218</v>
       </c>
-      <c r="B62" s="14"/>
+      <c r="B62" s="16"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
@@ -1066,10 +1068,10 @@
       <c r="B63" s="5"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="13">
+      <c r="A64" s="15">
         <v>45219</v>
       </c>
-      <c r="B64" s="14"/>
+      <c r="B64" s="16"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
@@ -1078,10 +1080,10 @@
       <c r="B65" s="5"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="13">
+      <c r="A66" s="15">
         <v>45220</v>
       </c>
-      <c r="B66" s="14"/>
+      <c r="B66" s="16"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="9">
@@ -1095,21 +1097,11 @@
       </c>
       <c r="B68" s="8">
         <f>SUM(A3,A5,A7,A9:A13,A15,A17:A20,A22:A25,A27:A28,A30:A31,A33:A39,A41:A43,A45:A47,A49:A52,A54,A56:A57,A59,A61,A63,A65,A67)</f>
-        <v>432</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A53:B53"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A58:B58"/>
@@ -1120,6 +1112,16 @@
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1334,21 +1336,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A17:B17"/>
@@ -1365,6 +1352,21 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1573,12 +1575,18 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
@@ -1591,18 +1599,12 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/CORRIDAS TK MULTIMARCAS.xlsx
+++ b/CORRIDAS TK MULTIMARCAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\CORRIDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D84C98-B907-47B8-B3DE-5CF7DA2D6073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61080B4D-A17F-462C-86C0-7F89B4B5517B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
+    <workbookView xWindow="9225" yWindow="390" windowWidth="14115" windowHeight="11160" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
   </bookViews>
   <sheets>
     <sheet name="MES 01" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>VALOR</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>BARROS</t>
+  </si>
+  <si>
+    <t>SONHOS DOURADOS</t>
   </si>
 </sst>
 </file>
@@ -258,16 +261,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -590,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F9604B-4253-4656-9EE1-52445E75917C}">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,10 +615,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="15">
         <v>45192</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -626,10 +629,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="15">
         <v>45194</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="16"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
@@ -640,10 +643,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="15">
         <v>45195</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="16"/>
     </row>
     <row r="7" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
@@ -654,10 +657,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="15">
         <v>45196</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="16"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -700,10 +703,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="A14" s="15">
         <v>45197</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="16"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
@@ -714,10 +717,10 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="13">
         <v>45198</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="14"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
@@ -752,10 +755,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="A21" s="13">
         <v>45201</v>
       </c>
-      <c r="B21" s="16"/>
+      <c r="B21" s="14"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
@@ -790,10 +793,10 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
+      <c r="A26" s="13">
         <v>45202</v>
       </c>
-      <c r="B26" s="16"/>
+      <c r="B26" s="14"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
@@ -812,10 +815,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
+      <c r="A29" s="13">
         <v>45203</v>
       </c>
-      <c r="B29" s="16"/>
+      <c r="B29" s="14"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
@@ -834,10 +837,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
+      <c r="A32" s="13">
         <v>45205</v>
       </c>
-      <c r="B32" s="16"/>
+      <c r="B32" s="14"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
@@ -896,10 +899,10 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="15">
+      <c r="A40" s="13">
         <v>45208</v>
       </c>
-      <c r="B40" s="16"/>
+      <c r="B40" s="14"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
@@ -926,10 +929,10 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="15">
+      <c r="A44" s="13">
         <v>45209</v>
       </c>
-      <c r="B44" s="16"/>
+      <c r="B44" s="14"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
@@ -956,10 +959,10 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="15">
+      <c r="A48" s="13">
         <v>45212</v>
       </c>
-      <c r="B48" s="16"/>
+      <c r="B48" s="14"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
@@ -994,10 +997,10 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="15">
+      <c r="A53" s="13">
         <v>45213</v>
       </c>
-      <c r="B53" s="16"/>
+      <c r="B53" s="14"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
@@ -1008,10 +1011,10 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="15">
+      <c r="A55" s="13">
         <v>45215</v>
       </c>
-      <c r="B55" s="16"/>
+      <c r="B55" s="14"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
@@ -1030,10 +1033,10 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="15">
+      <c r="A58" s="13">
         <v>45216</v>
       </c>
-      <c r="B58" s="16"/>
+      <c r="B58" s="14"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
@@ -1044,22 +1047,24 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="15">
-        <v>45217</v>
-      </c>
-      <c r="B60" s="16"/>
+      <c r="A60" s="13">
+        <v>45218</v>
+      </c>
+      <c r="B60" s="14"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
-        <v>0</v>
-      </c>
-      <c r="B61" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="15">
-        <v>45218</v>
-      </c>
-      <c r="B62" s="16"/>
+      <c r="A62" s="13">
+        <v>45219</v>
+      </c>
+      <c r="B62" s="14"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
@@ -1068,10 +1073,10 @@
       <c r="B63" s="5"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="15">
-        <v>45219</v>
-      </c>
-      <c r="B64" s="16"/>
+      <c r="A64" s="13">
+        <v>45220</v>
+      </c>
+      <c r="B64" s="14"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
@@ -1080,48 +1085,35 @@
       <c r="B65" s="5"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="15">
-        <v>45220</v>
-      </c>
-      <c r="B66" s="16"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="9">
-        <v>0</v>
-      </c>
-      <c r="B67" s="5"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
+      <c r="A66" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B68" s="8">
-        <f>SUM(A3,A5,A7,A9:A13,A15,A17:A20,A22:A25,A27:A28,A30:A31,A33:A39,A41:A43,A45:A47,A49:A52,A54,A56:A57,A59,A61,A63,A65,A67)</f>
-        <v>447</v>
+      <c r="B66" s="8">
+        <f>SUM(A3,A5,A7,A9:A13,A15,A17:A20,A22:A25,A27:A28,A30:A31,A33:A39,A41:A43,A45:A47,A49:A52,A54,A56:A57,A59,A61,A63,A65)</f>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="19">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A53:B53"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A62:B62"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1336,6 +1328,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A17:B17"/>
@@ -1352,21 +1359,6 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1575,6 +1567,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
@@ -1587,24 +1597,6 @@
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/CORRIDAS TK MULTIMARCAS.xlsx
+++ b/CORRIDAS TK MULTIMARCAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\CORRIDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61080B4D-A17F-462C-86C0-7F89B4B5517B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3FD7D9-3F74-4660-A8B5-6530ED44619B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9225" yWindow="390" windowWidth="14115" windowHeight="11160" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
+    <workbookView xWindow="9570" yWindow="735" windowWidth="14115" windowHeight="11160" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
   </bookViews>
   <sheets>
     <sheet name="MES 01" sheetId="1" r:id="rId1"/>
@@ -261,16 +261,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -615,10 +615,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="A2" s="13">
         <v>45192</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -629,10 +629,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="13">
         <v>45194</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="14"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
@@ -643,10 +643,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="13">
         <v>45195</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
@@ -657,10 +657,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="13">
         <v>45196</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -703,10 +703,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="A14" s="13">
         <v>45197</v>
       </c>
-      <c r="B14" s="16"/>
+      <c r="B14" s="14"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
@@ -717,10 +717,10 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="A16" s="15">
         <v>45198</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="16"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
@@ -755,10 +755,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+      <c r="A21" s="15">
         <v>45201</v>
       </c>
-      <c r="B21" s="14"/>
+      <c r="B21" s="16"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
@@ -793,10 +793,10 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
+      <c r="A26" s="15">
         <v>45202</v>
       </c>
-      <c r="B26" s="14"/>
+      <c r="B26" s="16"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
@@ -815,10 +815,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
+      <c r="A29" s="15">
         <v>45203</v>
       </c>
-      <c r="B29" s="14"/>
+      <c r="B29" s="16"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
@@ -837,10 +837,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
+      <c r="A32" s="15">
         <v>45205</v>
       </c>
-      <c r="B32" s="14"/>
+      <c r="B32" s="16"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
@@ -899,10 +899,10 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
+      <c r="A40" s="15">
         <v>45208</v>
       </c>
-      <c r="B40" s="14"/>
+      <c r="B40" s="16"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
@@ -929,10 +929,10 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="13">
+      <c r="A44" s="15">
         <v>45209</v>
       </c>
-      <c r="B44" s="14"/>
+      <c r="B44" s="16"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
@@ -959,10 +959,10 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="13">
+      <c r="A48" s="15">
         <v>45212</v>
       </c>
-      <c r="B48" s="14"/>
+      <c r="B48" s="16"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
@@ -997,10 +997,10 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="13">
+      <c r="A53" s="15">
         <v>45213</v>
       </c>
-      <c r="B53" s="14"/>
+      <c r="B53" s="16"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
@@ -1011,10 +1011,10 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="13">
+      <c r="A55" s="15">
         <v>45215</v>
       </c>
-      <c r="B55" s="14"/>
+      <c r="B55" s="16"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
@@ -1033,10 +1033,10 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="13">
+      <c r="A58" s="15">
         <v>45216</v>
       </c>
-      <c r="B58" s="14"/>
+      <c r="B58" s="16"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
@@ -1047,10 +1047,10 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="13">
+      <c r="A60" s="15">
         <v>45218</v>
       </c>
-      <c r="B60" s="14"/>
+      <c r="B60" s="16"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
@@ -1061,10 +1061,10 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="13">
+      <c r="A62" s="15">
         <v>45219</v>
       </c>
-      <c r="B62" s="14"/>
+      <c r="B62" s="16"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
@@ -1073,10 +1073,10 @@
       <c r="B63" s="5"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="13">
+      <c r="A64" s="15">
         <v>45220</v>
       </c>
-      <c r="B64" s="14"/>
+      <c r="B64" s="16"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
@@ -1095,16 +1095,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A53:B53"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A58:B58"/>
@@ -1114,6 +1104,16 @@
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1328,21 +1328,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A17:B17"/>
@@ -1359,6 +1344,21 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1567,12 +1567,18 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
@@ -1585,18 +1591,12 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/CORRIDAS TK MULTIMARCAS.xlsx
+++ b/CORRIDAS TK MULTIMARCAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\CORRIDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3FD7D9-3F74-4660-A8B5-6530ED44619B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F900490-A990-4E31-B1D0-C8F4382CD2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9570" yWindow="735" windowWidth="14115" windowHeight="11160" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
   </bookViews>
   <sheets>
     <sheet name="MES 01" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>VALOR</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>SONHOS DOURADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAGO AZUL </t>
   </si>
 </sst>
 </file>
@@ -261,16 +264,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -596,7 +599,7 @@
   <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,10 +618,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="15">
         <v>45192</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -629,10 +632,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="15">
         <v>45194</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="16"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
@@ -643,10 +646,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="15">
         <v>45195</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="16"/>
     </row>
     <row r="7" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
@@ -657,10 +660,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="15">
         <v>45196</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="16"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -703,10 +706,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="A14" s="15">
         <v>45197</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="16"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
@@ -717,10 +720,10 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="13">
         <v>45198</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="14"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
@@ -755,10 +758,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="A21" s="13">
         <v>45201</v>
       </c>
-      <c r="B21" s="16"/>
+      <c r="B21" s="14"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
@@ -793,10 +796,10 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
+      <c r="A26" s="13">
         <v>45202</v>
       </c>
-      <c r="B26" s="16"/>
+      <c r="B26" s="14"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
@@ -815,10 +818,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
+      <c r="A29" s="13">
         <v>45203</v>
       </c>
-      <c r="B29" s="16"/>
+      <c r="B29" s="14"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
@@ -837,10 +840,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
+      <c r="A32" s="13">
         <v>45205</v>
       </c>
-      <c r="B32" s="16"/>
+      <c r="B32" s="14"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
@@ -899,10 +902,10 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="15">
+      <c r="A40" s="13">
         <v>45208</v>
       </c>
-      <c r="B40" s="16"/>
+      <c r="B40" s="14"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
@@ -929,10 +932,10 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="15">
+      <c r="A44" s="13">
         <v>45209</v>
       </c>
-      <c r="B44" s="16"/>
+      <c r="B44" s="14"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
@@ -959,10 +962,10 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="15">
+      <c r="A48" s="13">
         <v>45212</v>
       </c>
-      <c r="B48" s="16"/>
+      <c r="B48" s="14"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
@@ -997,10 +1000,10 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="15">
+      <c r="A53" s="13">
         <v>45213</v>
       </c>
-      <c r="B53" s="16"/>
+      <c r="B53" s="14"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
@@ -1011,10 +1014,10 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="15">
+      <c r="A55" s="13">
         <v>45215</v>
       </c>
-      <c r="B55" s="16"/>
+      <c r="B55" s="14"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
@@ -1033,10 +1036,10 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="15">
+      <c r="A58" s="13">
         <v>45216</v>
       </c>
-      <c r="B58" s="16"/>
+      <c r="B58" s="14"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
@@ -1047,10 +1050,10 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="15">
+      <c r="A60" s="13">
         <v>45218</v>
       </c>
-      <c r="B60" s="16"/>
+      <c r="B60" s="14"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
@@ -1061,22 +1064,24 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="15">
+      <c r="A62" s="13">
         <v>45219</v>
       </c>
-      <c r="B62" s="16"/>
+      <c r="B62" s="14"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
-        <v>0</v>
-      </c>
-      <c r="B63" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="15">
+      <c r="A64" s="13">
         <v>45220</v>
       </c>
-      <c r="B64" s="16"/>
+      <c r="B64" s="14"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
@@ -1090,11 +1095,21 @@
       </c>
       <c r="B66" s="8">
         <f>SUM(A3,A5,A7,A9:A13,A15,A17:A20,A22:A25,A27:A28,A30:A31,A33:A39,A41:A43,A45:A47,A49:A52,A54,A56:A57,A59,A61,A63,A65)</f>
-        <v>462</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A53:B53"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A58:B58"/>
@@ -1104,16 +1119,6 @@
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1328,6 +1333,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A17:B17"/>
@@ -1344,21 +1364,6 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1567,6 +1572,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
@@ -1579,24 +1602,6 @@
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/CORRIDAS TK MULTIMARCAS.xlsx
+++ b/CORRIDAS TK MULTIMARCAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\CORRIDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F900490-A990-4E31-B1D0-C8F4382CD2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E440769-A58D-4499-A328-544603CC6654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
+    <workbookView minimized="1" xWindow="8685" yWindow="0" windowWidth="14115" windowHeight="11160" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
   </bookViews>
   <sheets>
     <sheet name="MES 01" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t>VALOR</t>
   </si>
@@ -179,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -212,6 +212,73 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -219,14 +286,162 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -237,43 +452,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -281,6 +469,84 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,531 +862,473 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F9604B-4253-4656-9EE1-52445E75917C}">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="A1:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="20.7109375" style="5" customWidth="1"/>
+    <col min="2" max="4" width="20.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="C1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="26">
         <v>45192</v>
       </c>
-      <c r="B2" s="16"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="B2" s="27"/>
+      <c r="C2" s="28">
+        <v>45205</v>
+      </c>
+      <c r="D2" s="29"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="C3" s="15">
+        <v>10</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
         <v>45194</v>
       </c>
-      <c r="B4" s="16"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="B4" s="18"/>
+      <c r="C4" s="15">
+        <v>15</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>10</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="C5" s="15">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
         <v>45195</v>
       </c>
-      <c r="B6" s="16"/>
-    </row>
-    <row r="7" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="B6" s="18"/>
+      <c r="C6" s="15">
         <v>15</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="D6" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>15</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="C7" s="15">
+        <v>10</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
         <v>45196</v>
       </c>
-      <c r="B8" s="16"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="B8" s="18"/>
+      <c r="C8" s="15">
+        <v>5</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>15</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="C9" s="15">
         <v>5</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="D9" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="C10" s="7">
+        <v>45208</v>
+      </c>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="C11" s="15">
+        <v>15</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
         <v>5</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="C12" s="15">
+        <v>5</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
         <v>15</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="C13" s="15">
+        <v>15</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
         <v>45197</v>
       </c>
-      <c r="B14" s="16"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="B14" s="18"/>
+      <c r="C14" s="7">
+        <v>45209</v>
+      </c>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
         <v>10</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="21" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="C15" s="15">
+        <v>10</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
         <v>45198</v>
       </c>
-      <c r="B16" s="14"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="B16" s="13"/>
+      <c r="C16" s="15">
+        <v>15</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
         <v>10</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="C17" s="15">
         <v>15</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="D17" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="19">
+        <v>15</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="C18" s="7">
+        <v>45212</v>
+      </c>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="19">
         <v>5</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="C19" s="15">
+        <v>10</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
         <v>15</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+      <c r="C20" s="15">
+        <v>10</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
         <v>45201</v>
       </c>
-      <c r="B21" s="14"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="B21" s="13"/>
+      <c r="C21" s="15">
         <v>15</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="D21" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="19">
+        <v>15</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="C22" s="15">
+        <v>5</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
         <v>15</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="C23" s="7">
+        <v>45213</v>
+      </c>
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
         <v>5</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="C24" s="15">
         <v>10</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="D24" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>10</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
+      <c r="C25" s="7">
+        <v>45215</v>
+      </c>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
         <v>45202</v>
       </c>
-      <c r="B26" s="14"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="B26" s="13"/>
+      <c r="C26" s="15">
+        <v>12</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
         <v>15</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="C27" s="15">
         <v>10</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="D27" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>10</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
+      <c r="C28" s="7">
+        <v>45216</v>
+      </c>
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
         <v>45203</v>
       </c>
-      <c r="B29" s="14"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="B29" s="13"/>
+      <c r="C29" s="15">
+        <v>15</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
         <v>5</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="C30" s="7">
+        <v>45218</v>
+      </c>
+      <c r="D30" s="13"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
         <v>5</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
-        <v>45205</v>
-      </c>
-      <c r="B32" s="14"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
-        <v>10</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
+      <c r="C31" s="15">
         <v>15</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
-        <v>5</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+      <c r="D31" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="7">
+        <v>45219</v>
+      </c>
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="24"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="16">
         <v>15</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
-        <v>10</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
-        <v>5</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
-        <v>5</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
-        <v>45208</v>
-      </c>
-      <c r="B40" s="14"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
-        <v>15</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
-        <v>5</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
-        <v>15</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="13">
-        <v>45209</v>
-      </c>
-      <c r="B44" s="14"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
-        <v>10</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
-        <v>15</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
-        <v>15</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="13">
-        <v>45212</v>
-      </c>
-      <c r="B48" s="14"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
-        <v>10</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
-        <v>10</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="9">
-        <v>15</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="9">
-        <v>5</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="13">
-        <v>45213</v>
-      </c>
-      <c r="B53" s="14"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="9">
-        <v>10</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="13">
-        <v>45215</v>
-      </c>
-      <c r="B55" s="14"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="9">
-        <v>12</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="9">
-        <v>10</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="13">
-        <v>45216</v>
-      </c>
-      <c r="B58" s="14"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="9">
-        <v>15</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="13">
-        <v>45218</v>
-      </c>
-      <c r="B60" s="14"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="9">
-        <v>15</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="13">
-        <v>45219</v>
-      </c>
-      <c r="B62" s="14"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="9">
-        <v>15</v>
-      </c>
-      <c r="B63" s="5" t="s">
+      <c r="D33" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="13">
-        <v>45220</v>
-      </c>
-      <c r="B64" s="14"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="9">
-        <v>0</v>
-      </c>
-      <c r="B65" s="5"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B66" s="8">
-        <f>SUM(A3,A5,A7,A9:A13,A15,A17:A20,A22:A25,A27:A28,A30:A31,A33:A39,A41:A43,A45:A47,A49:A52,A54,A56:A57,A59,A61,A63,A65)</f>
+      <c r="B34" s="33"/>
+      <c r="C34" s="35">
+        <f>SUM(A3,A5,A7,A9:A13,A15,A17:A20,A22:A25,A27:A28,A30:A31,C3:C9,C11:C13,C15:C17,C19:C22,C24,C26:C27,C29,C31,C33)</f>
         <v>477</v>
       </c>
+      <c r="D34" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A26:B26"/>
   </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="115" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1138,7 +1346,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1146,208 +1354,193 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="8">
         <v>45222</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="8">
         <v>45223</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="8">
         <v>45224</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="9"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="8">
         <v>45225</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="8">
         <v>45226</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="8">
         <v>45227</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="8">
         <v>45228</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="8">
         <v>45229</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="9"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="8">
         <v>45230</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="A11" s="8">
         <v>45231</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="9"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="8">
         <v>45232</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="8">
         <v>45233</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="9"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="8">
         <v>45234</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+      <c r="A15" s="8">
         <v>45235</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="A16" s="8">
         <v>45236</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="9"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
+      <c r="A17" s="8">
         <v>45237</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+      <c r="A18" s="8">
         <v>45238</v>
       </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
+      <c r="A19" s="8">
         <v>45239</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="9"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+      <c r="A20" s="8">
         <v>45240</v>
       </c>
-      <c r="B20" s="18"/>
+      <c r="B20" s="9"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
+      <c r="A21" s="8">
         <v>45241</v>
       </c>
-      <c r="B21" s="18"/>
+      <c r="B21" s="9"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
+      <c r="A22" s="8">
         <v>45242</v>
       </c>
-      <c r="B22" s="18"/>
+      <c r="B22" s="9"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
+      <c r="A23" s="8">
         <v>45243</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="9"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
+      <c r="A24" s="8">
         <v>45244</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="9"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
+      <c r="A25" s="8">
         <v>45245</v>
       </c>
-      <c r="B25" s="18"/>
+      <c r="B25" s="9"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
+      <c r="A26" s="8">
         <v>45246</v>
       </c>
-      <c r="B26" s="18"/>
+      <c r="B26" s="9"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
+      <c r="A27" s="8">
         <v>45247</v>
       </c>
-      <c r="B27" s="18"/>
+      <c r="B27" s="9"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
+      <c r="A28" s="8">
         <v>45248</v>
       </c>
-      <c r="B28" s="18"/>
+      <c r="B28" s="9"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
+      <c r="A29" s="8">
         <v>45249</v>
       </c>
-      <c r="B29" s="18"/>
+      <c r="B29" s="9"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
+      <c r="A30" s="8">
         <v>45250</v>
       </c>
-      <c r="B30" s="18"/>
+      <c r="B30" s="9"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
+      <c r="A31" s="8">
         <v>45251</v>
       </c>
-      <c r="B31" s="18"/>
+      <c r="B31" s="9"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
+      <c r="A32" s="8">
         <v>45252</v>
       </c>
-      <c r="B32" s="18"/>
+      <c r="B32" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A17:B17"/>
@@ -1364,6 +1557,21 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1383,7 +1591,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1391,193 +1599,199 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="8">
         <v>45253</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="8">
         <v>45254</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="8">
         <v>45255</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="9"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="8">
         <v>45256</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="8">
         <v>45257</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="8">
         <v>45258</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="8">
         <v>45259</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="8">
         <v>45260</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="9"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="8">
         <v>45261</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="A11" s="8">
         <v>45262</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="9"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="8">
         <v>45263</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="8">
         <v>45264</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="9"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="8">
         <v>45265</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+      <c r="A15" s="8">
         <v>45266</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="A16" s="8">
         <v>45267</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="9"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
+      <c r="A17" s="8">
         <v>45268</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+      <c r="A18" s="8">
         <v>45269</v>
       </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
+      <c r="A19" s="8">
         <v>45270</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="9"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+      <c r="A20" s="8">
         <v>45271</v>
       </c>
-      <c r="B20" s="18"/>
+      <c r="B20" s="9"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
+      <c r="A21" s="8">
         <v>45272</v>
       </c>
-      <c r="B21" s="18"/>
+      <c r="B21" s="9"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
+      <c r="A22" s="8">
         <v>45273</v>
       </c>
-      <c r="B22" s="18"/>
+      <c r="B22" s="9"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
+      <c r="A23" s="8">
         <v>45274</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="9"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
+      <c r="A24" s="8">
         <v>45275</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="9"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
+      <c r="A25" s="8">
         <v>45276</v>
       </c>
-      <c r="B25" s="18"/>
+      <c r="B25" s="9"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
+      <c r="A26" s="8">
         <v>45277</v>
       </c>
-      <c r="B26" s="18"/>
+      <c r="B26" s="9"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
+      <c r="A27" s="8">
         <v>45278</v>
       </c>
-      <c r="B27" s="18"/>
+      <c r="B27" s="9"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
+      <c r="A28" s="8">
         <v>45279</v>
       </c>
-      <c r="B28" s="18"/>
+      <c r="B28" s="9"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
+      <c r="A29" s="8">
         <v>45280</v>
       </c>
-      <c r="B29" s="18"/>
+      <c r="B29" s="9"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
+      <c r="A30" s="8">
         <v>45281</v>
       </c>
-      <c r="B30" s="18"/>
+      <c r="B30" s="9"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
+      <c r="A31" s="8">
         <v>45282</v>
       </c>
-      <c r="B31" s="18"/>
+      <c r="B31" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
@@ -1590,18 +1804,12 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/CORRIDAS TK MULTIMARCAS.xlsx
+++ b/CORRIDAS TK MULTIMARCAS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\CORRIDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E440769-A58D-4499-A328-544603CC6654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B6E644-D7A0-443D-ACD1-CDE048A1800D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="8685" yWindow="0" windowWidth="14115" windowHeight="11160" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
   </bookViews>
   <sheets>
     <sheet name="MES 01" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>VALOR</t>
   </si>
@@ -123,14 +123,24 @@
   </si>
   <si>
     <t xml:space="preserve">LAGO AZUL </t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>VILA CEARENSE</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -147,7 +157,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,8 +188,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -437,11 +459,127 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -461,7 +599,157 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -469,84 +757,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -864,445 +1074,446 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F9604B-4253-4656-9EE1-52445E75917C}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="A1:D34"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="O38" sqref="J37:O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="5" customWidth="1"/>
     <col min="2" max="4" width="20.7109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="7" width="9.140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="20" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+      <c r="A2" s="49">
         <v>45192</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28">
+      <c r="B2" s="50"/>
+      <c r="C2" s="44">
         <v>45205</v>
       </c>
-      <c r="D2" s="29"/>
+      <c r="D2" s="45"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="12">
         <v>10</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="10">
         <v>10</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="51">
         <v>45194</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="15">
-        <v>15</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="10">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="7">
         <v>10</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="10">
         <v>5</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="51">
         <v>45195</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="15">
-        <v>15</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="10">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>15</v>
-      </c>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="7">
+        <v>15</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="10">
         <v>10</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="51">
         <v>45196</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="15">
+      <c r="B8" s="52"/>
+      <c r="C8" s="10">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>15</v>
-      </c>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="7">
+        <v>15</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="10">
         <v>5</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="7">
         <v>5</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="46">
         <v>45208</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="47"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="15">
-        <v>15</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="10">
+        <v>15</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="7">
         <v>5</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="10">
         <v>5</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>15</v>
-      </c>
-      <c r="B13" s="21" t="s">
+      <c r="A13" s="7">
+        <v>15</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="15">
-        <v>15</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="10">
+        <v>15</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="51">
         <v>45197</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="7">
+      <c r="B14" s="52"/>
+      <c r="C14" s="46">
         <v>45209</v>
       </c>
-      <c r="D14" s="13"/>
+      <c r="D14" s="47"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="7">
         <v>10</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="10">
         <v>10</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="48">
         <v>45198</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="15">
-        <v>15</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="B16" s="47"/>
+      <c r="C16" s="10">
+        <v>15</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+      <c r="A17" s="12">
         <v>10</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="15">
-        <v>15</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="10">
+        <v>15</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
-        <v>15</v>
-      </c>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="12">
+        <v>15</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="46">
         <v>45212</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="47"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+      <c r="A19" s="12">
         <v>5</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="10">
         <v>10</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
-        <v>15</v>
-      </c>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="12">
+        <v>15</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="10">
         <v>10</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="A21" s="48">
         <v>45201</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="15">
-        <v>15</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="B21" s="47"/>
+      <c r="C21" s="10">
+        <v>15</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
-        <v>15</v>
-      </c>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="12">
+        <v>15</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="10">
         <v>5</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
-        <v>15</v>
-      </c>
-      <c r="B23" s="11" t="s">
+      <c r="A23" s="7">
+        <v>15</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="46">
         <v>45213</v>
       </c>
-      <c r="D23" s="13"/>
+      <c r="D23" s="47"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="A24" s="7">
         <v>5</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="10">
         <v>10</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
+      <c r="A25" s="7">
         <v>10</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="7">
+      <c r="B25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="46">
         <v>45215</v>
       </c>
-      <c r="D25" s="13"/>
+      <c r="D25" s="47"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
+      <c r="A26" s="48">
         <v>45202</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="15">
+      <c r="B26" s="47"/>
+      <c r="C26" s="10">
         <v>12</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
-        <v>15</v>
-      </c>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="7">
+        <v>15</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="10">
         <v>10</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
+      <c r="A28" s="7">
         <v>10</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="46">
         <v>45216</v>
       </c>
-      <c r="D28" s="13"/>
+      <c r="D28" s="47"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
+      <c r="A29" s="48">
         <v>45203</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="15">
-        <v>15</v>
-      </c>
-      <c r="D29" s="11" t="s">
+      <c r="B29" s="47"/>
+      <c r="C29" s="10">
+        <v>15</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
+      <c r="A30" s="7">
         <v>5</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="46">
         <v>45218</v>
       </c>
-      <c r="D30" s="13"/>
+      <c r="D30" s="47"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+      <c r="A31" s="7">
         <v>5</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="15">
-        <v>15</v>
-      </c>
-      <c r="D31" s="11" t="s">
+      <c r="C31" s="10">
+        <v>15</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="7">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="46">
         <v>45219</v>
       </c>
-      <c r="D32" s="13"/>
+      <c r="D32" s="47"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="16">
-        <v>15</v>
-      </c>
-      <c r="D33" s="14" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="11">
+        <v>15</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="35">
+      <c r="B34" s="54"/>
+      <c r="C34" s="55">
         <f>SUM(A3,A5,A7,A9:A13,A15,A17:A20,A22:A25,A27:A28,A30:A31,C3:C9,C11:C13,C15:C17,C19:C22,C24,C26:C27,C29,C31,C33)</f>
         <v>477</v>
       </c>
-      <c r="D34" s="34"/>
+      <c r="D34" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -1334,246 +1545,128 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39585085-A1B2-4FF0-B72D-E02CCA4A4823}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B32"/>
+      <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>45222</v>
-      </c>
-      <c r="B2" s="9"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>45223</v>
-      </c>
-      <c r="B3" s="9"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>45224</v>
-      </c>
-      <c r="B4" s="9"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>45225</v>
-      </c>
-      <c r="B5" s="9"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>45226</v>
-      </c>
-      <c r="B6" s="9"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="33">
         <v>45227</v>
       </c>
-      <c r="B7" s="9"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>45228</v>
-      </c>
-      <c r="B8" s="9"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>45229</v>
-      </c>
-      <c r="B9" s="9"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="B2" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="36">
+        <v>45227</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="36">
+        <v>45227</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="38">
+        <v>45227</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="41">
         <v>45230</v>
       </c>
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="B6" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
         <v>45231</v>
       </c>
-      <c r="B11" s="9"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>45232</v>
-      </c>
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>45233</v>
-      </c>
-      <c r="B13" s="9"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>45234</v>
-      </c>
-      <c r="B14" s="9"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>45235</v>
-      </c>
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>45236</v>
-      </c>
-      <c r="B16" s="9"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>45237</v>
-      </c>
-      <c r="B17" s="9"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>45238</v>
-      </c>
-      <c r="B18" s="9"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>45239</v>
-      </c>
-      <c r="B19" s="9"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>45240</v>
-      </c>
-      <c r="B20" s="9"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>45241</v>
-      </c>
-      <c r="B21" s="9"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>45242</v>
-      </c>
-      <c r="B22" s="9"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <v>45243</v>
-      </c>
-      <c r="B23" s="9"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>45244</v>
-      </c>
-      <c r="B24" s="9"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>45245</v>
-      </c>
-      <c r="B25" s="9"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>45246</v>
-      </c>
-      <c r="B26" s="9"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <v>45247</v>
-      </c>
-      <c r="B27" s="9"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>45248</v>
-      </c>
-      <c r="B28" s="9"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
-        <v>45249</v>
-      </c>
-      <c r="B29" s="9"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
-        <v>45250</v>
-      </c>
-      <c r="B30" s="9"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
-        <v>45251</v>
-      </c>
-      <c r="B31" s="9"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
-        <v>45252</v>
-      </c>
-      <c r="B32" s="9"/>
+      <c r="B7" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="57"/>
+      <c r="C11" s="23">
+        <f>SUM(C2:C10)</f>
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A13:B13"/>
+  <mergeCells count="1">
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1599,184 +1692,184 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="58">
         <v>45253</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="59"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="58">
         <v>45254</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="59"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="58">
         <v>45255</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="59"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="58">
         <v>45256</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="59"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="58">
         <v>45257</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="59"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="58">
         <v>45258</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="59"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="58">
         <v>45259</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="59"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="58">
         <v>45260</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="59"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="58">
         <v>45261</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="59"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="58">
         <v>45262</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="59"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="58">
         <v>45263</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="59"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="58">
         <v>45264</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="59"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="58">
         <v>45265</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="59"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="58">
         <v>45266</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="59"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="58">
         <v>45267</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="59"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="58">
         <v>45268</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="59"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="58">
         <v>45269</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="59"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="58">
         <v>45270</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="59"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="58">
         <v>45271</v>
       </c>
-      <c r="B20" s="9"/>
+      <c r="B20" s="59"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="58">
         <v>45272</v>
       </c>
-      <c r="B21" s="9"/>
+      <c r="B21" s="59"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="58">
         <v>45273</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="59"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="A23" s="58">
         <v>45274</v>
       </c>
-      <c r="B23" s="9"/>
+      <c r="B23" s="59"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="A24" s="58">
         <v>45275</v>
       </c>
-      <c r="B24" s="9"/>
+      <c r="B24" s="59"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="A25" s="58">
         <v>45276</v>
       </c>
-      <c r="B25" s="9"/>
+      <c r="B25" s="59"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="A26" s="58">
         <v>45277</v>
       </c>
-      <c r="B26" s="9"/>
+      <c r="B26" s="59"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+      <c r="A27" s="58">
         <v>45278</v>
       </c>
-      <c r="B27" s="9"/>
+      <c r="B27" s="59"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="A28" s="58">
         <v>45279</v>
       </c>
-      <c r="B28" s="9"/>
+      <c r="B28" s="59"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="A29" s="58">
         <v>45280</v>
       </c>
-      <c r="B29" s="9"/>
+      <c r="B29" s="59"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="A30" s="58">
         <v>45281</v>
       </c>
-      <c r="B30" s="9"/>
+      <c r="B30" s="59"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+      <c r="A31" s="58">
         <v>45282</v>
       </c>
-      <c r="B31" s="9"/>
+      <c r="B31" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="30">

--- a/CORRIDAS TK MULTIMARCAS.xlsx
+++ b/CORRIDAS TK MULTIMARCAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\CORRIDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B6E644-D7A0-443D-ACD1-CDE048A1800D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D986D0-7658-4441-AD1E-939665A25857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
   </bookViews>
   <sheets>
     <sheet name="MES 01" sheetId="1" r:id="rId1"/>
@@ -201,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -466,19 +466,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -573,13 +560,52 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -647,43 +673,19 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -692,39 +694,51 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -735,21 +749,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -757,6 +756,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1074,7 +1097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F9604B-4253-4656-9EE1-52445E75917C}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="O38" sqref="J37:O38"/>
     </sheetView>
   </sheetViews>
@@ -1101,14 +1124,14 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="49">
+      <c r="A2" s="45">
         <v>45192</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="44">
+      <c r="B2" s="46"/>
+      <c r="C2" s="43">
         <v>45205</v>
       </c>
-      <c r="D2" s="45"/>
+      <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
@@ -1125,10 +1148,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="51">
+      <c r="A4" s="47">
         <v>45194</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="10">
         <v>15</v>
       </c>
@@ -1151,10 +1174,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="51">
+      <c r="A6" s="47">
         <v>45195</v>
       </c>
-      <c r="B6" s="52"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="10">
         <v>15</v>
       </c>
@@ -1177,10 +1200,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="51">
+      <c r="A8" s="47">
         <v>45196</v>
       </c>
-      <c r="B8" s="52"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="10">
         <v>5</v>
       </c>
@@ -1209,10 +1232,10 @@
       <c r="B10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="42">
         <v>45208</v>
       </c>
-      <c r="D10" s="47"/>
+      <c r="D10" s="41"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -1257,14 +1280,14 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="51">
+      <c r="A14" s="47">
         <v>45197</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="46">
+      <c r="B14" s="48"/>
+      <c r="C14" s="42">
         <v>45209</v>
       </c>
-      <c r="D14" s="47"/>
+      <c r="D14" s="41"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -1281,10 +1304,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="48">
+      <c r="A16" s="40">
         <v>45198</v>
       </c>
-      <c r="B16" s="47"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="10">
         <v>15</v>
       </c>
@@ -1313,10 +1336,10 @@
       <c r="B18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="46">
+      <c r="C18" s="42">
         <v>45212</v>
       </c>
-      <c r="D18" s="47"/>
+      <c r="D18" s="41"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -1347,10 +1370,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="48">
+      <c r="A21" s="40">
         <v>45201</v>
       </c>
-      <c r="B21" s="47"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="10">
         <v>15</v>
       </c>
@@ -1379,10 +1402,10 @@
       <c r="B23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="46">
+      <c r="C23" s="42">
         <v>45213</v>
       </c>
-      <c r="D23" s="47"/>
+      <c r="D23" s="41"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
@@ -1405,16 +1428,16 @@
       <c r="B25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="46">
+      <c r="C25" s="42">
         <v>45215</v>
       </c>
-      <c r="D25" s="47"/>
+      <c r="D25" s="41"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="48">
+      <c r="A26" s="40">
         <v>45202</v>
       </c>
-      <c r="B26" s="47"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="10">
         <v>12</v>
       </c>
@@ -1443,16 +1466,16 @@
       <c r="B28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="46">
+      <c r="C28" s="42">
         <v>45216</v>
       </c>
-      <c r="D28" s="47"/>
+      <c r="D28" s="41"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="48">
+      <c r="A29" s="40">
         <v>45203</v>
       </c>
-      <c r="B29" s="47"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="10">
         <v>15</v>
       </c>
@@ -1467,10 +1490,10 @@
       <c r="B30" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="46">
+      <c r="C30" s="42">
         <v>45218</v>
       </c>
-      <c r="D30" s="47"/>
+      <c r="D30" s="41"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
@@ -1489,10 +1512,10 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
-      <c r="C32" s="46">
+      <c r="C32" s="42">
         <v>45219</v>
       </c>
-      <c r="D32" s="47"/>
+      <c r="D32" s="41"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
@@ -1505,25 +1528,18 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="54"/>
-      <c r="C34" s="55">
+      <c r="B34" s="37"/>
+      <c r="C34" s="38">
         <f>SUM(A3,A5,A7,A9:A13,A15,A17:A20,A22:A25,A27:A28,A30:A31,C3:C9,C11:C13,C15:C17,C19:C22,C24,C26:C27,C29,C31,C33)</f>
         <v>477</v>
       </c>
-      <c r="D34" s="56"/>
+      <c r="D34" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A29:B29"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="A21:B21"/>
@@ -1537,6 +1553,13 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="115" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1547,8 +1570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39585085-A1B2-4FF0-B72D-E02CCA4A4823}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,103 +1583,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="53" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="33">
+      <c r="A2" s="25">
         <v>45227</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="27">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="36">
+      <c r="A3" s="28">
         <v>45227</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="29">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="36">
+      <c r="A4" s="28">
         <v>45227</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38">
+      <c r="A5" s="30">
         <v>45227</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="32">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41">
+      <c r="A6" s="33">
         <v>45230</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="35">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
+      <c r="A7" s="54">
         <v>45231</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="55">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="29"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="29"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
+      <c r="A10" s="28"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="29"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="56" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="57"/>
-      <c r="C11" s="23">
+      <c r="C11" s="58">
         <f>SUM(C2:C10)</f>
         <v>60</v>
       </c>
@@ -1692,187 +1715,205 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="58">
+      <c r="A2" s="49">
         <v>45253</v>
       </c>
-      <c r="B2" s="59"/>
+      <c r="B2" s="50"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="58">
+      <c r="A3" s="49">
         <v>45254</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="50"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="58">
+      <c r="A4" s="49">
         <v>45255</v>
       </c>
-      <c r="B4" s="59"/>
+      <c r="B4" s="50"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="58">
+      <c r="A5" s="49">
         <v>45256</v>
       </c>
-      <c r="B5" s="59"/>
+      <c r="B5" s="50"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="58">
+      <c r="A6" s="49">
         <v>45257</v>
       </c>
-      <c r="B6" s="59"/>
+      <c r="B6" s="50"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="58">
+      <c r="A7" s="49">
         <v>45258</v>
       </c>
-      <c r="B7" s="59"/>
+      <c r="B7" s="50"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="58">
+      <c r="A8" s="49">
         <v>45259</v>
       </c>
-      <c r="B8" s="59"/>
+      <c r="B8" s="50"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="58">
+      <c r="A9" s="49">
         <v>45260</v>
       </c>
-      <c r="B9" s="59"/>
+      <c r="B9" s="50"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="58">
+      <c r="A10" s="49">
         <v>45261</v>
       </c>
-      <c r="B10" s="59"/>
+      <c r="B10" s="50"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="58">
+      <c r="A11" s="49">
         <v>45262</v>
       </c>
-      <c r="B11" s="59"/>
+      <c r="B11" s="50"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="58">
+      <c r="A12" s="49">
         <v>45263</v>
       </c>
-      <c r="B12" s="59"/>
+      <c r="B12" s="50"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="58">
+      <c r="A13" s="49">
         <v>45264</v>
       </c>
-      <c r="B13" s="59"/>
+      <c r="B13" s="50"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="58">
+      <c r="A14" s="49">
         <v>45265</v>
       </c>
-      <c r="B14" s="59"/>
+      <c r="B14" s="50"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="58">
+      <c r="A15" s="49">
         <v>45266</v>
       </c>
-      <c r="B15" s="59"/>
+      <c r="B15" s="50"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="58">
+      <c r="A16" s="49">
         <v>45267</v>
       </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="50"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="58">
+      <c r="A17" s="49">
         <v>45268</v>
       </c>
-      <c r="B17" s="59"/>
+      <c r="B17" s="50"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="58">
+      <c r="A18" s="49">
         <v>45269</v>
       </c>
-      <c r="B18" s="59"/>
+      <c r="B18" s="50"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="58">
+      <c r="A19" s="49">
         <v>45270</v>
       </c>
-      <c r="B19" s="59"/>
+      <c r="B19" s="50"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="58">
+      <c r="A20" s="49">
         <v>45271</v>
       </c>
-      <c r="B20" s="59"/>
+      <c r="B20" s="50"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="58">
+      <c r="A21" s="49">
         <v>45272</v>
       </c>
-      <c r="B21" s="59"/>
+      <c r="B21" s="50"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="58">
+      <c r="A22" s="49">
         <v>45273</v>
       </c>
-      <c r="B22" s="59"/>
+      <c r="B22" s="50"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="58">
+      <c r="A23" s="49">
         <v>45274</v>
       </c>
-      <c r="B23" s="59"/>
+      <c r="B23" s="50"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="58">
+      <c r="A24" s="49">
         <v>45275</v>
       </c>
-      <c r="B24" s="59"/>
+      <c r="B24" s="50"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="58">
+      <c r="A25" s="49">
         <v>45276</v>
       </c>
-      <c r="B25" s="59"/>
+      <c r="B25" s="50"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="58">
+      <c r="A26" s="49">
         <v>45277</v>
       </c>
-      <c r="B26" s="59"/>
+      <c r="B26" s="50"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="58">
+      <c r="A27" s="49">
         <v>45278</v>
       </c>
-      <c r="B27" s="59"/>
+      <c r="B27" s="50"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="58">
+      <c r="A28" s="49">
         <v>45279</v>
       </c>
-      <c r="B28" s="59"/>
+      <c r="B28" s="50"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="58">
+      <c r="A29" s="49">
         <v>45280</v>
       </c>
-      <c r="B29" s="59"/>
+      <c r="B29" s="50"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="58">
+      <c r="A30" s="49">
         <v>45281</v>
       </c>
-      <c r="B30" s="59"/>
+      <c r="B30" s="50"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="58">
+      <c r="A31" s="49">
         <v>45282</v>
       </c>
-      <c r="B31" s="59"/>
+      <c r="B31" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
@@ -1885,24 +1926,6 @@
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/CORRIDAS TK MULTIMARCAS.xlsx
+++ b/CORRIDAS TK MULTIMARCAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\CORRIDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D986D0-7658-4441-AD1E-939665A25857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D800D4-99DD-4167-9C8D-AF5DCA47A385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>VALOR</t>
   </si>
@@ -132,6 +132,21 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>JARDIM EUROPA</t>
+  </si>
+  <si>
+    <t>CEU AZUL</t>
+  </si>
+  <si>
+    <t>SÃO JOAO</t>
+  </si>
+  <si>
+    <t>COSTA ESMERALDA</t>
+  </si>
+  <si>
+    <t>VILA SANTIAGO</t>
   </si>
 </sst>
 </file>
@@ -201,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -460,29 +475,156 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -491,121 +633,20 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -676,16 +717,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -694,24 +732,60 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -722,33 +796,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -757,28 +804,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1124,14 +1156,14 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="45">
+      <c r="A2" s="43">
         <v>45192</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="43">
+      <c r="B2" s="44"/>
+      <c r="C2" s="38">
         <v>45205</v>
       </c>
-      <c r="D2" s="44"/>
+      <c r="D2" s="39"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
@@ -1148,10 +1180,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="47">
+      <c r="A4" s="45">
         <v>45194</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="10">
         <v>15</v>
       </c>
@@ -1174,10 +1206,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="47">
+      <c r="A6" s="45">
         <v>45195</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="10">
         <v>15</v>
       </c>
@@ -1200,10 +1232,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="47">
+      <c r="A8" s="45">
         <v>45196</v>
       </c>
-      <c r="B8" s="48"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="10">
         <v>5</v>
       </c>
@@ -1232,7 +1264,7 @@
       <c r="B10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="40">
         <v>45208</v>
       </c>
       <c r="D10" s="41"/>
@@ -1280,11 +1312,11 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="47">
+      <c r="A14" s="45">
         <v>45197</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="42">
+      <c r="B14" s="46"/>
+      <c r="C14" s="40">
         <v>45209</v>
       </c>
       <c r="D14" s="41"/>
@@ -1304,7 +1336,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="40">
+      <c r="A16" s="42">
         <v>45198</v>
       </c>
       <c r="B16" s="41"/>
@@ -1336,7 +1368,7 @@
       <c r="B18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="40">
         <v>45212</v>
       </c>
       <c r="D18" s="41"/>
@@ -1370,7 +1402,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="40">
+      <c r="A21" s="42">
         <v>45201</v>
       </c>
       <c r="B21" s="41"/>
@@ -1402,7 +1434,7 @@
       <c r="B23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C23" s="40">
         <v>45213</v>
       </c>
       <c r="D23" s="41"/>
@@ -1428,13 +1460,13 @@
       <c r="B25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="40">
         <v>45215</v>
       </c>
       <c r="D25" s="41"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="40">
+      <c r="A26" s="42">
         <v>45202</v>
       </c>
       <c r="B26" s="41"/>
@@ -1466,13 +1498,13 @@
       <c r="B28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="42">
+      <c r="C28" s="40">
         <v>45216</v>
       </c>
       <c r="D28" s="41"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="40">
+      <c r="A29" s="42">
         <v>45203</v>
       </c>
       <c r="B29" s="41"/>
@@ -1490,7 +1522,7 @@
       <c r="B30" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="40">
         <v>45218</v>
       </c>
       <c r="D30" s="41"/>
@@ -1512,7 +1544,7 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
-      <c r="C32" s="42">
+      <c r="C32" s="40">
         <v>45219</v>
       </c>
       <c r="D32" s="41"/>
@@ -1528,18 +1560,25 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="38">
+      <c r="B34" s="48"/>
+      <c r="C34" s="49">
         <f>SUM(A3,A5,A7,A9:A13,A15,A17:A20,A22:A25,A27:A28,A30:A31,C3:C9,C11:C13,C15:C17,C19:C22,C24,C26:C27,C29,C31,C33)</f>
         <v>477</v>
       </c>
-      <c r="D34" s="39"/>
+      <c r="D34" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="A21:B21"/>
@@ -1553,13 +1592,6 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="115" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1568,10 +1600,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39585085-A1B2-4FF0-B72D-E02CCA4A4823}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="A2:C5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,110 +1615,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="37" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
+      <c r="A2" s="24">
         <v>45227</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="26">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="28">
+      <c r="A3" s="27">
         <v>45227</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="28">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="28">
+      <c r="A4" s="27">
         <v>45227</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="28">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30">
+      <c r="A5" s="29">
         <v>45227</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="31">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33">
+      <c r="A6" s="32">
         <v>45230</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="34">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="54">
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32">
         <v>45231</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="55">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="29"/>
+      <c r="C7" s="34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="32">
+        <v>45233</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="34">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="29"/>
+      <c r="A9" s="24">
+        <v>45234</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="26">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="29"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="56" t="s">
+      <c r="A10" s="27">
+        <v>45234</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="27">
+        <v>45234</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="29">
+        <v>45234</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="58">
-        <f>SUM(C2:C10)</f>
-        <v>60</v>
+      <c r="B13" s="54"/>
+      <c r="C13" s="55">
+        <f>SUM(C2:C12)</f>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1715,193 +1787,199 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="49">
+      <c r="A2" s="51">
         <v>45253</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="52"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="49">
+      <c r="A3" s="51">
         <v>45254</v>
       </c>
-      <c r="B3" s="50"/>
+      <c r="B3" s="52"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="49">
+      <c r="A4" s="51">
         <v>45255</v>
       </c>
-      <c r="B4" s="50"/>
+      <c r="B4" s="52"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="49">
+      <c r="A5" s="51">
         <v>45256</v>
       </c>
-      <c r="B5" s="50"/>
+      <c r="B5" s="52"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="49">
+      <c r="A6" s="51">
         <v>45257</v>
       </c>
-      <c r="B6" s="50"/>
+      <c r="B6" s="52"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="49">
+      <c r="A7" s="51">
         <v>45258</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="52"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="49">
+      <c r="A8" s="51">
         <v>45259</v>
       </c>
-      <c r="B8" s="50"/>
+      <c r="B8" s="52"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="49">
+      <c r="A9" s="51">
         <v>45260</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="52"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="49">
+      <c r="A10" s="51">
         <v>45261</v>
       </c>
-      <c r="B10" s="50"/>
+      <c r="B10" s="52"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="49">
+      <c r="A11" s="51">
         <v>45262</v>
       </c>
-      <c r="B11" s="50"/>
+      <c r="B11" s="52"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="49">
+      <c r="A12" s="51">
         <v>45263</v>
       </c>
-      <c r="B12" s="50"/>
+      <c r="B12" s="52"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="49">
+      <c r="A13" s="51">
         <v>45264</v>
       </c>
-      <c r="B13" s="50"/>
+      <c r="B13" s="52"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="49">
+      <c r="A14" s="51">
         <v>45265</v>
       </c>
-      <c r="B14" s="50"/>
+      <c r="B14" s="52"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="49">
+      <c r="A15" s="51">
         <v>45266</v>
       </c>
-      <c r="B15" s="50"/>
+      <c r="B15" s="52"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="49">
+      <c r="A16" s="51">
         <v>45267</v>
       </c>
-      <c r="B16" s="50"/>
+      <c r="B16" s="52"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="49">
+      <c r="A17" s="51">
         <v>45268</v>
       </c>
-      <c r="B17" s="50"/>
+      <c r="B17" s="52"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="49">
+      <c r="A18" s="51">
         <v>45269</v>
       </c>
-      <c r="B18" s="50"/>
+      <c r="B18" s="52"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="49">
+      <c r="A19" s="51">
         <v>45270</v>
       </c>
-      <c r="B19" s="50"/>
+      <c r="B19" s="52"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="49">
+      <c r="A20" s="51">
         <v>45271</v>
       </c>
-      <c r="B20" s="50"/>
+      <c r="B20" s="52"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="49">
+      <c r="A21" s="51">
         <v>45272</v>
       </c>
-      <c r="B21" s="50"/>
+      <c r="B21" s="52"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="49">
+      <c r="A22" s="51">
         <v>45273</v>
       </c>
-      <c r="B22" s="50"/>
+      <c r="B22" s="52"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="49">
+      <c r="A23" s="51">
         <v>45274</v>
       </c>
-      <c r="B23" s="50"/>
+      <c r="B23" s="52"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="49">
+      <c r="A24" s="51">
         <v>45275</v>
       </c>
-      <c r="B24" s="50"/>
+      <c r="B24" s="52"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="49">
+      <c r="A25" s="51">
         <v>45276</v>
       </c>
-      <c r="B25" s="50"/>
+      <c r="B25" s="52"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="49">
+      <c r="A26" s="51">
         <v>45277</v>
       </c>
-      <c r="B26" s="50"/>
+      <c r="B26" s="52"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="49">
+      <c r="A27" s="51">
         <v>45278</v>
       </c>
-      <c r="B27" s="50"/>
+      <c r="B27" s="52"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="49">
+      <c r="A28" s="51">
         <v>45279</v>
       </c>
-      <c r="B28" s="50"/>
+      <c r="B28" s="52"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="49">
+      <c r="A29" s="51">
         <v>45280</v>
       </c>
-      <c r="B29" s="50"/>
+      <c r="B29" s="52"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="49">
+      <c r="A30" s="51">
         <v>45281</v>
       </c>
-      <c r="B30" s="50"/>
+      <c r="B30" s="52"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="49">
+      <c r="A31" s="51">
         <v>45282</v>
       </c>
-      <c r="B31" s="50"/>
+      <c r="B31" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
@@ -1914,18 +1992,12 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/CORRIDAS TK MULTIMARCAS.xlsx
+++ b/CORRIDAS TK MULTIMARCAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\CORRIDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D800D4-99DD-4167-9C8D-AF5DCA47A385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6197C8-FB94-4317-B632-25E47C72ABF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
   <si>
     <t>VALOR</t>
   </si>
@@ -147,6 +147,21 @@
   </si>
   <si>
     <t>VILA SANTIAGO</t>
+  </si>
+  <si>
+    <t>UNIVERSITARIO</t>
+  </si>
+  <si>
+    <t>BEIRA LAGO</t>
+  </si>
+  <si>
+    <t>HARAS</t>
+  </si>
+  <si>
+    <t>VILA DERTINS</t>
+  </si>
+  <si>
+    <t>ARAGUAINA SUL</t>
   </si>
 </sst>
 </file>
@@ -216,7 +231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -642,11 +657,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -759,21 +813,36 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -786,16 +855,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -804,13 +867,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1156,14 +1219,14 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="43">
+      <c r="A2" s="48">
         <v>45192</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="38">
+      <c r="B2" s="49"/>
+      <c r="C2" s="46">
         <v>45205</v>
       </c>
-      <c r="D2" s="39"/>
+      <c r="D2" s="47"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
@@ -1180,10 +1243,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="45">
+      <c r="A4" s="50">
         <v>45194</v>
       </c>
-      <c r="B4" s="46"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="10">
         <v>15</v>
       </c>
@@ -1206,10 +1269,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="45">
+      <c r="A6" s="50">
         <v>45195</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="10">
         <v>15</v>
       </c>
@@ -1232,10 +1295,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="45">
+      <c r="A8" s="50">
         <v>45196</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="10">
         <v>5</v>
       </c>
@@ -1264,10 +1327,10 @@
       <c r="B10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="45">
         <v>45208</v>
       </c>
-      <c r="D10" s="41"/>
+      <c r="D10" s="44"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -1312,14 +1375,14 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="45">
+      <c r="A14" s="50">
         <v>45197</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="40">
+      <c r="B14" s="51"/>
+      <c r="C14" s="45">
         <v>45209</v>
       </c>
-      <c r="D14" s="41"/>
+      <c r="D14" s="44"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -1336,10 +1399,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="42">
+      <c r="A16" s="43">
         <v>45198</v>
       </c>
-      <c r="B16" s="41"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="10">
         <v>15</v>
       </c>
@@ -1368,10 +1431,10 @@
       <c r="B18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="45">
         <v>45212</v>
       </c>
-      <c r="D18" s="41"/>
+      <c r="D18" s="44"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -1402,10 +1465,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="42">
+      <c r="A21" s="43">
         <v>45201</v>
       </c>
-      <c r="B21" s="41"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="10">
         <v>15</v>
       </c>
@@ -1434,10 +1497,10 @@
       <c r="B23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="40">
+      <c r="C23" s="45">
         <v>45213</v>
       </c>
-      <c r="D23" s="41"/>
+      <c r="D23" s="44"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
@@ -1460,16 +1523,16 @@
       <c r="B25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="40">
+      <c r="C25" s="45">
         <v>45215</v>
       </c>
-      <c r="D25" s="41"/>
+      <c r="D25" s="44"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="42">
+      <c r="A26" s="43">
         <v>45202</v>
       </c>
-      <c r="B26" s="41"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="10">
         <v>12</v>
       </c>
@@ -1498,16 +1561,16 @@
       <c r="B28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="40">
+      <c r="C28" s="45">
         <v>45216</v>
       </c>
-      <c r="D28" s="41"/>
+      <c r="D28" s="44"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="42">
+      <c r="A29" s="43">
         <v>45203</v>
       </c>
-      <c r="B29" s="41"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="10">
         <v>15</v>
       </c>
@@ -1522,10 +1585,10 @@
       <c r="B30" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="40">
+      <c r="C30" s="45">
         <v>45218</v>
       </c>
-      <c r="D30" s="41"/>
+      <c r="D30" s="44"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
@@ -1544,10 +1607,10 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
-      <c r="C32" s="40">
+      <c r="C32" s="45">
         <v>45219</v>
       </c>
-      <c r="D32" s="41"/>
+      <c r="D32" s="44"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
@@ -1560,25 +1623,18 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="48"/>
-      <c r="C34" s="49">
+      <c r="B34" s="40"/>
+      <c r="C34" s="41">
         <f>SUM(A3,A5,A7,A9:A13,A15,A17:A20,A22:A25,A27:A28,A30:A31,C3:C9,C11:C13,C15:C17,C19:C22,C24,C26:C27,C29,C31,C33)</f>
         <v>477</v>
       </c>
-      <c r="D34" s="50"/>
+      <c r="D34" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A29:B29"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="A21:B21"/>
@@ -1592,6 +1648,13 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="115" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1600,21 +1663,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39585085-A1B2-4FF0-B72D-E02CCA4A4823}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" style="22" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" style="22" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" style="21" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" style="5" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>32</v>
       </c>
@@ -1625,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
         <v>45227</v>
       </c>
@@ -1636,7 +1699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
         <v>45227</v>
       </c>
@@ -1647,7 +1710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>45227</v>
       </c>
@@ -1658,7 +1721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29">
         <v>45227</v>
       </c>
@@ -1669,7 +1732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32">
         <v>45230</v>
       </c>
@@ -1680,7 +1743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="32">
         <v>45231</v>
       </c>
@@ -1691,7 +1754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="32">
         <v>45233</v>
       </c>
@@ -1702,7 +1765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>45234</v>
       </c>
@@ -1713,7 +1776,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>45234</v>
       </c>
@@ -1724,7 +1787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>45234</v>
       </c>
@@ -1735,30 +1798,119 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29">
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="56">
         <v>45234</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="53" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
+        <v>45236</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
+        <v>45236</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="27">
+        <v>45236</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="28">
+        <v>10</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="27">
+        <v>45236</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="27">
+        <v>45236</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="27">
+        <v>45236</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="27">
+        <v>45236</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="29">
+        <v>45236</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="55">
-        <f>SUM(C2:C12)</f>
-        <v>120</v>
+      <c r="B21" s="53"/>
+      <c r="C21" s="38">
+        <f>SUM(C2:C20)</f>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1787,187 +1939,205 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="51">
+      <c r="A2" s="54">
         <v>45253</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="55"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="51">
+      <c r="A3" s="54">
         <v>45254</v>
       </c>
-      <c r="B3" s="52"/>
+      <c r="B3" s="55"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="51">
+      <c r="A4" s="54">
         <v>45255</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="55"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="51">
+      <c r="A5" s="54">
         <v>45256</v>
       </c>
-      <c r="B5" s="52"/>
+      <c r="B5" s="55"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="51">
+      <c r="A6" s="54">
         <v>45257</v>
       </c>
-      <c r="B6" s="52"/>
+      <c r="B6" s="55"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="51">
+      <c r="A7" s="54">
         <v>45258</v>
       </c>
-      <c r="B7" s="52"/>
+      <c r="B7" s="55"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="51">
+      <c r="A8" s="54">
         <v>45259</v>
       </c>
-      <c r="B8" s="52"/>
+      <c r="B8" s="55"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="51">
+      <c r="A9" s="54">
         <v>45260</v>
       </c>
-      <c r="B9" s="52"/>
+      <c r="B9" s="55"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="51">
+      <c r="A10" s="54">
         <v>45261</v>
       </c>
-      <c r="B10" s="52"/>
+      <c r="B10" s="55"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="51">
+      <c r="A11" s="54">
         <v>45262</v>
       </c>
-      <c r="B11" s="52"/>
+      <c r="B11" s="55"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="51">
+      <c r="A12" s="54">
         <v>45263</v>
       </c>
-      <c r="B12" s="52"/>
+      <c r="B12" s="55"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="51">
+      <c r="A13" s="54">
         <v>45264</v>
       </c>
-      <c r="B13" s="52"/>
+      <c r="B13" s="55"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="51">
+      <c r="A14" s="54">
         <v>45265</v>
       </c>
-      <c r="B14" s="52"/>
+      <c r="B14" s="55"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="51">
+      <c r="A15" s="54">
         <v>45266</v>
       </c>
-      <c r="B15" s="52"/>
+      <c r="B15" s="55"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="51">
+      <c r="A16" s="54">
         <v>45267</v>
       </c>
-      <c r="B16" s="52"/>
+      <c r="B16" s="55"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="51">
+      <c r="A17" s="54">
         <v>45268</v>
       </c>
-      <c r="B17" s="52"/>
+      <c r="B17" s="55"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="51">
+      <c r="A18" s="54">
         <v>45269</v>
       </c>
-      <c r="B18" s="52"/>
+      <c r="B18" s="55"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="51">
+      <c r="A19" s="54">
         <v>45270</v>
       </c>
-      <c r="B19" s="52"/>
+      <c r="B19" s="55"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="51">
+      <c r="A20" s="54">
         <v>45271</v>
       </c>
-      <c r="B20" s="52"/>
+      <c r="B20" s="55"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="51">
+      <c r="A21" s="54">
         <v>45272</v>
       </c>
-      <c r="B21" s="52"/>
+      <c r="B21" s="55"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="51">
+      <c r="A22" s="54">
         <v>45273</v>
       </c>
-      <c r="B22" s="52"/>
+      <c r="B22" s="55"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="51">
+      <c r="A23" s="54">
         <v>45274</v>
       </c>
-      <c r="B23" s="52"/>
+      <c r="B23" s="55"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="51">
+      <c r="A24" s="54">
         <v>45275</v>
       </c>
-      <c r="B24" s="52"/>
+      <c r="B24" s="55"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="51">
+      <c r="A25" s="54">
         <v>45276</v>
       </c>
-      <c r="B25" s="52"/>
+      <c r="B25" s="55"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="51">
+      <c r="A26" s="54">
         <v>45277</v>
       </c>
-      <c r="B26" s="52"/>
+      <c r="B26" s="55"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="51">
+      <c r="A27" s="54">
         <v>45278</v>
       </c>
-      <c r="B27" s="52"/>
+      <c r="B27" s="55"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="51">
+      <c r="A28" s="54">
         <v>45279</v>
       </c>
-      <c r="B28" s="52"/>
+      <c r="B28" s="55"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="51">
+      <c r="A29" s="54">
         <v>45280</v>
       </c>
-      <c r="B29" s="52"/>
+      <c r="B29" s="55"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="51">
+      <c r="A30" s="54">
         <v>45281</v>
       </c>
-      <c r="B30" s="52"/>
+      <c r="B30" s="55"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="51">
+      <c r="A31" s="54">
         <v>45282</v>
       </c>
-      <c r="B31" s="52"/>
+      <c r="B31" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
@@ -1980,24 +2150,6 @@
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/CORRIDAS TK MULTIMARCAS.xlsx
+++ b/CORRIDAS TK MULTIMARCAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\CORRIDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6197C8-FB94-4317-B632-25E47C72ABF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD72D5F-AA32-4C71-A2DC-9E5F446E0C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
   <si>
     <t>VALOR</t>
   </si>
@@ -131,9 +131,6 @@
     <t>VILA CEARENSE</t>
   </si>
   <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
     <t>JARDIM EUROPA</t>
   </si>
   <si>
@@ -162,6 +159,18 @@
   </si>
   <si>
     <t>ARAGUAINA SUL</t>
+  </si>
+  <si>
+    <t>COIMBRA</t>
+  </si>
+  <si>
+    <t>OESTE</t>
+  </si>
+  <si>
+    <t>N°</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;-----------------------  TOTAL   -----------------------&gt;&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -187,7 +196,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,8 +239,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="36">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -493,34 +508,170 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -529,7 +680,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -538,10 +689,90 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -550,31 +781,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -583,46 +797,33 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="dotted">
         <color indexed="64"/>
       </right>
       <top/>
@@ -632,12 +833,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -645,7 +842,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="dotted">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -658,49 +855,106 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -768,52 +1022,31 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -826,39 +1059,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -867,13 +1067,139 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1219,14 +1545,14 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="48">
+      <c r="A2" s="28">
         <v>45192</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="46">
+      <c r="B2" s="29"/>
+      <c r="C2" s="23">
         <v>45205</v>
       </c>
-      <c r="D2" s="47"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
@@ -1243,10 +1569,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="50">
+      <c r="A4" s="30">
         <v>45194</v>
       </c>
-      <c r="B4" s="51"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="10">
         <v>15</v>
       </c>
@@ -1269,10 +1595,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="50">
+      <c r="A6" s="30">
         <v>45195</v>
       </c>
-      <c r="B6" s="51"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="10">
         <v>15</v>
       </c>
@@ -1295,10 +1621,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="50">
+      <c r="A8" s="30">
         <v>45196</v>
       </c>
-      <c r="B8" s="51"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="10">
         <v>5</v>
       </c>
@@ -1327,10 +1653,10 @@
       <c r="B10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="25">
         <v>45208</v>
       </c>
-      <c r="D10" s="44"/>
+      <c r="D10" s="26"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -1375,14 +1701,14 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="50">
+      <c r="A14" s="30">
         <v>45197</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="45">
+      <c r="B14" s="31"/>
+      <c r="C14" s="25">
         <v>45209</v>
       </c>
-      <c r="D14" s="44"/>
+      <c r="D14" s="26"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -1399,10 +1725,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="43">
+      <c r="A16" s="27">
         <v>45198</v>
       </c>
-      <c r="B16" s="44"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="10">
         <v>15</v>
       </c>
@@ -1431,10 +1757,10 @@
       <c r="B18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="25">
         <v>45212</v>
       </c>
-      <c r="D18" s="44"/>
+      <c r="D18" s="26"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -1465,10 +1791,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="43">
+      <c r="A21" s="27">
         <v>45201</v>
       </c>
-      <c r="B21" s="44"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="10">
         <v>15</v>
       </c>
@@ -1497,10 +1823,10 @@
       <c r="B23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="45">
+      <c r="C23" s="25">
         <v>45213</v>
       </c>
-      <c r="D23" s="44"/>
+      <c r="D23" s="26"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
@@ -1523,16 +1849,16 @@
       <c r="B25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="45">
+      <c r="C25" s="25">
         <v>45215</v>
       </c>
-      <c r="D25" s="44"/>
+      <c r="D25" s="26"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="43">
+      <c r="A26" s="27">
         <v>45202</v>
       </c>
-      <c r="B26" s="44"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="10">
         <v>12</v>
       </c>
@@ -1561,16 +1887,16 @@
       <c r="B28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="45">
+      <c r="C28" s="25">
         <v>45216</v>
       </c>
-      <c r="D28" s="44"/>
+      <c r="D28" s="26"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="43">
+      <c r="A29" s="27">
         <v>45203</v>
       </c>
-      <c r="B29" s="44"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="10">
         <v>15</v>
       </c>
@@ -1585,10 +1911,10 @@
       <c r="B30" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="45">
+      <c r="C30" s="25">
         <v>45218</v>
       </c>
-      <c r="D30" s="44"/>
+      <c r="D30" s="26"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
@@ -1607,10 +1933,10 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
-      <c r="C32" s="45">
+      <c r="C32" s="25">
         <v>45219</v>
       </c>
-      <c r="D32" s="44"/>
+      <c r="D32" s="26"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
@@ -1623,18 +1949,25 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="41">
+      <c r="B34" s="33"/>
+      <c r="C34" s="34">
         <f>SUM(A3,A5,A7,A9:A13,A15,A17:A20,A22:A25,A27:A28,A30:A31,C3:C9,C11:C13,C15:C17,C19:C22,C24,C26:C27,C29,C31,C33)</f>
         <v>477</v>
       </c>
-      <c r="D34" s="42"/>
+      <c r="D34" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="A21:B21"/>
@@ -1648,13 +1981,6 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="115" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1663,254 +1989,410 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39585085-A1B2-4FF0-B72D-E02CCA4A4823}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" style="22" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.7109375" style="74" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="C1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="71" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
+    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="76">
+        <v>4</v>
+      </c>
+      <c r="B2" s="51">
         <v>45227</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="C2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="26">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="27">
+      <c r="D2" s="53">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="77"/>
+      <c r="B3" s="43">
         <v>45227</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="C3" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="28">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="27">
+      <c r="D3" s="54">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="77"/>
+      <c r="B4" s="44">
         <v>45227</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="C4" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="28">
+      <c r="D4" s="55">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="78"/>
+      <c r="B5" s="47">
         <v>45227</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="C5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="31">
+      <c r="D5" s="57">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="79">
+        <v>1</v>
+      </c>
+      <c r="B6" s="42">
         <v>45230</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="C6" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="34">
+      <c r="D6" s="50">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="79">
+        <v>1</v>
+      </c>
+      <c r="B7" s="42">
         <v>45231</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="C7" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="34">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32">
+      <c r="D7" s="50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="79">
+        <v>1</v>
+      </c>
+      <c r="B8" s="42">
         <v>45233</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="C8" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="76">
+        <v>4</v>
+      </c>
+      <c r="B9" s="51">
+        <v>45234</v>
+      </c>
+      <c r="C9" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="34">
+      <c r="D9" s="53">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="77"/>
+      <c r="B10" s="43">
+        <v>45234</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="77"/>
+      <c r="B11" s="43">
+        <v>45234</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="54">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="78"/>
+      <c r="B12" s="47">
         <v>45234</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="26">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
-        <v>45234</v>
-      </c>
-      <c r="B10" s="23" t="s">
+      <c r="C12" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="28">
+      <c r="D12" s="57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="76">
+        <v>8</v>
+      </c>
+      <c r="B13" s="59">
+        <v>45236</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="58">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="77"/>
+      <c r="B14" s="43">
+        <v>45236</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="77"/>
+      <c r="B15" s="43">
+        <v>45236</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="54">
+        <v>10</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="77"/>
+      <c r="B16" s="43">
+        <v>45236</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="77"/>
+      <c r="B17" s="44">
+        <v>45236</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="55">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="77"/>
+      <c r="B18" s="43">
+        <v>45236</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="54">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="77"/>
+      <c r="B19" s="43">
+        <v>45236</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="54">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="78"/>
+      <c r="B20" s="62">
+        <v>45236</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="76">
+        <v>7</v>
+      </c>
+      <c r="B21" s="51">
+        <v>45238</v>
+      </c>
+      <c r="C21" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="53">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="27">
-        <v>45234</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="28">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="77"/>
+      <c r="B22" s="59">
+        <v>45238</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="77"/>
+      <c r="B23" s="43">
+        <v>45238</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="77"/>
+      <c r="B24" s="60">
+        <v>45238</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="54">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="56">
-        <v>45234</v>
-      </c>
-      <c r="B12" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="58">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="77"/>
+      <c r="B25" s="43">
+        <v>45238</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="77"/>
+      <c r="B26" s="61">
+        <v>45238</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="78"/>
+      <c r="B27" s="47">
+        <v>45238</v>
+      </c>
+      <c r="C27" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="64">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
-        <v>45236</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="26">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="27">
-        <v>45236</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="27">
-        <v>45236</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="28">
-        <v>10</v>
-      </c>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
-        <v>45236</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="27">
-        <v>45236</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="28">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
-        <v>45236</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="28">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="27">
-        <v>45236</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="28">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29">
-        <v>45236</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="38">
-        <f>SUM(C2:C20)</f>
-        <v>230</v>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="76">
+        <v>2</v>
+      </c>
+      <c r="B28" s="51">
+        <v>45239</v>
+      </c>
+      <c r="C28" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="78"/>
+      <c r="B29" s="49">
+        <v>45239</v>
+      </c>
+      <c r="C29" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="57">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="75">
+        <f>SUM(A2:A29)</f>
+        <v>28</v>
+      </c>
+      <c r="B30" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="82"/>
+      <c r="D30" s="80">
+        <f>SUM(D2:D29)</f>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A21:B21"/>
+  <mergeCells count="6">
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1939,193 +2421,199 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="54">
+      <c r="A2" s="36">
         <v>45253</v>
       </c>
-      <c r="B2" s="55"/>
+      <c r="B2" s="37"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="54">
+      <c r="A3" s="36">
         <v>45254</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="37"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="54">
+      <c r="A4" s="36">
         <v>45255</v>
       </c>
-      <c r="B4" s="55"/>
+      <c r="B4" s="37"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="54">
+      <c r="A5" s="36">
         <v>45256</v>
       </c>
-      <c r="B5" s="55"/>
+      <c r="B5" s="37"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="54">
+      <c r="A6" s="36">
         <v>45257</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="37"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="54">
+      <c r="A7" s="36">
         <v>45258</v>
       </c>
-      <c r="B7" s="55"/>
+      <c r="B7" s="37"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="54">
+      <c r="A8" s="36">
         <v>45259</v>
       </c>
-      <c r="B8" s="55"/>
+      <c r="B8" s="37"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="54">
+      <c r="A9" s="36">
         <v>45260</v>
       </c>
-      <c r="B9" s="55"/>
+      <c r="B9" s="37"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="54">
+      <c r="A10" s="36">
         <v>45261</v>
       </c>
-      <c r="B10" s="55"/>
+      <c r="B10" s="37"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="54">
+      <c r="A11" s="36">
         <v>45262</v>
       </c>
-      <c r="B11" s="55"/>
+      <c r="B11" s="37"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="54">
+      <c r="A12" s="36">
         <v>45263</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="37"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="54">
+      <c r="A13" s="36">
         <v>45264</v>
       </c>
-      <c r="B13" s="55"/>
+      <c r="B13" s="37"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="54">
+      <c r="A14" s="36">
         <v>45265</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="37"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="54">
+      <c r="A15" s="36">
         <v>45266</v>
       </c>
-      <c r="B15" s="55"/>
+      <c r="B15" s="37"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="54">
+      <c r="A16" s="36">
         <v>45267</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="37"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="54">
+      <c r="A17" s="36">
         <v>45268</v>
       </c>
-      <c r="B17" s="55"/>
+      <c r="B17" s="37"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="54">
+      <c r="A18" s="36">
         <v>45269</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="37"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="54">
+      <c r="A19" s="36">
         <v>45270</v>
       </c>
-      <c r="B19" s="55"/>
+      <c r="B19" s="37"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="54">
+      <c r="A20" s="36">
         <v>45271</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="37"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="54">
+      <c r="A21" s="36">
         <v>45272</v>
       </c>
-      <c r="B21" s="55"/>
+      <c r="B21" s="37"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="54">
+      <c r="A22" s="36">
         <v>45273</v>
       </c>
-      <c r="B22" s="55"/>
+      <c r="B22" s="37"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="54">
+      <c r="A23" s="36">
         <v>45274</v>
       </c>
-      <c r="B23" s="55"/>
+      <c r="B23" s="37"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="54">
+      <c r="A24" s="36">
         <v>45275</v>
       </c>
-      <c r="B24" s="55"/>
+      <c r="B24" s="37"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="54">
+      <c r="A25" s="36">
         <v>45276</v>
       </c>
-      <c r="B25" s="55"/>
+      <c r="B25" s="37"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="54">
+      <c r="A26" s="36">
         <v>45277</v>
       </c>
-      <c r="B26" s="55"/>
+      <c r="B26" s="37"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="54">
+      <c r="A27" s="36">
         <v>45278</v>
       </c>
-      <c r="B27" s="55"/>
+      <c r="B27" s="37"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="54">
+      <c r="A28" s="36">
         <v>45279</v>
       </c>
-      <c r="B28" s="55"/>
+      <c r="B28" s="37"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="54">
+      <c r="A29" s="36">
         <v>45280</v>
       </c>
-      <c r="B29" s="55"/>
+      <c r="B29" s="37"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="54">
+      <c r="A30" s="36">
         <v>45281</v>
       </c>
-      <c r="B30" s="55"/>
+      <c r="B30" s="37"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="54">
+      <c r="A31" s="36">
         <v>45282</v>
       </c>
-      <c r="B31" s="55"/>
+      <c r="B31" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
@@ -2138,18 +2626,12 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/CORRIDAS TK MULTIMARCAS.xlsx
+++ b/CORRIDAS TK MULTIMARCAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\CORRIDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD72D5F-AA32-4C71-A2DC-9E5F446E0C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7817DBF1-5659-4F06-A0DA-2A551F80FD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
   <si>
     <t>VALOR</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>&lt;&lt;&lt;-----------------------  TOTAL   -----------------------&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>LAGO AZUL 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUTO MAGALHAES </t>
   </si>
 </sst>
 </file>
@@ -246,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -882,63 +888,98 @@
       <left style="dotted">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -954,7 +995,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1022,21 +1063,111 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1049,16 +1180,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1067,139 +1195,61 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1545,14 +1595,14 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="28">
+      <c r="A2" s="58">
         <v>45192</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="23">
+      <c r="B2" s="59"/>
+      <c r="C2" s="56">
         <v>45205</v>
       </c>
-      <c r="D2" s="24"/>
+      <c r="D2" s="57"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
@@ -1569,10 +1619,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
+      <c r="A4" s="60">
         <v>45194</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="61"/>
       <c r="C4" s="10">
         <v>15</v>
       </c>
@@ -1595,10 +1645,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
+      <c r="A6" s="60">
         <v>45195</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="10">
         <v>15</v>
       </c>
@@ -1621,10 +1671,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
+      <c r="A8" s="60">
         <v>45196</v>
       </c>
-      <c r="B8" s="31"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="10">
         <v>5</v>
       </c>
@@ -1653,10 +1703,10 @@
       <c r="B10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="55">
         <v>45208</v>
       </c>
-      <c r="D10" s="26"/>
+      <c r="D10" s="54"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -1701,14 +1751,14 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
+      <c r="A14" s="60">
         <v>45197</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="25">
+      <c r="B14" s="61"/>
+      <c r="C14" s="55">
         <v>45209</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="54"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -1725,10 +1775,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
+      <c r="A16" s="53">
         <v>45198</v>
       </c>
-      <c r="B16" s="26"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="10">
         <v>15</v>
       </c>
@@ -1757,10 +1807,10 @@
       <c r="B18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="55">
         <v>45212</v>
       </c>
-      <c r="D18" s="26"/>
+      <c r="D18" s="54"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -1791,10 +1841,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="27">
+      <c r="A21" s="53">
         <v>45201</v>
       </c>
-      <c r="B21" s="26"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="10">
         <v>15</v>
       </c>
@@ -1823,10 +1873,10 @@
       <c r="B23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="55">
         <v>45213</v>
       </c>
-      <c r="D23" s="26"/>
+      <c r="D23" s="54"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
@@ -1849,16 +1899,16 @@
       <c r="B25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="55">
         <v>45215</v>
       </c>
-      <c r="D25" s="26"/>
+      <c r="D25" s="54"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="27">
+      <c r="A26" s="53">
         <v>45202</v>
       </c>
-      <c r="B26" s="26"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="10">
         <v>12</v>
       </c>
@@ -1887,16 +1937,16 @@
       <c r="B28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="55">
         <v>45216</v>
       </c>
-      <c r="D28" s="26"/>
+      <c r="D28" s="54"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="27">
+      <c r="A29" s="53">
         <v>45203</v>
       </c>
-      <c r="B29" s="26"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="10">
         <v>15</v>
       </c>
@@ -1911,10 +1961,10 @@
       <c r="B30" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="55">
         <v>45218</v>
       </c>
-      <c r="D30" s="26"/>
+      <c r="D30" s="54"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
@@ -1933,10 +1983,10 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
-      <c r="C32" s="25">
+      <c r="C32" s="55">
         <v>45219</v>
       </c>
-      <c r="D32" s="26"/>
+      <c r="D32" s="54"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
@@ -1949,25 +1999,18 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="34">
+      <c r="B34" s="50"/>
+      <c r="C34" s="51">
         <f>SUM(A3,A5,A7,A9:A13,A15,A17:A20,A22:A25,A27:A28,A30:A31,C3:C9,C11:C13,C15:C17,C19:C22,C24,C26:C27,C29,C31,C33)</f>
         <v>477</v>
       </c>
-      <c r="D34" s="35"/>
+      <c r="D34" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A29:B29"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="A21:B21"/>
@@ -1981,6 +2024,13 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="115" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1989,410 +2039,485 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39585085-A1B2-4FF0-B72D-E02CCA4A4823}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="74" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="46" customWidth="1"/>
     <col min="2" max="2" width="34.7109375" style="22" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" style="21" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="85" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="74" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76">
+      <c r="A2" s="62">
         <v>4</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="33">
         <v>45227</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="53">
+      <c r="D2" s="75">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="43">
+      <c r="A3" s="63"/>
+      <c r="B3" s="28">
         <v>45227</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="54">
+      <c r="D3" s="76">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="44">
+      <c r="A4" s="63"/>
+      <c r="B4" s="29">
         <v>45227</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="77">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="78"/>
-      <c r="B5" s="47">
+      <c r="A5" s="64"/>
+      <c r="B5" s="31">
         <v>45227</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="78">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="79">
+      <c r="A6" s="48">
         <v>1</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="27">
         <v>45230</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="79">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="79">
+      <c r="A7" s="48">
         <v>1</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="27">
         <v>45231</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="79">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="79">
+      <c r="A8" s="48">
         <v>1</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="27">
         <v>45233</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="79">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="76">
+      <c r="A9" s="62">
         <v>4</v>
       </c>
-      <c r="B9" s="51">
+      <c r="B9" s="33">
         <v>45234</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="53">
+      <c r="D9" s="75">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="77"/>
-      <c r="B10" s="43">
+      <c r="A10" s="63"/>
+      <c r="B10" s="28">
         <v>45234</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="76">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="77"/>
-      <c r="B11" s="43">
+      <c r="A11" s="63"/>
+      <c r="B11" s="28">
         <v>45234</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="76">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="78"/>
-      <c r="B12" s="47">
+      <c r="A12" s="64"/>
+      <c r="B12" s="31">
         <v>45234</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="57">
+      <c r="D12" s="78">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="76">
+      <c r="A13" s="62">
         <v>8</v>
       </c>
-      <c r="B13" s="59">
+      <c r="B13" s="35">
         <v>45236</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="80">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="77"/>
-      <c r="B14" s="43">
+      <c r="A14" s="63"/>
+      <c r="B14" s="28">
         <v>45236</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="77">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="77"/>
-      <c r="B15" s="43">
+      <c r="A15" s="63"/>
+      <c r="B15" s="28">
         <v>45236</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="76">
         <v>10</v>
       </c>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="77"/>
-      <c r="B16" s="43">
+      <c r="A16" s="63"/>
+      <c r="B16" s="28">
         <v>45236</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="54">
+      <c r="D16" s="76">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="77"/>
-      <c r="B17" s="44">
+      <c r="A17" s="63"/>
+      <c r="B17" s="29">
         <v>45236</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="55">
+      <c r="D17" s="77">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="77"/>
-      <c r="B18" s="43">
+      <c r="A18" s="63"/>
+      <c r="B18" s="28">
         <v>45236</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="54">
+      <c r="D18" s="76">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="77"/>
-      <c r="B19" s="43">
+      <c r="A19" s="63"/>
+      <c r="B19" s="28">
         <v>45236</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="54">
+      <c r="D19" s="76">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="78"/>
-      <c r="B20" s="62">
+      <c r="A20" s="64"/>
+      <c r="B20" s="38">
         <v>45236</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="64">
+      <c r="D20" s="81">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="76">
+      <c r="A21" s="62">
         <v>7</v>
       </c>
-      <c r="B21" s="51">
+      <c r="B21" s="33">
         <v>45238</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="53">
+      <c r="D21" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="77"/>
-      <c r="B22" s="59">
+      <c r="A22" s="63"/>
+      <c r="B22" s="35">
         <v>45238</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="56">
+      <c r="D22" s="82">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="77"/>
-      <c r="B23" s="43">
+      <c r="A23" s="63"/>
+      <c r="B23" s="28">
         <v>45238</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="54">
+      <c r="D23" s="76">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="77"/>
-      <c r="B24" s="60">
+      <c r="A24" s="63"/>
+      <c r="B24" s="36">
         <v>45238</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="54">
+      <c r="D24" s="76">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="77"/>
-      <c r="B25" s="43">
+      <c r="A25" s="63"/>
+      <c r="B25" s="28">
         <v>45238</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="54">
+      <c r="D25" s="76">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="77"/>
-      <c r="B26" s="61">
+      <c r="A26" s="63"/>
+      <c r="B26" s="37">
         <v>45238</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="54">
+      <c r="D26" s="76">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="78"/>
-      <c r="B27" s="47">
+      <c r="A27" s="64"/>
+      <c r="B27" s="31">
         <v>45238</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="64">
+      <c r="D27" s="81">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="76">
+      <c r="A28" s="62">
         <v>2</v>
       </c>
-      <c r="B28" s="51">
+      <c r="B28" s="33">
         <v>45239</v>
       </c>
-      <c r="C28" s="66" t="s">
+      <c r="C28" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="69">
+      <c r="D28" s="83">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="78"/>
-      <c r="B29" s="49">
+      <c r="A29" s="64"/>
+      <c r="B29" s="67">
         <v>45239</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="57">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="75">
-        <f>SUM(A2:A29)</f>
-        <v>28</v>
-      </c>
-      <c r="B30" s="81" t="s">
+      <c r="D29" s="82">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="68">
+        <v>6</v>
+      </c>
+      <c r="B30" s="33">
+        <v>45240</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="69"/>
+      <c r="B31" s="28">
+        <v>45240</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="76">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="69"/>
+      <c r="B32" s="28">
+        <v>45240</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="76">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="69"/>
+      <c r="B33" s="28">
+        <v>45240</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="76">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="69"/>
+      <c r="B34" s="28">
+        <v>45240</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="76">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="70"/>
+      <c r="B35" s="31">
+        <v>45240</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="78">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="47">
+        <f>SUM(A2:A35)</f>
+        <v>34</v>
+      </c>
+      <c r="B36" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="82"/>
-      <c r="D30" s="80">
-        <f>SUM(D2:D29)</f>
-        <v>310</v>
+      <c r="C36" s="73"/>
+      <c r="D36" s="84">
+        <f>SUM(D2:D35)</f>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B30:C30"/>
+  <mergeCells count="7">
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A20"/>
     <mergeCell ref="A21:A27"/>
     <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A35"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2421,187 +2546,205 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="36">
+      <c r="A2" s="65">
         <v>45253</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="66"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="36">
+      <c r="A3" s="65">
         <v>45254</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="66"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="36">
+      <c r="A4" s="65">
         <v>45255</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="66"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="36">
+      <c r="A5" s="65">
         <v>45256</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="66"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="36">
+      <c r="A6" s="65">
         <v>45257</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="66"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="36">
+      <c r="A7" s="65">
         <v>45258</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="66"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="36">
+      <c r="A8" s="65">
         <v>45259</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="66"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="36">
+      <c r="A9" s="65">
         <v>45260</v>
       </c>
-      <c r="B9" s="37"/>
+      <c r="B9" s="66"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
+      <c r="A10" s="65">
         <v>45261</v>
       </c>
-      <c r="B10" s="37"/>
+      <c r="B10" s="66"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="36">
+      <c r="A11" s="65">
         <v>45262</v>
       </c>
-      <c r="B11" s="37"/>
+      <c r="B11" s="66"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="36">
+      <c r="A12" s="65">
         <v>45263</v>
       </c>
-      <c r="B12" s="37"/>
+      <c r="B12" s="66"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="36">
+      <c r="A13" s="65">
         <v>45264</v>
       </c>
-      <c r="B13" s="37"/>
+      <c r="B13" s="66"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="36">
+      <c r="A14" s="65">
         <v>45265</v>
       </c>
-      <c r="B14" s="37"/>
+      <c r="B14" s="66"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="36">
+      <c r="A15" s="65">
         <v>45266</v>
       </c>
-      <c r="B15" s="37"/>
+      <c r="B15" s="66"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="36">
+      <c r="A16" s="65">
         <v>45267</v>
       </c>
-      <c r="B16" s="37"/>
+      <c r="B16" s="66"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="36">
+      <c r="A17" s="65">
         <v>45268</v>
       </c>
-      <c r="B17" s="37"/>
+      <c r="B17" s="66"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="36">
+      <c r="A18" s="65">
         <v>45269</v>
       </c>
-      <c r="B18" s="37"/>
+      <c r="B18" s="66"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="36">
+      <c r="A19" s="65">
         <v>45270</v>
       </c>
-      <c r="B19" s="37"/>
+      <c r="B19" s="66"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="36">
+      <c r="A20" s="65">
         <v>45271</v>
       </c>
-      <c r="B20" s="37"/>
+      <c r="B20" s="66"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="36">
+      <c r="A21" s="65">
         <v>45272</v>
       </c>
-      <c r="B21" s="37"/>
+      <c r="B21" s="66"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="36">
+      <c r="A22" s="65">
         <v>45273</v>
       </c>
-      <c r="B22" s="37"/>
+      <c r="B22" s="66"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="36">
+      <c r="A23" s="65">
         <v>45274</v>
       </c>
-      <c r="B23" s="37"/>
+      <c r="B23" s="66"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="36">
+      <c r="A24" s="65">
         <v>45275</v>
       </c>
-      <c r="B24" s="37"/>
+      <c r="B24" s="66"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="36">
+      <c r="A25" s="65">
         <v>45276</v>
       </c>
-      <c r="B25" s="37"/>
+      <c r="B25" s="66"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="36">
+      <c r="A26" s="65">
         <v>45277</v>
       </c>
-      <c r="B26" s="37"/>
+      <c r="B26" s="66"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="36">
+      <c r="A27" s="65">
         <v>45278</v>
       </c>
-      <c r="B27" s="37"/>
+      <c r="B27" s="66"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="36">
+      <c r="A28" s="65">
         <v>45279</v>
       </c>
-      <c r="B28" s="37"/>
+      <c r="B28" s="66"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="36">
+      <c r="A29" s="65">
         <v>45280</v>
       </c>
-      <c r="B29" s="37"/>
+      <c r="B29" s="66"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="36">
+      <c r="A30" s="65">
         <v>45281</v>
       </c>
-      <c r="B30" s="37"/>
+      <c r="B30" s="66"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="36">
+      <c r="A31" s="65">
         <v>45282</v>
       </c>
-      <c r="B31" s="37"/>
+      <c r="B31" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
@@ -2614,24 +2757,6 @@
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/CORRIDAS TK MULTIMARCAS.xlsx
+++ b/CORRIDAS TK MULTIMARCAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\CORRIDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7817DBF1-5659-4F06-A0DA-2A551F80FD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83F28EF-D6AD-4B61-8E5D-02F56684A2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
   <si>
     <t>VALOR</t>
   </si>
@@ -252,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -991,11 +991,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1141,6 +1156,78 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1153,31 +1240,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1187,6 +1253,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1195,61 +1270,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="6" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1595,14 +1622,14 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="58">
+      <c r="A2" s="69">
         <v>45192</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="56">
+      <c r="B2" s="70"/>
+      <c r="C2" s="64">
         <v>45205</v>
       </c>
-      <c r="D2" s="57"/>
+      <c r="D2" s="65"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
@@ -1619,10 +1646,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="60">
+      <c r="A4" s="71">
         <v>45194</v>
       </c>
-      <c r="B4" s="61"/>
+      <c r="B4" s="72"/>
       <c r="C4" s="10">
         <v>15</v>
       </c>
@@ -1645,10 +1672,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="60">
+      <c r="A6" s="71">
         <v>45195</v>
       </c>
-      <c r="B6" s="61"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="10">
         <v>15</v>
       </c>
@@ -1671,10 +1698,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="60">
+      <c r="A8" s="71">
         <v>45196</v>
       </c>
-      <c r="B8" s="61"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="10">
         <v>5</v>
       </c>
@@ -1703,10 +1730,10 @@
       <c r="B10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="55">
+      <c r="C10" s="66">
         <v>45208</v>
       </c>
-      <c r="D10" s="54"/>
+      <c r="D10" s="67"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -1751,14 +1778,14 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="60">
+      <c r="A14" s="71">
         <v>45197</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="55">
+      <c r="B14" s="72"/>
+      <c r="C14" s="66">
         <v>45209</v>
       </c>
-      <c r="D14" s="54"/>
+      <c r="D14" s="67"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -1775,10 +1802,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="53">
+      <c r="A16" s="68">
         <v>45198</v>
       </c>
-      <c r="B16" s="54"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="10">
         <v>15</v>
       </c>
@@ -1807,10 +1834,10 @@
       <c r="B18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="55">
+      <c r="C18" s="66">
         <v>45212</v>
       </c>
-      <c r="D18" s="54"/>
+      <c r="D18" s="67"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -1841,10 +1868,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="53">
+      <c r="A21" s="68">
         <v>45201</v>
       </c>
-      <c r="B21" s="54"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="10">
         <v>15</v>
       </c>
@@ -1873,10 +1900,10 @@
       <c r="B23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="55">
+      <c r="C23" s="66">
         <v>45213</v>
       </c>
-      <c r="D23" s="54"/>
+      <c r="D23" s="67"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
@@ -1899,16 +1926,16 @@
       <c r="B25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="55">
+      <c r="C25" s="66">
         <v>45215</v>
       </c>
-      <c r="D25" s="54"/>
+      <c r="D25" s="67"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="53">
+      <c r="A26" s="68">
         <v>45202</v>
       </c>
-      <c r="B26" s="54"/>
+      <c r="B26" s="67"/>
       <c r="C26" s="10">
         <v>12</v>
       </c>
@@ -1937,16 +1964,16 @@
       <c r="B28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="55">
+      <c r="C28" s="66">
         <v>45216</v>
       </c>
-      <c r="D28" s="54"/>
+      <c r="D28" s="67"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="53">
+      <c r="A29" s="68">
         <v>45203</v>
       </c>
-      <c r="B29" s="54"/>
+      <c r="B29" s="67"/>
       <c r="C29" s="10">
         <v>15</v>
       </c>
@@ -1961,10 +1988,10 @@
       <c r="B30" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="55">
+      <c r="C30" s="66">
         <v>45218</v>
       </c>
-      <c r="D30" s="54"/>
+      <c r="D30" s="67"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
@@ -1983,10 +2010,10 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
-      <c r="C32" s="55">
+      <c r="C32" s="66">
         <v>45219</v>
       </c>
-      <c r="D32" s="54"/>
+      <c r="D32" s="67"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
@@ -1999,18 +2026,25 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="51">
+      <c r="B34" s="74"/>
+      <c r="C34" s="75">
         <f>SUM(A3,A5,A7,A9:A13,A15,A17:A20,A22:A25,A27:A28,A30:A31,C3:C9,C11:C13,C15:C17,C19:C22,C24,C26:C27,C29,C31,C33)</f>
         <v>477</v>
       </c>
-      <c r="D34" s="52"/>
+      <c r="D34" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="A21:B21"/>
@@ -2024,13 +2058,6 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="115" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2039,18 +2066,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39585085-A1B2-4FF0-B72D-E02CCA4A4823}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="46" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="36" style="22" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" style="21" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="85" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="63" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -2064,12 +2091,12 @@
       <c r="C1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="52" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62">
+      <c r="A2" s="79">
         <v>4</v>
       </c>
       <c r="B2" s="33">
@@ -2078,43 +2105,43 @@
       <c r="C2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="75">
+      <c r="D2" s="53">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="28">
         <v>45227</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="76">
+      <c r="D3" s="54">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
+      <c r="A4" s="80"/>
       <c r="B4" s="29">
         <v>45227</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="77">
+      <c r="D4" s="55">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="31">
         <v>45227</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="78">
+      <c r="D5" s="56">
         <v>5</v>
       </c>
     </row>
@@ -2128,7 +2155,7 @@
       <c r="C6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="79">
+      <c r="D6" s="57">
         <v>5</v>
       </c>
     </row>
@@ -2142,7 +2169,7 @@
       <c r="C7" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="79">
+      <c r="D7" s="57">
         <v>15</v>
       </c>
     </row>
@@ -2156,12 +2183,12 @@
       <c r="C8" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="79">
+      <c r="D8" s="57">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="62">
+      <c r="A9" s="79">
         <v>4</v>
       </c>
       <c r="B9" s="33">
@@ -2170,48 +2197,48 @@
       <c r="C9" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="75">
+      <c r="D9" s="53">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
+      <c r="A10" s="80"/>
       <c r="B10" s="28">
         <v>45234</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="76">
+      <c r="D10" s="54">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
+      <c r="A11" s="80"/>
       <c r="B11" s="28">
         <v>45234</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D11" s="54">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="64"/>
+      <c r="A12" s="81"/>
       <c r="B12" s="31">
         <v>45234</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="78">
+      <c r="D12" s="56">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="62">
+      <c r="A13" s="79">
         <v>8</v>
       </c>
       <c r="B13" s="35">
@@ -2220,97 +2247,97 @@
       <c r="C13" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="80">
+      <c r="D13" s="58">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
+      <c r="A14" s="80"/>
       <c r="B14" s="28">
         <v>45236</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="77">
+      <c r="D14" s="55">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
+      <c r="A15" s="80"/>
       <c r="B15" s="28">
         <v>45236</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="76">
+      <c r="D15" s="54">
         <v>10</v>
       </c>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
+      <c r="A16" s="80"/>
       <c r="B16" s="28">
         <v>45236</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="76">
+      <c r="D16" s="54">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="63"/>
+      <c r="A17" s="80"/>
       <c r="B17" s="29">
         <v>45236</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="77">
+      <c r="D17" s="55">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="63"/>
+      <c r="A18" s="80"/>
       <c r="B18" s="28">
         <v>45236</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="76">
+      <c r="D18" s="54">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="63"/>
+      <c r="A19" s="80"/>
       <c r="B19" s="28">
         <v>45236</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="76">
+      <c r="D19" s="54">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="64"/>
+      <c r="A20" s="81"/>
       <c r="B20" s="38">
         <v>45236</v>
       </c>
       <c r="C20" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="81">
+      <c r="D20" s="59">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="62">
+      <c r="A21" s="79">
         <v>7</v>
       </c>
       <c r="B21" s="33">
@@ -2319,84 +2346,84 @@
       <c r="C21" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="75">
+      <c r="D21" s="53">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
+      <c r="A22" s="80"/>
       <c r="B22" s="35">
         <v>45238</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="82">
+      <c r="D22" s="60">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="63"/>
+      <c r="A23" s="80"/>
       <c r="B23" s="28">
         <v>45238</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="76">
+      <c r="D23" s="54">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="63"/>
+      <c r="A24" s="80"/>
       <c r="B24" s="36">
         <v>45238</v>
       </c>
       <c r="C24" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="76">
+      <c r="D24" s="54">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="63"/>
+      <c r="A25" s="80"/>
       <c r="B25" s="28">
         <v>45238</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="76">
+      <c r="D25" s="54">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="63"/>
+      <c r="A26" s="80"/>
       <c r="B26" s="37">
         <v>45238</v>
       </c>
       <c r="C26" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="76">
+      <c r="D26" s="54">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="64"/>
+      <c r="A27" s="81"/>
       <c r="B27" s="31">
         <v>45238</v>
       </c>
       <c r="C27" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="81">
+      <c r="D27" s="59">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="62">
+      <c r="A28" s="79">
         <v>2</v>
       </c>
       <c r="B28" s="33">
@@ -2405,24 +2432,24 @@
       <c r="C28" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="83">
+      <c r="D28" s="61">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="64"/>
-      <c r="B29" s="67">
+      <c r="A29" s="81"/>
+      <c r="B29" s="49">
         <v>45239</v>
       </c>
-      <c r="C29" s="71" t="s">
+      <c r="C29" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="82">
+      <c r="D29" s="60">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="68">
+      <c r="A30" s="82">
         <v>6</v>
       </c>
       <c r="B30" s="33">
@@ -2431,87 +2458,101 @@
       <c r="C30" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="75">
+      <c r="D30" s="53">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="69"/>
+      <c r="A31" s="83"/>
       <c r="B31" s="28">
         <v>45240</v>
       </c>
       <c r="C31" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="76">
+      <c r="D31" s="54">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="69"/>
+      <c r="A32" s="83"/>
       <c r="B32" s="28">
         <v>45240</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="76">
+      <c r="D32" s="54">
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="69"/>
+      <c r="A33" s="83"/>
       <c r="B33" s="28">
         <v>45240</v>
       </c>
       <c r="C33" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="76">
+      <c r="D33" s="54">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
+      <c r="A34" s="83"/>
       <c r="B34" s="28">
         <v>45240</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="76">
+      <c r="D34" s="54">
         <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="70"/>
+      <c r="A35" s="84"/>
       <c r="B35" s="31">
         <v>45240</v>
       </c>
       <c r="C35" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="78">
+      <c r="D35" s="56">
         <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="47">
-        <f>SUM(A2:A35)</f>
-        <v>34</v>
-      </c>
-      <c r="B36" s="72" t="s">
+      <c r="A36" s="50">
+        <v>1</v>
+      </c>
+      <c r="B36" s="87">
+        <v>45243</v>
+      </c>
+      <c r="C36" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="47">
+        <f>SUM(A2:A36)</f>
+        <v>35</v>
+      </c>
+      <c r="B37" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="73"/>
-      <c r="D36" s="84">
-        <f>SUM(D2:D35)</f>
-        <v>400</v>
+      <c r="C37" s="78"/>
+      <c r="D37" s="62">
+        <f>SUM(D2:D36)</f>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A20"/>
@@ -2546,193 +2587,199 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="65">
+      <c r="A2" s="85">
         <v>45253</v>
       </c>
-      <c r="B2" s="66"/>
+      <c r="B2" s="86"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="65">
+      <c r="A3" s="85">
         <v>45254</v>
       </c>
-      <c r="B3" s="66"/>
+      <c r="B3" s="86"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="65">
+      <c r="A4" s="85">
         <v>45255</v>
       </c>
-      <c r="B4" s="66"/>
+      <c r="B4" s="86"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="65">
+      <c r="A5" s="85">
         <v>45256</v>
       </c>
-      <c r="B5" s="66"/>
+      <c r="B5" s="86"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="65">
+      <c r="A6" s="85">
         <v>45257</v>
       </c>
-      <c r="B6" s="66"/>
+      <c r="B6" s="86"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="65">
+      <c r="A7" s="85">
         <v>45258</v>
       </c>
-      <c r="B7" s="66"/>
+      <c r="B7" s="86"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="65">
+      <c r="A8" s="85">
         <v>45259</v>
       </c>
-      <c r="B8" s="66"/>
+      <c r="B8" s="86"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="65">
+      <c r="A9" s="85">
         <v>45260</v>
       </c>
-      <c r="B9" s="66"/>
+      <c r="B9" s="86"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="65">
+      <c r="A10" s="85">
         <v>45261</v>
       </c>
-      <c r="B10" s="66"/>
+      <c r="B10" s="86"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="65">
+      <c r="A11" s="85">
         <v>45262</v>
       </c>
-      <c r="B11" s="66"/>
+      <c r="B11" s="86"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="65">
+      <c r="A12" s="85">
         <v>45263</v>
       </c>
-      <c r="B12" s="66"/>
+      <c r="B12" s="86"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="65">
+      <c r="A13" s="85">
         <v>45264</v>
       </c>
-      <c r="B13" s="66"/>
+      <c r="B13" s="86"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="65">
+      <c r="A14" s="85">
         <v>45265</v>
       </c>
-      <c r="B14" s="66"/>
+      <c r="B14" s="86"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="65">
+      <c r="A15" s="85">
         <v>45266</v>
       </c>
-      <c r="B15" s="66"/>
+      <c r="B15" s="86"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="65">
+      <c r="A16" s="85">
         <v>45267</v>
       </c>
-      <c r="B16" s="66"/>
+      <c r="B16" s="86"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="65">
+      <c r="A17" s="85">
         <v>45268</v>
       </c>
-      <c r="B17" s="66"/>
+      <c r="B17" s="86"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="65">
+      <c r="A18" s="85">
         <v>45269</v>
       </c>
-      <c r="B18" s="66"/>
+      <c r="B18" s="86"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="65">
+      <c r="A19" s="85">
         <v>45270</v>
       </c>
-      <c r="B19" s="66"/>
+      <c r="B19" s="86"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="65">
+      <c r="A20" s="85">
         <v>45271</v>
       </c>
-      <c r="B20" s="66"/>
+      <c r="B20" s="86"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="65">
+      <c r="A21" s="85">
         <v>45272</v>
       </c>
-      <c r="B21" s="66"/>
+      <c r="B21" s="86"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="65">
+      <c r="A22" s="85">
         <v>45273</v>
       </c>
-      <c r="B22" s="66"/>
+      <c r="B22" s="86"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="65">
+      <c r="A23" s="85">
         <v>45274</v>
       </c>
-      <c r="B23" s="66"/>
+      <c r="B23" s="86"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="65">
+      <c r="A24" s="85">
         <v>45275</v>
       </c>
-      <c r="B24" s="66"/>
+      <c r="B24" s="86"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="65">
+      <c r="A25" s="85">
         <v>45276</v>
       </c>
-      <c r="B25" s="66"/>
+      <c r="B25" s="86"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="65">
+      <c r="A26" s="85">
         <v>45277</v>
       </c>
-      <c r="B26" s="66"/>
+      <c r="B26" s="86"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="65">
+      <c r="A27" s="85">
         <v>45278</v>
       </c>
-      <c r="B27" s="66"/>
+      <c r="B27" s="86"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="65">
+      <c r="A28" s="85">
         <v>45279</v>
       </c>
-      <c r="B28" s="66"/>
+      <c r="B28" s="86"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="65">
+      <c r="A29" s="85">
         <v>45280</v>
       </c>
-      <c r="B29" s="66"/>
+      <c r="B29" s="86"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="65">
+      <c r="A30" s="85">
         <v>45281</v>
       </c>
-      <c r="B30" s="66"/>
+      <c r="B30" s="86"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="65">
+      <c r="A31" s="85">
         <v>45282</v>
       </c>
-      <c r="B31" s="66"/>
+      <c r="B31" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
@@ -2745,18 +2792,12 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/CORRIDAS TK MULTIMARCAS.xlsx
+++ b/CORRIDAS TK MULTIMARCAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\CORRIDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83F28EF-D6AD-4B61-8E5D-02F56684A2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B718166A-477A-40E1-90BA-C8544C20039F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
   <si>
     <t>VALOR</t>
   </si>
@@ -1201,21 +1201,42 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1226,18 +1247,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1269,15 +1278,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1622,14 +1622,14 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="69">
+      <c r="A2" s="76">
         <v>45192</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="64">
+      <c r="B2" s="77"/>
+      <c r="C2" s="74">
         <v>45205</v>
       </c>
-      <c r="D2" s="65"/>
+      <c r="D2" s="75"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
@@ -1646,10 +1646,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="71">
+      <c r="A4" s="78">
         <v>45194</v>
       </c>
-      <c r="B4" s="72"/>
+      <c r="B4" s="79"/>
       <c r="C4" s="10">
         <v>15</v>
       </c>
@@ -1672,10 +1672,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="71">
+      <c r="A6" s="78">
         <v>45195</v>
       </c>
-      <c r="B6" s="72"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="10">
         <v>15</v>
       </c>
@@ -1698,10 +1698,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="71">
+      <c r="A8" s="78">
         <v>45196</v>
       </c>
-      <c r="B8" s="72"/>
+      <c r="B8" s="79"/>
       <c r="C8" s="10">
         <v>5</v>
       </c>
@@ -1730,10 +1730,10 @@
       <c r="B10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="66">
+      <c r="C10" s="73">
         <v>45208</v>
       </c>
-      <c r="D10" s="67"/>
+      <c r="D10" s="72"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -1778,14 +1778,14 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="71">
+      <c r="A14" s="78">
         <v>45197</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="66">
+      <c r="B14" s="79"/>
+      <c r="C14" s="73">
         <v>45209</v>
       </c>
-      <c r="D14" s="67"/>
+      <c r="D14" s="72"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -1802,10 +1802,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="68">
+      <c r="A16" s="71">
         <v>45198</v>
       </c>
-      <c r="B16" s="67"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="10">
         <v>15</v>
       </c>
@@ -1834,10 +1834,10 @@
       <c r="B18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="66">
+      <c r="C18" s="73">
         <v>45212</v>
       </c>
-      <c r="D18" s="67"/>
+      <c r="D18" s="72"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -1868,10 +1868,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="68">
+      <c r="A21" s="71">
         <v>45201</v>
       </c>
-      <c r="B21" s="67"/>
+      <c r="B21" s="72"/>
       <c r="C21" s="10">
         <v>15</v>
       </c>
@@ -1900,10 +1900,10 @@
       <c r="B23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="66">
+      <c r="C23" s="73">
         <v>45213</v>
       </c>
-      <c r="D23" s="67"/>
+      <c r="D23" s="72"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
@@ -1926,16 +1926,16 @@
       <c r="B25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="66">
+      <c r="C25" s="73">
         <v>45215</v>
       </c>
-      <c r="D25" s="67"/>
+      <c r="D25" s="72"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="68">
+      <c r="A26" s="71">
         <v>45202</v>
       </c>
-      <c r="B26" s="67"/>
+      <c r="B26" s="72"/>
       <c r="C26" s="10">
         <v>12</v>
       </c>
@@ -1964,16 +1964,16 @@
       <c r="B28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="66">
+      <c r="C28" s="73">
         <v>45216</v>
       </c>
-      <c r="D28" s="67"/>
+      <c r="D28" s="72"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="68">
+      <c r="A29" s="71">
         <v>45203</v>
       </c>
-      <c r="B29" s="67"/>
+      <c r="B29" s="72"/>
       <c r="C29" s="10">
         <v>15</v>
       </c>
@@ -1988,10 +1988,10 @@
       <c r="B30" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="66">
+      <c r="C30" s="73">
         <v>45218</v>
       </c>
-      <c r="D30" s="67"/>
+      <c r="D30" s="72"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
@@ -2010,10 +2010,10 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
-      <c r="C32" s="66">
+      <c r="C32" s="73">
         <v>45219</v>
       </c>
-      <c r="D32" s="67"/>
+      <c r="D32" s="72"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
@@ -2026,25 +2026,18 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="73" t="s">
+      <c r="A34" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="74"/>
-      <c r="C34" s="75">
+      <c r="B34" s="68"/>
+      <c r="C34" s="69">
         <f>SUM(A3,A5,A7,A9:A13,A15,A17:A20,A22:A25,A27:A28,A30:A31,C3:C9,C11:C13,C15:C17,C19:C22,C24,C26:C27,C29,C31,C33)</f>
         <v>477</v>
       </c>
-      <c r="D34" s="76"/>
+      <c r="D34" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A29:B29"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="A21:B21"/>
@@ -2058,6 +2051,13 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="115" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2066,10 +2066,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39585085-A1B2-4FF0-B72D-E02CCA4A4823}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2096,7 +2096,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79">
+      <c r="A2" s="82">
         <v>4</v>
       </c>
       <c r="B2" s="33">
@@ -2110,7 +2110,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="80"/>
+      <c r="A3" s="83"/>
       <c r="B3" s="28">
         <v>45227</v>
       </c>
@@ -2122,7 +2122,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="80"/>
+      <c r="A4" s="83"/>
       <c r="B4" s="29">
         <v>45227</v>
       </c>
@@ -2134,7 +2134,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="81"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="31">
         <v>45227</v>
       </c>
@@ -2188,7 +2188,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="79">
+      <c r="A9" s="82">
         <v>4</v>
       </c>
       <c r="B9" s="33">
@@ -2202,7 +2202,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="80"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="28">
         <v>45234</v>
       </c>
@@ -2214,7 +2214,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="80"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="28">
         <v>45234</v>
       </c>
@@ -2226,7 +2226,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="81"/>
+      <c r="A12" s="84"/>
       <c r="B12" s="31">
         <v>45234</v>
       </c>
@@ -2238,7 +2238,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="79">
+      <c r="A13" s="82">
         <v>8</v>
       </c>
       <c r="B13" s="35">
@@ -2252,7 +2252,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="80"/>
+      <c r="A14" s="83"/>
       <c r="B14" s="28">
         <v>45236</v>
       </c>
@@ -2264,7 +2264,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="80"/>
+      <c r="A15" s="83"/>
       <c r="B15" s="28">
         <v>45236</v>
       </c>
@@ -2277,7 +2277,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="80"/>
+      <c r="A16" s="83"/>
       <c r="B16" s="28">
         <v>45236</v>
       </c>
@@ -2289,7 +2289,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="80"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="29">
         <v>45236</v>
       </c>
@@ -2301,7 +2301,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="80"/>
+      <c r="A18" s="83"/>
       <c r="B18" s="28">
         <v>45236</v>
       </c>
@@ -2313,7 +2313,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="80"/>
+      <c r="A19" s="83"/>
       <c r="B19" s="28">
         <v>45236</v>
       </c>
@@ -2325,7 +2325,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="81"/>
+      <c r="A20" s="84"/>
       <c r="B20" s="38">
         <v>45236</v>
       </c>
@@ -2337,7 +2337,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="79">
+      <c r="A21" s="82">
         <v>7</v>
       </c>
       <c r="B21" s="33">
@@ -2351,7 +2351,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="80"/>
+      <c r="A22" s="83"/>
       <c r="B22" s="35">
         <v>45238</v>
       </c>
@@ -2363,7 +2363,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="80"/>
+      <c r="A23" s="83"/>
       <c r="B23" s="28">
         <v>45238</v>
       </c>
@@ -2375,7 +2375,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="80"/>
+      <c r="A24" s="83"/>
       <c r="B24" s="36">
         <v>45238</v>
       </c>
@@ -2387,7 +2387,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="80"/>
+      <c r="A25" s="83"/>
       <c r="B25" s="28">
         <v>45238</v>
       </c>
@@ -2399,7 +2399,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="80"/>
+      <c r="A26" s="83"/>
       <c r="B26" s="37">
         <v>45238</v>
       </c>
@@ -2411,7 +2411,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="81"/>
+      <c r="A27" s="84"/>
       <c r="B27" s="31">
         <v>45238</v>
       </c>
@@ -2423,7 +2423,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="79">
+      <c r="A28" s="82">
         <v>2</v>
       </c>
       <c r="B28" s="33">
@@ -2437,7 +2437,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="81"/>
+      <c r="A29" s="84"/>
       <c r="B29" s="49">
         <v>45239</v>
       </c>
@@ -2449,7 +2449,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="82">
+      <c r="A30" s="85">
         <v>6</v>
       </c>
       <c r="B30" s="33">
@@ -2463,7 +2463,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="83"/>
+      <c r="A31" s="86"/>
       <c r="B31" s="28">
         <v>45240</v>
       </c>
@@ -2475,7 +2475,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="83"/>
+      <c r="A32" s="86"/>
       <c r="B32" s="28">
         <v>45240</v>
       </c>
@@ -2487,7 +2487,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="83"/>
+      <c r="A33" s="86"/>
       <c r="B33" s="28">
         <v>45240</v>
       </c>
@@ -2499,7 +2499,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="83"/>
+      <c r="A34" s="86"/>
       <c r="B34" s="28">
         <v>45240</v>
       </c>
@@ -2511,7 +2511,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="84"/>
+      <c r="A35" s="87"/>
       <c r="B35" s="31">
         <v>45240</v>
       </c>
@@ -2526,33 +2526,47 @@
       <c r="A36" s="50">
         <v>1</v>
       </c>
-      <c r="B36" s="87">
+      <c r="B36" s="64">
         <v>45243</v>
       </c>
-      <c r="C36" s="89" t="s">
+      <c r="C36" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="88">
+      <c r="D36" s="65">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="47">
-        <f>SUM(A2:A36)</f>
-        <v>35</v>
-      </c>
-      <c r="B37" s="77" t="s">
+      <c r="A37" s="50">
+        <v>1</v>
+      </c>
+      <c r="B37" s="64">
+        <v>45245</v>
+      </c>
+      <c r="C37" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="47">
+        <f>SUM(A2:A37)</f>
+        <v>36</v>
+      </c>
+      <c r="B38" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="78"/>
-      <c r="D37" s="62">
-        <f>SUM(D2:D36)</f>
-        <v>410</v>
+      <c r="C38" s="81"/>
+      <c r="D38" s="62">
+        <f>SUM(D2:D37)</f>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A20"/>
@@ -2587,187 +2601,205 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="85">
+      <c r="A2" s="88">
         <v>45253</v>
       </c>
-      <c r="B2" s="86"/>
+      <c r="B2" s="89"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="85">
+      <c r="A3" s="88">
         <v>45254</v>
       </c>
-      <c r="B3" s="86"/>
+      <c r="B3" s="89"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="85">
+      <c r="A4" s="88">
         <v>45255</v>
       </c>
-      <c r="B4" s="86"/>
+      <c r="B4" s="89"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="85">
+      <c r="A5" s="88">
         <v>45256</v>
       </c>
-      <c r="B5" s="86"/>
+      <c r="B5" s="89"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="85">
+      <c r="A6" s="88">
         <v>45257</v>
       </c>
-      <c r="B6" s="86"/>
+      <c r="B6" s="89"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="85">
+      <c r="A7" s="88">
         <v>45258</v>
       </c>
-      <c r="B7" s="86"/>
+      <c r="B7" s="89"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="85">
+      <c r="A8" s="88">
         <v>45259</v>
       </c>
-      <c r="B8" s="86"/>
+      <c r="B8" s="89"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="85">
+      <c r="A9" s="88">
         <v>45260</v>
       </c>
-      <c r="B9" s="86"/>
+      <c r="B9" s="89"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="85">
+      <c r="A10" s="88">
         <v>45261</v>
       </c>
-      <c r="B10" s="86"/>
+      <c r="B10" s="89"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="85">
+      <c r="A11" s="88">
         <v>45262</v>
       </c>
-      <c r="B11" s="86"/>
+      <c r="B11" s="89"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="85">
+      <c r="A12" s="88">
         <v>45263</v>
       </c>
-      <c r="B12" s="86"/>
+      <c r="B12" s="89"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="85">
+      <c r="A13" s="88">
         <v>45264</v>
       </c>
-      <c r="B13" s="86"/>
+      <c r="B13" s="89"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="85">
+      <c r="A14" s="88">
         <v>45265</v>
       </c>
-      <c r="B14" s="86"/>
+      <c r="B14" s="89"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="85">
+      <c r="A15" s="88">
         <v>45266</v>
       </c>
-      <c r="B15" s="86"/>
+      <c r="B15" s="89"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="85">
+      <c r="A16" s="88">
         <v>45267</v>
       </c>
-      <c r="B16" s="86"/>
+      <c r="B16" s="89"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="85">
+      <c r="A17" s="88">
         <v>45268</v>
       </c>
-      <c r="B17" s="86"/>
+      <c r="B17" s="89"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="85">
+      <c r="A18" s="88">
         <v>45269</v>
       </c>
-      <c r="B18" s="86"/>
+      <c r="B18" s="89"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="85">
+      <c r="A19" s="88">
         <v>45270</v>
       </c>
-      <c r="B19" s="86"/>
+      <c r="B19" s="89"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="85">
+      <c r="A20" s="88">
         <v>45271</v>
       </c>
-      <c r="B20" s="86"/>
+      <c r="B20" s="89"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="85">
+      <c r="A21" s="88">
         <v>45272</v>
       </c>
-      <c r="B21" s="86"/>
+      <c r="B21" s="89"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="85">
+      <c r="A22" s="88">
         <v>45273</v>
       </c>
-      <c r="B22" s="86"/>
+      <c r="B22" s="89"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="85">
+      <c r="A23" s="88">
         <v>45274</v>
       </c>
-      <c r="B23" s="86"/>
+      <c r="B23" s="89"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="85">
+      <c r="A24" s="88">
         <v>45275</v>
       </c>
-      <c r="B24" s="86"/>
+      <c r="B24" s="89"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="85">
+      <c r="A25" s="88">
         <v>45276</v>
       </c>
-      <c r="B25" s="86"/>
+      <c r="B25" s="89"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="85">
+      <c r="A26" s="88">
         <v>45277</v>
       </c>
-      <c r="B26" s="86"/>
+      <c r="B26" s="89"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="85">
+      <c r="A27" s="88">
         <v>45278</v>
       </c>
-      <c r="B27" s="86"/>
+      <c r="B27" s="89"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="85">
+      <c r="A28" s="88">
         <v>45279</v>
       </c>
-      <c r="B28" s="86"/>
+      <c r="B28" s="89"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="85">
+      <c r="A29" s="88">
         <v>45280</v>
       </c>
-      <c r="B29" s="86"/>
+      <c r="B29" s="89"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="85">
+      <c r="A30" s="88">
         <v>45281</v>
       </c>
-      <c r="B30" s="86"/>
+      <c r="B30" s="89"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="85">
+      <c r="A31" s="88">
         <v>45282</v>
       </c>
-      <c r="B31" s="86"/>
+      <c r="B31" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
@@ -2780,24 +2812,6 @@
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/CORRIDAS TK MULTIMARCAS.xlsx
+++ b/CORRIDAS TK MULTIMARCAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\CORRIDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B718166A-477A-40E1-90BA-C8544C20039F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63442CB3-29FE-4EFD-AB66-9F276586AB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
   <si>
     <t>VALOR</t>
   </si>
@@ -252,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -1006,11 +1006,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1210,6 +1223,33 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1220,33 +1260,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1278,6 +1291,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1622,14 +1644,14 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="76">
+      <c r="A2" s="72">
         <v>45192</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="74">
+      <c r="B2" s="73"/>
+      <c r="C2" s="67">
         <v>45205</v>
       </c>
-      <c r="D2" s="75"/>
+      <c r="D2" s="68"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
@@ -1646,10 +1668,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="78">
+      <c r="A4" s="74">
         <v>45194</v>
       </c>
-      <c r="B4" s="79"/>
+      <c r="B4" s="75"/>
       <c r="C4" s="10">
         <v>15</v>
       </c>
@@ -1672,10 +1694,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="78">
+      <c r="A6" s="74">
         <v>45195</v>
       </c>
-      <c r="B6" s="79"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="10">
         <v>15</v>
       </c>
@@ -1698,10 +1720,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="78">
+      <c r="A8" s="74">
         <v>45196</v>
       </c>
-      <c r="B8" s="79"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="10">
         <v>5</v>
       </c>
@@ -1730,10 +1752,10 @@
       <c r="B10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="73">
+      <c r="C10" s="69">
         <v>45208</v>
       </c>
-      <c r="D10" s="72"/>
+      <c r="D10" s="70"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -1778,14 +1800,14 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="78">
+      <c r="A14" s="74">
         <v>45197</v>
       </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="73">
+      <c r="B14" s="75"/>
+      <c r="C14" s="69">
         <v>45209</v>
       </c>
-      <c r="D14" s="72"/>
+      <c r="D14" s="70"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -1805,7 +1827,7 @@
       <c r="A16" s="71">
         <v>45198</v>
       </c>
-      <c r="B16" s="72"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="10">
         <v>15</v>
       </c>
@@ -1834,10 +1856,10 @@
       <c r="B18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="73">
+      <c r="C18" s="69">
         <v>45212</v>
       </c>
-      <c r="D18" s="72"/>
+      <c r="D18" s="70"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -1871,7 +1893,7 @@
       <c r="A21" s="71">
         <v>45201</v>
       </c>
-      <c r="B21" s="72"/>
+      <c r="B21" s="70"/>
       <c r="C21" s="10">
         <v>15</v>
       </c>
@@ -1900,10 +1922,10 @@
       <c r="B23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="73">
+      <c r="C23" s="69">
         <v>45213</v>
       </c>
-      <c r="D23" s="72"/>
+      <c r="D23" s="70"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
@@ -1926,16 +1948,16 @@
       <c r="B25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="73">
+      <c r="C25" s="69">
         <v>45215</v>
       </c>
-      <c r="D25" s="72"/>
+      <c r="D25" s="70"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="71">
         <v>45202</v>
       </c>
-      <c r="B26" s="72"/>
+      <c r="B26" s="70"/>
       <c r="C26" s="10">
         <v>12</v>
       </c>
@@ -1964,16 +1986,16 @@
       <c r="B28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="73">
+      <c r="C28" s="69">
         <v>45216</v>
       </c>
-      <c r="D28" s="72"/>
+      <c r="D28" s="70"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="71">
         <v>45203</v>
       </c>
-      <c r="B29" s="72"/>
+      <c r="B29" s="70"/>
       <c r="C29" s="10">
         <v>15</v>
       </c>
@@ -1988,10 +2010,10 @@
       <c r="B30" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="73">
+      <c r="C30" s="69">
         <v>45218</v>
       </c>
-      <c r="D30" s="72"/>
+      <c r="D30" s="70"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
@@ -2010,10 +2032,10 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
-      <c r="C32" s="73">
+      <c r="C32" s="69">
         <v>45219</v>
       </c>
-      <c r="D32" s="72"/>
+      <c r="D32" s="70"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
@@ -2026,18 +2048,25 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="67" t="s">
+      <c r="A34" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="68"/>
-      <c r="C34" s="69">
+      <c r="B34" s="77"/>
+      <c r="C34" s="78">
         <f>SUM(A3,A5,A7,A9:A13,A15,A17:A20,A22:A25,A27:A28,A30:A31,C3:C9,C11:C13,C15:C17,C19:C22,C24,C26:C27,C29,C31,C33)</f>
         <v>477</v>
       </c>
-      <c r="D34" s="70"/>
+      <c r="D34" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="A21:B21"/>
@@ -2051,13 +2080,6 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="115" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2066,10 +2088,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39585085-A1B2-4FF0-B72D-E02CCA4A4823}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2536,43 +2558,56 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="50">
-        <v>1</v>
-      </c>
-      <c r="B37" s="64">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="82">
+        <v>2</v>
+      </c>
+      <c r="B37" s="33">
         <v>45245</v>
       </c>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="65">
+      <c r="D37" s="92">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="47">
+      <c r="A38" s="84"/>
+      <c r="B38" s="90">
+        <v>45245</v>
+      </c>
+      <c r="C38" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="56">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="47">
         <f>SUM(A2:A37)</f>
-        <v>36</v>
-      </c>
-      <c r="B38" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="81"/>
-      <c r="D38" s="62">
-        <f>SUM(D2:D37)</f>
-        <v>415</v>
+      <c r="C39" s="81"/>
+      <c r="D39" s="62">
+        <f>SUM(D2:D38)</f>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B38:C38"/>
+  <mergeCells count="8">
+    <mergeCell ref="B39:C39"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A20"/>
     <mergeCell ref="A21:A27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A37:A38"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2782,12 +2817,18 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
@@ -2800,18 +2841,12 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/CORRIDAS TK MULTIMARCAS.xlsx
+++ b/CORRIDAS TK MULTIMARCAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\CORRIDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63442CB3-29FE-4EFD-AB66-9F276586AB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F8617E-03F0-4641-A6F5-1DC2BC3BD954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
   <si>
     <t>VALOR</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t xml:space="preserve">COUTO MAGALHAES </t>
+  </si>
+  <si>
+    <t>CASA DE APOIO</t>
+  </si>
+  <si>
+    <t>JARDIM DAS FLORES</t>
   </si>
 </sst>
 </file>
@@ -252,7 +258,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="60">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -1019,11 +1025,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1223,21 +1266,42 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1248,18 +1312,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1292,13 +1344,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1644,14 +1705,14 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="72">
+      <c r="A2" s="79">
         <v>45192</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="67">
+      <c r="B2" s="80"/>
+      <c r="C2" s="77">
         <v>45205</v>
       </c>
-      <c r="D2" s="68"/>
+      <c r="D2" s="78"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
@@ -1668,10 +1729,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="74">
+      <c r="A4" s="81">
         <v>45194</v>
       </c>
-      <c r="B4" s="75"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="10">
         <v>15</v>
       </c>
@@ -1694,10 +1755,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="74">
+      <c r="A6" s="81">
         <v>45195</v>
       </c>
-      <c r="B6" s="75"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="10">
         <v>15</v>
       </c>
@@ -1720,10 +1781,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="74">
+      <c r="A8" s="81">
         <v>45196</v>
       </c>
-      <c r="B8" s="75"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="10">
         <v>5</v>
       </c>
@@ -1752,10 +1813,10 @@
       <c r="B10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="69">
+      <c r="C10" s="76">
         <v>45208</v>
       </c>
-      <c r="D10" s="70"/>
+      <c r="D10" s="75"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -1800,14 +1861,14 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="74">
+      <c r="A14" s="81">
         <v>45197</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="69">
+      <c r="B14" s="82"/>
+      <c r="C14" s="76">
         <v>45209</v>
       </c>
-      <c r="D14" s="70"/>
+      <c r="D14" s="75"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -1824,10 +1885,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="71">
+      <c r="A16" s="74">
         <v>45198</v>
       </c>
-      <c r="B16" s="70"/>
+      <c r="B16" s="75"/>
       <c r="C16" s="10">
         <v>15</v>
       </c>
@@ -1856,10 +1917,10 @@
       <c r="B18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="69">
+      <c r="C18" s="76">
         <v>45212</v>
       </c>
-      <c r="D18" s="70"/>
+      <c r="D18" s="75"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -1890,10 +1951,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="71">
+      <c r="A21" s="74">
         <v>45201</v>
       </c>
-      <c r="B21" s="70"/>
+      <c r="B21" s="75"/>
       <c r="C21" s="10">
         <v>15</v>
       </c>
@@ -1922,10 +1983,10 @@
       <c r="B23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="69">
+      <c r="C23" s="76">
         <v>45213</v>
       </c>
-      <c r="D23" s="70"/>
+      <c r="D23" s="75"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
@@ -1948,16 +2009,16 @@
       <c r="B25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="69">
+      <c r="C25" s="76">
         <v>45215</v>
       </c>
-      <c r="D25" s="70"/>
+      <c r="D25" s="75"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="71">
+      <c r="A26" s="74">
         <v>45202</v>
       </c>
-      <c r="B26" s="70"/>
+      <c r="B26" s="75"/>
       <c r="C26" s="10">
         <v>12</v>
       </c>
@@ -1986,16 +2047,16 @@
       <c r="B28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="69">
+      <c r="C28" s="76">
         <v>45216</v>
       </c>
-      <c r="D28" s="70"/>
+      <c r="D28" s="75"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="71">
+      <c r="A29" s="74">
         <v>45203</v>
       </c>
-      <c r="B29" s="70"/>
+      <c r="B29" s="75"/>
       <c r="C29" s="10">
         <v>15</v>
       </c>
@@ -2010,10 +2071,10 @@
       <c r="B30" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="69">
+      <c r="C30" s="76">
         <v>45218</v>
       </c>
-      <c r="D30" s="70"/>
+      <c r="D30" s="75"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
@@ -2032,10 +2093,10 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
-      <c r="C32" s="69">
+      <c r="C32" s="76">
         <v>45219</v>
       </c>
-      <c r="D32" s="70"/>
+      <c r="D32" s="75"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
@@ -2048,25 +2109,18 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="76" t="s">
+      <c r="A34" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="77"/>
-      <c r="C34" s="78">
+      <c r="B34" s="71"/>
+      <c r="C34" s="72">
         <f>SUM(A3,A5,A7,A9:A13,A15,A17:A20,A22:A25,A27:A28,A30:A31,C3:C9,C11:C13,C15:C17,C19:C22,C24,C26:C27,C29,C31,C33)</f>
         <v>477</v>
       </c>
-      <c r="D34" s="79"/>
+      <c r="D34" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A29:B29"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="A21:B21"/>
@@ -2080,6 +2134,13 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="115" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2088,10 +2149,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39585085-A1B2-4FF0-B72D-E02CCA4A4823}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2118,7 +2179,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82">
+      <c r="A2" s="85">
         <v>4</v>
       </c>
       <c r="B2" s="33">
@@ -2132,7 +2193,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="83"/>
+      <c r="A3" s="86"/>
       <c r="B3" s="28">
         <v>45227</v>
       </c>
@@ -2144,7 +2205,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="83"/>
+      <c r="A4" s="86"/>
       <c r="B4" s="29">
         <v>45227</v>
       </c>
@@ -2156,7 +2217,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="84"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="31">
         <v>45227</v>
       </c>
@@ -2210,7 +2271,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="82">
+      <c r="A9" s="85">
         <v>4</v>
       </c>
       <c r="B9" s="33">
@@ -2224,7 +2285,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="28">
         <v>45234</v>
       </c>
@@ -2236,7 +2297,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
+      <c r="A11" s="86"/>
       <c r="B11" s="28">
         <v>45234</v>
       </c>
@@ -2248,7 +2309,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="84"/>
+      <c r="A12" s="87"/>
       <c r="B12" s="31">
         <v>45234</v>
       </c>
@@ -2260,7 +2321,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="82">
+      <c r="A13" s="85">
         <v>8</v>
       </c>
       <c r="B13" s="35">
@@ -2274,7 +2335,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="83"/>
+      <c r="A14" s="86"/>
       <c r="B14" s="28">
         <v>45236</v>
       </c>
@@ -2286,7 +2347,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="83"/>
+      <c r="A15" s="86"/>
       <c r="B15" s="28">
         <v>45236</v>
       </c>
@@ -2299,7 +2360,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
+      <c r="A16" s="86"/>
       <c r="B16" s="28">
         <v>45236</v>
       </c>
@@ -2311,7 +2372,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="83"/>
+      <c r="A17" s="86"/>
       <c r="B17" s="29">
         <v>45236</v>
       </c>
@@ -2323,7 +2384,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
+      <c r="A18" s="86"/>
       <c r="B18" s="28">
         <v>45236</v>
       </c>
@@ -2335,7 +2396,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="83"/>
+      <c r="A19" s="86"/>
       <c r="B19" s="28">
         <v>45236</v>
       </c>
@@ -2347,7 +2408,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="84"/>
+      <c r="A20" s="87"/>
       <c r="B20" s="38">
         <v>45236</v>
       </c>
@@ -2359,7 +2420,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="82">
+      <c r="A21" s="85">
         <v>7</v>
       </c>
       <c r="B21" s="33">
@@ -2373,7 +2434,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="83"/>
+      <c r="A22" s="86"/>
       <c r="B22" s="35">
         <v>45238</v>
       </c>
@@ -2385,7 +2446,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="83"/>
+      <c r="A23" s="86"/>
       <c r="B23" s="28">
         <v>45238</v>
       </c>
@@ -2397,7 +2458,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="83"/>
+      <c r="A24" s="86"/>
       <c r="B24" s="36">
         <v>45238</v>
       </c>
@@ -2409,7 +2470,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
+      <c r="A25" s="86"/>
       <c r="B25" s="28">
         <v>45238</v>
       </c>
@@ -2421,7 +2482,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="83"/>
+      <c r="A26" s="86"/>
       <c r="B26" s="37">
         <v>45238</v>
       </c>
@@ -2433,7 +2494,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="84"/>
+      <c r="A27" s="87"/>
       <c r="B27" s="31">
         <v>45238</v>
       </c>
@@ -2445,7 +2506,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="82">
+      <c r="A28" s="85">
         <v>2</v>
       </c>
       <c r="B28" s="33">
@@ -2459,7 +2520,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="84"/>
+      <c r="A29" s="87"/>
       <c r="B29" s="49">
         <v>45239</v>
       </c>
@@ -2471,7 +2532,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="85">
+      <c r="A30" s="88">
         <v>6</v>
       </c>
       <c r="B30" s="33">
@@ -2485,7 +2546,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="86"/>
+      <c r="A31" s="89"/>
       <c r="B31" s="28">
         <v>45240</v>
       </c>
@@ -2497,7 +2558,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="86"/>
+      <c r="A32" s="89"/>
       <c r="B32" s="28">
         <v>45240</v>
       </c>
@@ -2509,7 +2570,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="86"/>
+      <c r="A33" s="89"/>
       <c r="B33" s="28">
         <v>45240</v>
       </c>
@@ -2521,7 +2582,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="86"/>
+      <c r="A34" s="89"/>
       <c r="B34" s="28">
         <v>45240</v>
       </c>
@@ -2533,7 +2594,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="87"/>
+      <c r="A35" s="90"/>
       <c r="B35" s="31">
         <v>45240</v>
       </c>
@@ -2559,7 +2620,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="82">
+      <c r="A37" s="85">
         <v>2</v>
       </c>
       <c r="B37" s="33">
@@ -2568,39 +2629,115 @@
       <c r="C37" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="92">
+      <c r="D37" s="69">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="84"/>
-      <c r="B38" s="90">
+      <c r="A38" s="87"/>
+      <c r="B38" s="67">
         <v>45245</v>
       </c>
-      <c r="C38" s="91" t="s">
+      <c r="C38" s="68" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="56">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="47">
-        <f>SUM(A2:A37)</f>
-        <v>37</v>
-      </c>
-      <c r="B39" s="80" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="85">
+        <v>2</v>
+      </c>
+      <c r="B39" s="97">
+        <v>45246</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="87"/>
+      <c r="B40" s="94">
+        <v>45246</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="88">
+        <v>4</v>
+      </c>
+      <c r="B41" s="97">
+        <v>45247</v>
+      </c>
+      <c r="C41" s="98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="89"/>
+      <c r="B42" s="96">
+        <v>45247</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="95">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="89"/>
+      <c r="B43" s="36">
+        <v>45247</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="54">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="90"/>
+      <c r="B44" s="67">
+        <v>45247</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="56">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="47">
+        <f>SUM(A2:A44)</f>
+        <v>43</v>
+      </c>
+      <c r="B45" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="81"/>
-      <c r="D39" s="62">
-        <f>SUM(D2:D38)</f>
-        <v>435</v>
+      <c r="C45" s="84"/>
+      <c r="D45" s="62">
+        <f>SUM(D2:D44)</f>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B39:C39"/>
+  <mergeCells count="10">
+    <mergeCell ref="B45:C45"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A20"/>
@@ -2608,6 +2745,8 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A35"/>
     <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A44"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2636,187 +2775,205 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="88">
+      <c r="A2" s="91">
         <v>45253</v>
       </c>
-      <c r="B2" s="89"/>
+      <c r="B2" s="92"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="88">
+      <c r="A3" s="91">
         <v>45254</v>
       </c>
-      <c r="B3" s="89"/>
+      <c r="B3" s="92"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="88">
+      <c r="A4" s="91">
         <v>45255</v>
       </c>
-      <c r="B4" s="89"/>
+      <c r="B4" s="92"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="88">
+      <c r="A5" s="91">
         <v>45256</v>
       </c>
-      <c r="B5" s="89"/>
+      <c r="B5" s="92"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="88">
+      <c r="A6" s="91">
         <v>45257</v>
       </c>
-      <c r="B6" s="89"/>
+      <c r="B6" s="92"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="88">
+      <c r="A7" s="91">
         <v>45258</v>
       </c>
-      <c r="B7" s="89"/>
+      <c r="B7" s="92"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="88">
+      <c r="A8" s="91">
         <v>45259</v>
       </c>
-      <c r="B8" s="89"/>
+      <c r="B8" s="92"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="88">
+      <c r="A9" s="91">
         <v>45260</v>
       </c>
-      <c r="B9" s="89"/>
+      <c r="B9" s="92"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="88">
+      <c r="A10" s="91">
         <v>45261</v>
       </c>
-      <c r="B10" s="89"/>
+      <c r="B10" s="92"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="88">
+      <c r="A11" s="91">
         <v>45262</v>
       </c>
-      <c r="B11" s="89"/>
+      <c r="B11" s="92"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="88">
+      <c r="A12" s="91">
         <v>45263</v>
       </c>
-      <c r="B12" s="89"/>
+      <c r="B12" s="92"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="88">
+      <c r="A13" s="91">
         <v>45264</v>
       </c>
-      <c r="B13" s="89"/>
+      <c r="B13" s="92"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="88">
+      <c r="A14" s="91">
         <v>45265</v>
       </c>
-      <c r="B14" s="89"/>
+      <c r="B14" s="92"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="88">
+      <c r="A15" s="91">
         <v>45266</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="92"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="88">
+      <c r="A16" s="91">
         <v>45267</v>
       </c>
-      <c r="B16" s="89"/>
+      <c r="B16" s="92"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="88">
+      <c r="A17" s="91">
         <v>45268</v>
       </c>
-      <c r="B17" s="89"/>
+      <c r="B17" s="92"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="88">
+      <c r="A18" s="91">
         <v>45269</v>
       </c>
-      <c r="B18" s="89"/>
+      <c r="B18" s="92"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="88">
+      <c r="A19" s="91">
         <v>45270</v>
       </c>
-      <c r="B19" s="89"/>
+      <c r="B19" s="92"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="88">
+      <c r="A20" s="91">
         <v>45271</v>
       </c>
-      <c r="B20" s="89"/>
+      <c r="B20" s="92"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="88">
+      <c r="A21" s="91">
         <v>45272</v>
       </c>
-      <c r="B21" s="89"/>
+      <c r="B21" s="92"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="88">
+      <c r="A22" s="91">
         <v>45273</v>
       </c>
-      <c r="B22" s="89"/>
+      <c r="B22" s="92"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="88">
+      <c r="A23" s="91">
         <v>45274</v>
       </c>
-      <c r="B23" s="89"/>
+      <c r="B23" s="92"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="88">
+      <c r="A24" s="91">
         <v>45275</v>
       </c>
-      <c r="B24" s="89"/>
+      <c r="B24" s="92"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="88">
+      <c r="A25" s="91">
         <v>45276</v>
       </c>
-      <c r="B25" s="89"/>
+      <c r="B25" s="92"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="88">
+      <c r="A26" s="91">
         <v>45277</v>
       </c>
-      <c r="B26" s="89"/>
+      <c r="B26" s="92"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="88">
+      <c r="A27" s="91">
         <v>45278</v>
       </c>
-      <c r="B27" s="89"/>
+      <c r="B27" s="92"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="88">
+      <c r="A28" s="91">
         <v>45279</v>
       </c>
-      <c r="B28" s="89"/>
+      <c r="B28" s="92"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="88">
+      <c r="A29" s="91">
         <v>45280</v>
       </c>
-      <c r="B29" s="89"/>
+      <c r="B29" s="92"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="88">
+      <c r="A30" s="91">
         <v>45281</v>
       </c>
-      <c r="B30" s="89"/>
+      <c r="B30" s="92"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="88">
+      <c r="A31" s="91">
         <v>45282</v>
       </c>
-      <c r="B31" s="89"/>
+      <c r="B31" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
@@ -2829,24 +2986,6 @@
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/CORRIDAS TK MULTIMARCAS.xlsx
+++ b/CORRIDAS TK MULTIMARCAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\CORRIDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F8617E-03F0-4641-A6F5-1DC2BC3BD954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA364403-6E45-4440-B2E3-1E0578675181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
   <si>
     <t>VALOR</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>JARDIM DAS FLORES</t>
+  </si>
+  <si>
+    <t>VILA ROSARIO</t>
   </si>
 </sst>
 </file>
@@ -1275,6 +1278,51 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1285,33 +1333,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1343,24 +1364,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1705,14 +1708,14 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="79">
+      <c r="A2" s="81">
         <v>45192</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="77">
+      <c r="B2" s="82"/>
+      <c r="C2" s="76">
         <v>45205</v>
       </c>
-      <c r="D2" s="78"/>
+      <c r="D2" s="77"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
@@ -1729,10 +1732,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="81">
+      <c r="A4" s="83">
         <v>45194</v>
       </c>
-      <c r="B4" s="82"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="10">
         <v>15</v>
       </c>
@@ -1755,10 +1758,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="81">
+      <c r="A6" s="83">
         <v>45195</v>
       </c>
-      <c r="B6" s="82"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="10">
         <v>15</v>
       </c>
@@ -1781,10 +1784,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="81">
+      <c r="A8" s="83">
         <v>45196</v>
       </c>
-      <c r="B8" s="82"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="10">
         <v>5</v>
       </c>
@@ -1813,10 +1816,10 @@
       <c r="B10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="76">
+      <c r="C10" s="78">
         <v>45208</v>
       </c>
-      <c r="D10" s="75"/>
+      <c r="D10" s="79"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -1861,14 +1864,14 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="81">
+      <c r="A14" s="83">
         <v>45197</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="76">
+      <c r="B14" s="84"/>
+      <c r="C14" s="78">
         <v>45209</v>
       </c>
-      <c r="D14" s="75"/>
+      <c r="D14" s="79"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -1885,10 +1888,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="74">
+      <c r="A16" s="80">
         <v>45198</v>
       </c>
-      <c r="B16" s="75"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="10">
         <v>15</v>
       </c>
@@ -1917,10 +1920,10 @@
       <c r="B18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="76">
+      <c r="C18" s="78">
         <v>45212</v>
       </c>
-      <c r="D18" s="75"/>
+      <c r="D18" s="79"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -1951,10 +1954,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="74">
+      <c r="A21" s="80">
         <v>45201</v>
       </c>
-      <c r="B21" s="75"/>
+      <c r="B21" s="79"/>
       <c r="C21" s="10">
         <v>15</v>
       </c>
@@ -1983,10 +1986,10 @@
       <c r="B23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="76">
+      <c r="C23" s="78">
         <v>45213</v>
       </c>
-      <c r="D23" s="75"/>
+      <c r="D23" s="79"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
@@ -2009,16 +2012,16 @@
       <c r="B25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="76">
+      <c r="C25" s="78">
         <v>45215</v>
       </c>
-      <c r="D25" s="75"/>
+      <c r="D25" s="79"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="74">
+      <c r="A26" s="80">
         <v>45202</v>
       </c>
-      <c r="B26" s="75"/>
+      <c r="B26" s="79"/>
       <c r="C26" s="10">
         <v>12</v>
       </c>
@@ -2047,16 +2050,16 @@
       <c r="B28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="76">
+      <c r="C28" s="78">
         <v>45216</v>
       </c>
-      <c r="D28" s="75"/>
+      <c r="D28" s="79"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="74">
+      <c r="A29" s="80">
         <v>45203</v>
       </c>
-      <c r="B29" s="75"/>
+      <c r="B29" s="79"/>
       <c r="C29" s="10">
         <v>15</v>
       </c>
@@ -2071,10 +2074,10 @@
       <c r="B30" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="76">
+      <c r="C30" s="78">
         <v>45218</v>
       </c>
-      <c r="D30" s="75"/>
+      <c r="D30" s="79"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
@@ -2093,10 +2096,10 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
-      <c r="C32" s="76">
+      <c r="C32" s="78">
         <v>45219</v>
       </c>
-      <c r="D32" s="75"/>
+      <c r="D32" s="79"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
@@ -2109,18 +2112,25 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="70" t="s">
+      <c r="A34" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="71"/>
-      <c r="C34" s="72">
+      <c r="B34" s="86"/>
+      <c r="C34" s="87">
         <f>SUM(A3,A5,A7,A9:A13,A15,A17:A20,A22:A25,A27:A28,A30:A31,C3:C9,C11:C13,C15:C17,C19:C22,C24,C26:C27,C29,C31,C33)</f>
         <v>477</v>
       </c>
-      <c r="D34" s="73"/>
+      <c r="D34" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="A21:B21"/>
@@ -2134,13 +2144,6 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="115" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2149,10 +2152,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39585085-A1B2-4FF0-B72D-E02CCA4A4823}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2179,7 +2182,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85">
+      <c r="A2" s="91">
         <v>4</v>
       </c>
       <c r="B2" s="33">
@@ -2193,7 +2196,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="86"/>
+      <c r="A3" s="92"/>
       <c r="B3" s="28">
         <v>45227</v>
       </c>
@@ -2205,7 +2208,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="86"/>
+      <c r="A4" s="92"/>
       <c r="B4" s="29">
         <v>45227</v>
       </c>
@@ -2217,7 +2220,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="87"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="31">
         <v>45227</v>
       </c>
@@ -2271,7 +2274,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="85">
+      <c r="A9" s="91">
         <v>4</v>
       </c>
       <c r="B9" s="33">
@@ -2285,7 +2288,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="86"/>
+      <c r="A10" s="92"/>
       <c r="B10" s="28">
         <v>45234</v>
       </c>
@@ -2297,7 +2300,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="86"/>
+      <c r="A11" s="92"/>
       <c r="B11" s="28">
         <v>45234</v>
       </c>
@@ -2309,7 +2312,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="87"/>
+      <c r="A12" s="93"/>
       <c r="B12" s="31">
         <v>45234</v>
       </c>
@@ -2321,7 +2324,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="85">
+      <c r="A13" s="91">
         <v>8</v>
       </c>
       <c r="B13" s="35">
@@ -2335,7 +2338,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="86"/>
+      <c r="A14" s="92"/>
       <c r="B14" s="28">
         <v>45236</v>
       </c>
@@ -2347,7 +2350,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
+      <c r="A15" s="92"/>
       <c r="B15" s="28">
         <v>45236</v>
       </c>
@@ -2360,7 +2363,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
+      <c r="A16" s="92"/>
       <c r="B16" s="28">
         <v>45236</v>
       </c>
@@ -2372,7 +2375,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
+      <c r="A17" s="92"/>
       <c r="B17" s="29">
         <v>45236</v>
       </c>
@@ -2384,7 +2387,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
+      <c r="A18" s="92"/>
       <c r="B18" s="28">
         <v>45236</v>
       </c>
@@ -2396,7 +2399,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="86"/>
+      <c r="A19" s="92"/>
       <c r="B19" s="28">
         <v>45236</v>
       </c>
@@ -2408,7 +2411,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="87"/>
+      <c r="A20" s="93"/>
       <c r="B20" s="38">
         <v>45236</v>
       </c>
@@ -2420,7 +2423,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="85">
+      <c r="A21" s="91">
         <v>7</v>
       </c>
       <c r="B21" s="33">
@@ -2434,7 +2437,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="86"/>
+      <c r="A22" s="92"/>
       <c r="B22" s="35">
         <v>45238</v>
       </c>
@@ -2446,7 +2449,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
+      <c r="A23" s="92"/>
       <c r="B23" s="28">
         <v>45238</v>
       </c>
@@ -2458,7 +2461,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
+      <c r="A24" s="92"/>
       <c r="B24" s="36">
         <v>45238</v>
       </c>
@@ -2470,7 +2473,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="86"/>
+      <c r="A25" s="92"/>
       <c r="B25" s="28">
         <v>45238</v>
       </c>
@@ -2482,7 +2485,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="86"/>
+      <c r="A26" s="92"/>
       <c r="B26" s="37">
         <v>45238</v>
       </c>
@@ -2494,7 +2497,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="87"/>
+      <c r="A27" s="93"/>
       <c r="B27" s="31">
         <v>45238</v>
       </c>
@@ -2506,7 +2509,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="85">
+      <c r="A28" s="91">
         <v>2</v>
       </c>
       <c r="B28" s="33">
@@ -2520,7 +2523,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="87"/>
+      <c r="A29" s="93"/>
       <c r="B29" s="49">
         <v>45239</v>
       </c>
@@ -2532,7 +2535,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="88">
+      <c r="A30" s="94">
         <v>6</v>
       </c>
       <c r="B30" s="33">
@@ -2546,7 +2549,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="89"/>
+      <c r="A31" s="95"/>
       <c r="B31" s="28">
         <v>45240</v>
       </c>
@@ -2558,7 +2561,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="89"/>
+      <c r="A32" s="95"/>
       <c r="B32" s="28">
         <v>45240</v>
       </c>
@@ -2570,7 +2573,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="89"/>
+      <c r="A33" s="95"/>
       <c r="B33" s="28">
         <v>45240</v>
       </c>
@@ -2582,7 +2585,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="89"/>
+      <c r="A34" s="95"/>
       <c r="B34" s="28">
         <v>45240</v>
       </c>
@@ -2594,7 +2597,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="90"/>
+      <c r="A35" s="96"/>
       <c r="B35" s="31">
         <v>45240</v>
       </c>
@@ -2620,7 +2623,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="85">
+      <c r="A37" s="91">
         <v>2</v>
       </c>
       <c r="B37" s="33">
@@ -2634,7 +2637,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="87"/>
+      <c r="A38" s="93"/>
       <c r="B38" s="67">
         <v>45245</v>
       </c>
@@ -2646,10 +2649,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="85">
+      <c r="A39" s="91">
         <v>2</v>
       </c>
-      <c r="B39" s="97">
+      <c r="B39" s="74">
         <v>45246</v>
       </c>
       <c r="C39" s="41" t="s">
@@ -2660,25 +2663,25 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="87"/>
-      <c r="B40" s="94">
+      <c r="A40" s="93"/>
+      <c r="B40" s="71">
         <v>45246</v>
       </c>
       <c r="C40" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="93">
+      <c r="D40" s="70">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="88">
+      <c r="A41" s="94">
         <v>4</v>
       </c>
-      <c r="B41" s="97">
+      <c r="B41" s="74">
         <v>45247</v>
       </c>
-      <c r="C41" s="98" t="s">
+      <c r="C41" s="75" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="53">
@@ -2686,19 +2689,19 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="89"/>
-      <c r="B42" s="96">
+      <c r="A42" s="95"/>
+      <c r="B42" s="73">
         <v>45247</v>
       </c>
       <c r="C42" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="95">
+      <c r="D42" s="72">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="89"/>
+      <c r="A43" s="95"/>
       <c r="B43" s="36">
         <v>45247</v>
       </c>
@@ -2710,34 +2713,60 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="90"/>
-      <c r="B44" s="67">
+      <c r="A44" s="96"/>
+      <c r="B44" s="49">
         <v>45247</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="56">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="47">
-        <f>SUM(A2:A44)</f>
+      <c r="D44" s="60">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="94">
+        <v>2</v>
+      </c>
+      <c r="B45" s="33">
+        <v>45251</v>
+      </c>
+      <c r="C45" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="83" t="s">
+      <c r="D45" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="96"/>
+      <c r="B46" s="31">
+        <v>45251</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="47">
+        <f>SUM(A2:A46)</f>
+        <v>45</v>
+      </c>
+      <c r="B47" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="84"/>
-      <c r="D45" s="62">
-        <f>SUM(D2:D44)</f>
-        <v>495</v>
+      <c r="C47" s="90"/>
+      <c r="D47" s="62">
+        <f>SUM(D2:D46)</f>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B45:C45"/>
+  <mergeCells count="11">
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A20"/>
@@ -2747,6 +2776,7 @@
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A45:A46"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2775,193 +2805,199 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="91">
+      <c r="A2" s="97">
         <v>45253</v>
       </c>
-      <c r="B2" s="92"/>
+      <c r="B2" s="98"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="91">
+      <c r="A3" s="97">
         <v>45254</v>
       </c>
-      <c r="B3" s="92"/>
+      <c r="B3" s="98"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="91">
+      <c r="A4" s="97">
         <v>45255</v>
       </c>
-      <c r="B4" s="92"/>
+      <c r="B4" s="98"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="91">
+      <c r="A5" s="97">
         <v>45256</v>
       </c>
-      <c r="B5" s="92"/>
+      <c r="B5" s="98"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="91">
+      <c r="A6" s="97">
         <v>45257</v>
       </c>
-      <c r="B6" s="92"/>
+      <c r="B6" s="98"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="91">
+      <c r="A7" s="97">
         <v>45258</v>
       </c>
-      <c r="B7" s="92"/>
+      <c r="B7" s="98"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="91">
+      <c r="A8" s="97">
         <v>45259</v>
       </c>
-      <c r="B8" s="92"/>
+      <c r="B8" s="98"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="91">
+      <c r="A9" s="97">
         <v>45260</v>
       </c>
-      <c r="B9" s="92"/>
+      <c r="B9" s="98"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="91">
+      <c r="A10" s="97">
         <v>45261</v>
       </c>
-      <c r="B10" s="92"/>
+      <c r="B10" s="98"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="91">
+      <c r="A11" s="97">
         <v>45262</v>
       </c>
-      <c r="B11" s="92"/>
+      <c r="B11" s="98"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="91">
+      <c r="A12" s="97">
         <v>45263</v>
       </c>
-      <c r="B12" s="92"/>
+      <c r="B12" s="98"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="91">
+      <c r="A13" s="97">
         <v>45264</v>
       </c>
-      <c r="B13" s="92"/>
+      <c r="B13" s="98"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="91">
+      <c r="A14" s="97">
         <v>45265</v>
       </c>
-      <c r="B14" s="92"/>
+      <c r="B14" s="98"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="91">
+      <c r="A15" s="97">
         <v>45266</v>
       </c>
-      <c r="B15" s="92"/>
+      <c r="B15" s="98"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="91">
+      <c r="A16" s="97">
         <v>45267</v>
       </c>
-      <c r="B16" s="92"/>
+      <c r="B16" s="98"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="91">
+      <c r="A17" s="97">
         <v>45268</v>
       </c>
-      <c r="B17" s="92"/>
+      <c r="B17" s="98"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="91">
+      <c r="A18" s="97">
         <v>45269</v>
       </c>
-      <c r="B18" s="92"/>
+      <c r="B18" s="98"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="91">
+      <c r="A19" s="97">
         <v>45270</v>
       </c>
-      <c r="B19" s="92"/>
+      <c r="B19" s="98"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="91">
+      <c r="A20" s="97">
         <v>45271</v>
       </c>
-      <c r="B20" s="92"/>
+      <c r="B20" s="98"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="91">
+      <c r="A21" s="97">
         <v>45272</v>
       </c>
-      <c r="B21" s="92"/>
+      <c r="B21" s="98"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="91">
+      <c r="A22" s="97">
         <v>45273</v>
       </c>
-      <c r="B22" s="92"/>
+      <c r="B22" s="98"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="91">
+      <c r="A23" s="97">
         <v>45274</v>
       </c>
-      <c r="B23" s="92"/>
+      <c r="B23" s="98"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="91">
+      <c r="A24" s="97">
         <v>45275</v>
       </c>
-      <c r="B24" s="92"/>
+      <c r="B24" s="98"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="91">
+      <c r="A25" s="97">
         <v>45276</v>
       </c>
-      <c r="B25" s="92"/>
+      <c r="B25" s="98"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="91">
+      <c r="A26" s="97">
         <v>45277</v>
       </c>
-      <c r="B26" s="92"/>
+      <c r="B26" s="98"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="91">
+      <c r="A27" s="97">
         <v>45278</v>
       </c>
-      <c r="B27" s="92"/>
+      <c r="B27" s="98"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="91">
+      <c r="A28" s="97">
         <v>45279</v>
       </c>
-      <c r="B28" s="92"/>
+      <c r="B28" s="98"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="91">
+      <c r="A29" s="97">
         <v>45280</v>
       </c>
-      <c r="B29" s="92"/>
+      <c r="B29" s="98"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="91">
+      <c r="A30" s="97">
         <v>45281</v>
       </c>
-      <c r="B30" s="92"/>
+      <c r="B30" s="98"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="91">
+      <c r="A31" s="97">
         <v>45282</v>
       </c>
-      <c r="B31" s="92"/>
+      <c r="B31" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
@@ -2974,18 +3010,12 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/CORRIDAS TK MULTIMARCAS.xlsx
+++ b/CORRIDAS TK MULTIMARCAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\CORRIDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA364403-6E45-4440-B2E3-1E0578675181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED035AA-83F8-4120-AA58-0E2F1CCC8668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
   <si>
     <t>VALOR</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>VILA ROSARIO</t>
+  </si>
+  <si>
+    <t>ENTROCAMENTO</t>
   </si>
 </sst>
 </file>
@@ -261,7 +264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="63">
+  <borders count="69">
     <border>
       <left/>
       <right/>
@@ -1065,11 +1068,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1296,21 +1371,33 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1321,18 +1408,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1364,6 +1439,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1708,14 +1804,14 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="81">
+      <c r="A2" s="85">
         <v>45192</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="76">
+      <c r="B2" s="86"/>
+      <c r="C2" s="83">
         <v>45205</v>
       </c>
-      <c r="D2" s="77"/>
+      <c r="D2" s="84"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
@@ -1732,10 +1828,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="83">
+      <c r="A4" s="87">
         <v>45194</v>
       </c>
-      <c r="B4" s="84"/>
+      <c r="B4" s="88"/>
       <c r="C4" s="10">
         <v>15</v>
       </c>
@@ -1758,10 +1854,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="83">
+      <c r="A6" s="87">
         <v>45195</v>
       </c>
-      <c r="B6" s="84"/>
+      <c r="B6" s="88"/>
       <c r="C6" s="10">
         <v>15</v>
       </c>
@@ -1784,10 +1880,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="83">
+      <c r="A8" s="87">
         <v>45196</v>
       </c>
-      <c r="B8" s="84"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="10">
         <v>5</v>
       </c>
@@ -1816,10 +1912,10 @@
       <c r="B10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="78">
+      <c r="C10" s="82">
         <v>45208</v>
       </c>
-      <c r="D10" s="79"/>
+      <c r="D10" s="81"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -1864,14 +1960,14 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="83">
+      <c r="A14" s="87">
         <v>45197</v>
       </c>
-      <c r="B14" s="84"/>
-      <c r="C14" s="78">
+      <c r="B14" s="88"/>
+      <c r="C14" s="82">
         <v>45209</v>
       </c>
-      <c r="D14" s="79"/>
+      <c r="D14" s="81"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -1891,7 +1987,7 @@
       <c r="A16" s="80">
         <v>45198</v>
       </c>
-      <c r="B16" s="79"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="10">
         <v>15</v>
       </c>
@@ -1920,10 +2016,10 @@
       <c r="B18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="78">
+      <c r="C18" s="82">
         <v>45212</v>
       </c>
-      <c r="D18" s="79"/>
+      <c r="D18" s="81"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -1957,7 +2053,7 @@
       <c r="A21" s="80">
         <v>45201</v>
       </c>
-      <c r="B21" s="79"/>
+      <c r="B21" s="81"/>
       <c r="C21" s="10">
         <v>15</v>
       </c>
@@ -1986,10 +2082,10 @@
       <c r="B23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="78">
+      <c r="C23" s="82">
         <v>45213</v>
       </c>
-      <c r="D23" s="79"/>
+      <c r="D23" s="81"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
@@ -2012,16 +2108,16 @@
       <c r="B25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="78">
+      <c r="C25" s="82">
         <v>45215</v>
       </c>
-      <c r="D25" s="79"/>
+      <c r="D25" s="81"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="80">
         <v>45202</v>
       </c>
-      <c r="B26" s="79"/>
+      <c r="B26" s="81"/>
       <c r="C26" s="10">
         <v>12</v>
       </c>
@@ -2050,16 +2146,16 @@
       <c r="B28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="78">
+      <c r="C28" s="82">
         <v>45216</v>
       </c>
-      <c r="D28" s="79"/>
+      <c r="D28" s="81"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="80">
         <v>45203</v>
       </c>
-      <c r="B29" s="79"/>
+      <c r="B29" s="81"/>
       <c r="C29" s="10">
         <v>15</v>
       </c>
@@ -2074,10 +2170,10 @@
       <c r="B30" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="78">
+      <c r="C30" s="82">
         <v>45218</v>
       </c>
-      <c r="D30" s="79"/>
+      <c r="D30" s="81"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
@@ -2096,10 +2192,10 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
-      <c r="C32" s="78">
+      <c r="C32" s="82">
         <v>45219</v>
       </c>
-      <c r="D32" s="79"/>
+      <c r="D32" s="81"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
@@ -2112,25 +2208,18 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="85" t="s">
+      <c r="A34" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="86"/>
-      <c r="C34" s="87">
+      <c r="B34" s="77"/>
+      <c r="C34" s="78">
         <f>SUM(A3,A5,A7,A9:A13,A15,A17:A20,A22:A25,A27:A28,A30:A31,C3:C9,C11:C13,C15:C17,C19:C22,C24,C26:C27,C29,C31,C33)</f>
         <v>477</v>
       </c>
-      <c r="D34" s="88"/>
+      <c r="D34" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A29:B29"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="A21:B21"/>
@@ -2144,6 +2233,13 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="115" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2152,10 +2248,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39585085-A1B2-4FF0-B72D-E02CCA4A4823}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2751,22 +2847,110 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="47">
-        <f>SUM(A2:A46)</f>
-        <v>45</v>
-      </c>
-      <c r="B47" s="89" t="s">
+      <c r="A47" s="50">
+        <v>1</v>
+      </c>
+      <c r="B47" s="27">
+        <v>45252</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="104">
+        <v>6</v>
+      </c>
+      <c r="B48" s="102">
+        <v>45253</v>
+      </c>
+      <c r="C48" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="100"/>
+      <c r="B49" s="49">
+        <v>45253</v>
+      </c>
+      <c r="C49" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="100"/>
+      <c r="B50" s="28">
+        <v>45253</v>
+      </c>
+      <c r="C50" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="100"/>
+      <c r="B51" s="28">
+        <v>45253</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="100"/>
+      <c r="B52" s="28">
+        <v>45253</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="100"/>
+      <c r="B53" s="31">
+        <v>45253</v>
+      </c>
+      <c r="C53" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="47">
+        <f>SUM(A2:A53)</f>
+        <v>52</v>
+      </c>
+      <c r="B54" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="90"/>
-      <c r="D47" s="62">
-        <f>SUM(D2:D46)</f>
-        <v>515</v>
+      <c r="C54" s="90"/>
+      <c r="D54" s="62">
+        <f>SUM(D2:D53)</f>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B47:C47"/>
+  <mergeCells count="12">
+    <mergeCell ref="B54:C54"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A20"/>
@@ -2777,6 +2961,7 @@
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A41:A44"/>
     <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A48:A53"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2986,6 +3171,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
@@ -2998,24 +3201,6 @@
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/CORRIDAS TK MULTIMARCAS.xlsx
+++ b/CORRIDAS TK MULTIMARCAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\CORRIDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED035AA-83F8-4120-AA58-0E2F1CCC8668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AE1D03-70DD-45E2-8404-40A5F21BCB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="57">
   <si>
     <t>VALOR</t>
   </si>
@@ -189,6 +189,15 @@
   </si>
   <si>
     <t>ENTROCAMENTO</t>
+  </si>
+  <si>
+    <t>ANHAGUERA</t>
+  </si>
+  <si>
+    <t>VILA NORTE</t>
+  </si>
+  <si>
+    <t>MARTINS JORGE</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1371,6 +1380,48 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1383,33 +1434,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1432,6 +1456,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1440,25 +1470,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1804,14 +1825,14 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="85">
+      <c r="A2" s="86">
         <v>45192</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="83">
+      <c r="B2" s="87"/>
+      <c r="C2" s="81">
         <v>45205</v>
       </c>
-      <c r="D2" s="84"/>
+      <c r="D2" s="82"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
@@ -1828,10 +1849,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="87">
+      <c r="A4" s="88">
         <v>45194</v>
       </c>
-      <c r="B4" s="88"/>
+      <c r="B4" s="89"/>
       <c r="C4" s="10">
         <v>15</v>
       </c>
@@ -1854,10 +1875,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="87">
+      <c r="A6" s="88">
         <v>45195</v>
       </c>
-      <c r="B6" s="88"/>
+      <c r="B6" s="89"/>
       <c r="C6" s="10">
         <v>15</v>
       </c>
@@ -1880,10 +1901,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="87">
+      <c r="A8" s="88">
         <v>45196</v>
       </c>
-      <c r="B8" s="88"/>
+      <c r="B8" s="89"/>
       <c r="C8" s="10">
         <v>5</v>
       </c>
@@ -1912,10 +1933,10 @@
       <c r="B10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="82">
+      <c r="C10" s="83">
         <v>45208</v>
       </c>
-      <c r="D10" s="81"/>
+      <c r="D10" s="84"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -1960,14 +1981,14 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="87">
+      <c r="A14" s="88">
         <v>45197</v>
       </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="82">
+      <c r="B14" s="89"/>
+      <c r="C14" s="83">
         <v>45209</v>
       </c>
-      <c r="D14" s="81"/>
+      <c r="D14" s="84"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -1984,10 +2005,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="80">
+      <c r="A16" s="85">
         <v>45198</v>
       </c>
-      <c r="B16" s="81"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="10">
         <v>15</v>
       </c>
@@ -2016,10 +2037,10 @@
       <c r="B18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="82">
+      <c r="C18" s="83">
         <v>45212</v>
       </c>
-      <c r="D18" s="81"/>
+      <c r="D18" s="84"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -2050,10 +2071,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="80">
+      <c r="A21" s="85">
         <v>45201</v>
       </c>
-      <c r="B21" s="81"/>
+      <c r="B21" s="84"/>
       <c r="C21" s="10">
         <v>15</v>
       </c>
@@ -2082,10 +2103,10 @@
       <c r="B23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="82">
+      <c r="C23" s="83">
         <v>45213</v>
       </c>
-      <c r="D23" s="81"/>
+      <c r="D23" s="84"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
@@ -2108,16 +2129,16 @@
       <c r="B25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="82">
+      <c r="C25" s="83">
         <v>45215</v>
       </c>
-      <c r="D25" s="81"/>
+      <c r="D25" s="84"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="80">
+      <c r="A26" s="85">
         <v>45202</v>
       </c>
-      <c r="B26" s="81"/>
+      <c r="B26" s="84"/>
       <c r="C26" s="10">
         <v>12</v>
       </c>
@@ -2146,16 +2167,16 @@
       <c r="B28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="82">
+      <c r="C28" s="83">
         <v>45216</v>
       </c>
-      <c r="D28" s="81"/>
+      <c r="D28" s="84"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="80">
+      <c r="A29" s="85">
         <v>45203</v>
       </c>
-      <c r="B29" s="81"/>
+      <c r="B29" s="84"/>
       <c r="C29" s="10">
         <v>15</v>
       </c>
@@ -2170,10 +2191,10 @@
       <c r="B30" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="82">
+      <c r="C30" s="83">
         <v>45218</v>
       </c>
-      <c r="D30" s="81"/>
+      <c r="D30" s="84"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
@@ -2192,10 +2213,10 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
-      <c r="C32" s="82">
+      <c r="C32" s="83">
         <v>45219</v>
       </c>
-      <c r="D32" s="81"/>
+      <c r="D32" s="84"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
@@ -2208,18 +2229,25 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="76" t="s">
+      <c r="A34" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="77"/>
-      <c r="C34" s="78">
+      <c r="B34" s="91"/>
+      <c r="C34" s="92">
         <f>SUM(A3,A5,A7,A9:A13,A15,A17:A20,A22:A25,A27:A28,A30:A31,C3:C9,C11:C13,C15:C17,C19:C22,C24,C26:C27,C29,C31,C33)</f>
         <v>477</v>
       </c>
-      <c r="D34" s="79"/>
+      <c r="D34" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="A21:B21"/>
@@ -2233,13 +2261,6 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="115" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2248,10 +2269,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39585085-A1B2-4FF0-B72D-E02CCA4A4823}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2278,7 +2299,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91">
+      <c r="A2" s="96">
         <v>4</v>
       </c>
       <c r="B2" s="33">
@@ -2292,7 +2313,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="92"/>
+      <c r="A3" s="97"/>
       <c r="B3" s="28">
         <v>45227</v>
       </c>
@@ -2304,7 +2325,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="92"/>
+      <c r="A4" s="97"/>
       <c r="B4" s="29">
         <v>45227</v>
       </c>
@@ -2316,7 +2337,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="93"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="31">
         <v>45227</v>
       </c>
@@ -2370,7 +2391,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="91">
+      <c r="A9" s="96">
         <v>4</v>
       </c>
       <c r="B9" s="33">
@@ -2384,7 +2405,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="92"/>
+      <c r="A10" s="97"/>
       <c r="B10" s="28">
         <v>45234</v>
       </c>
@@ -2396,7 +2417,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="92"/>
+      <c r="A11" s="97"/>
       <c r="B11" s="28">
         <v>45234</v>
       </c>
@@ -2408,7 +2429,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="93"/>
+      <c r="A12" s="98"/>
       <c r="B12" s="31">
         <v>45234</v>
       </c>
@@ -2420,7 +2441,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="91">
+      <c r="A13" s="96">
         <v>8</v>
       </c>
       <c r="B13" s="35">
@@ -2434,7 +2455,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="92"/>
+      <c r="A14" s="97"/>
       <c r="B14" s="28">
         <v>45236</v>
       </c>
@@ -2446,7 +2467,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="92"/>
+      <c r="A15" s="97"/>
       <c r="B15" s="28">
         <v>45236</v>
       </c>
@@ -2459,7 +2480,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
+      <c r="A16" s="97"/>
       <c r="B16" s="28">
         <v>45236</v>
       </c>
@@ -2471,7 +2492,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="92"/>
+      <c r="A17" s="97"/>
       <c r="B17" s="29">
         <v>45236</v>
       </c>
@@ -2483,7 +2504,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="92"/>
+      <c r="A18" s="97"/>
       <c r="B18" s="28">
         <v>45236</v>
       </c>
@@ -2495,7 +2516,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="92"/>
+      <c r="A19" s="97"/>
       <c r="B19" s="28">
         <v>45236</v>
       </c>
@@ -2507,7 +2528,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="93"/>
+      <c r="A20" s="98"/>
       <c r="B20" s="38">
         <v>45236</v>
       </c>
@@ -2519,7 +2540,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="91">
+      <c r="A21" s="96">
         <v>7</v>
       </c>
       <c r="B21" s="33">
@@ -2533,7 +2554,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="92"/>
+      <c r="A22" s="97"/>
       <c r="B22" s="35">
         <v>45238</v>
       </c>
@@ -2545,7 +2566,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="92"/>
+      <c r="A23" s="97"/>
       <c r="B23" s="28">
         <v>45238</v>
       </c>
@@ -2557,7 +2578,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="92"/>
+      <c r="A24" s="97"/>
       <c r="B24" s="36">
         <v>45238</v>
       </c>
@@ -2569,7 +2590,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="92"/>
+      <c r="A25" s="97"/>
       <c r="B25" s="28">
         <v>45238</v>
       </c>
@@ -2581,7 +2602,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="92"/>
+      <c r="A26" s="97"/>
       <c r="B26" s="37">
         <v>45238</v>
       </c>
@@ -2593,7 +2614,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="93"/>
+      <c r="A27" s="98"/>
       <c r="B27" s="31">
         <v>45238</v>
       </c>
@@ -2605,7 +2626,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="91">
+      <c r="A28" s="96">
         <v>2</v>
       </c>
       <c r="B28" s="33">
@@ -2619,7 +2640,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93"/>
+      <c r="A29" s="98"/>
       <c r="B29" s="49">
         <v>45239</v>
       </c>
@@ -2631,7 +2652,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="94">
+      <c r="A30" s="99">
         <v>6</v>
       </c>
       <c r="B30" s="33">
@@ -2645,7 +2666,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="95"/>
+      <c r="A31" s="100"/>
       <c r="B31" s="28">
         <v>45240</v>
       </c>
@@ -2657,7 +2678,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="95"/>
+      <c r="A32" s="100"/>
       <c r="B32" s="28">
         <v>45240</v>
       </c>
@@ -2669,7 +2690,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="95"/>
+      <c r="A33" s="100"/>
       <c r="B33" s="28">
         <v>45240</v>
       </c>
@@ -2681,7 +2702,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="95"/>
+      <c r="A34" s="100"/>
       <c r="B34" s="28">
         <v>45240</v>
       </c>
@@ -2693,7 +2714,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="96"/>
+      <c r="A35" s="101"/>
       <c r="B35" s="31">
         <v>45240</v>
       </c>
@@ -2719,7 +2740,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="91">
+      <c r="A37" s="96">
         <v>2</v>
       </c>
       <c r="B37" s="33">
@@ -2733,7 +2754,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="93"/>
+      <c r="A38" s="98"/>
       <c r="B38" s="67">
         <v>45245</v>
       </c>
@@ -2745,7 +2766,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="91">
+      <c r="A39" s="96">
         <v>2</v>
       </c>
       <c r="B39" s="74">
@@ -2759,7 +2780,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="93"/>
+      <c r="A40" s="98"/>
       <c r="B40" s="71">
         <v>45246</v>
       </c>
@@ -2771,7 +2792,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="94">
+      <c r="A41" s="99">
         <v>4</v>
       </c>
       <c r="B41" s="74">
@@ -2785,7 +2806,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="95"/>
+      <c r="A42" s="100"/>
       <c r="B42" s="73">
         <v>45247</v>
       </c>
@@ -2797,7 +2818,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="95"/>
+      <c r="A43" s="100"/>
       <c r="B43" s="36">
         <v>45247</v>
       </c>
@@ -2809,7 +2830,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="96"/>
+      <c r="A44" s="101"/>
       <c r="B44" s="49">
         <v>45247</v>
       </c>
@@ -2821,7 +2842,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="94">
+      <c r="A45" s="99">
         <v>2</v>
       </c>
       <c r="B45" s="33">
@@ -2835,7 +2856,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="96"/>
+      <c r="A46" s="101"/>
       <c r="B46" s="31">
         <v>45251</v>
       </c>
@@ -2861,13 +2882,13 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="104">
+      <c r="A48" s="102">
         <v>6</v>
       </c>
-      <c r="B48" s="102">
+      <c r="B48" s="78">
         <v>45253</v>
       </c>
-      <c r="C48" s="105" t="s">
+      <c r="C48" s="80" t="s">
         <v>36</v>
       </c>
       <c r="D48" s="53">
@@ -2875,11 +2896,11 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="100"/>
+      <c r="A49" s="103"/>
       <c r="B49" s="49">
         <v>45253</v>
       </c>
-      <c r="C49" s="103" t="s">
+      <c r="C49" s="79" t="s">
         <v>6</v>
       </c>
       <c r="D49" s="58">
@@ -2887,19 +2908,19 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="100"/>
+      <c r="A50" s="103"/>
       <c r="B50" s="28">
         <v>45253</v>
       </c>
-      <c r="C50" s="99" t="s">
+      <c r="C50" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="101">
+      <c r="D50" s="77">
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="100"/>
+      <c r="A51" s="103"/>
       <c r="B51" s="28">
         <v>45253</v>
       </c>
@@ -2911,7 +2932,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="100"/>
+      <c r="A52" s="103"/>
       <c r="B52" s="28">
         <v>45253</v>
       </c>
@@ -2923,34 +2944,96 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="100"/>
-      <c r="B53" s="31">
+      <c r="A53" s="103"/>
+      <c r="B53" s="37">
         <v>45253</v>
       </c>
-      <c r="C53" s="39" t="s">
+      <c r="C53" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="56">
+      <c r="D53" s="60">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="47">
-        <f>SUM(A2:A53)</f>
-        <v>52</v>
-      </c>
-      <c r="B54" s="89" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="107">
+        <v>5</v>
+      </c>
+      <c r="B54" s="33">
+        <v>45254</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="108"/>
+      <c r="B55" s="28">
+        <v>45254</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="54">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="108"/>
+      <c r="B56" s="28">
+        <v>45254</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" s="54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="108"/>
+      <c r="B57" s="28">
+        <v>45254</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="109"/>
+      <c r="B58" s="31">
+        <v>45254</v>
+      </c>
+      <c r="C58" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" s="56">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="47">
+        <f>SUM(A2:A58)</f>
+        <v>57</v>
+      </c>
+      <c r="B59" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="90"/>
-      <c r="D54" s="62">
-        <f>SUM(D2:D53)</f>
-        <v>565</v>
+      <c r="C59" s="95"/>
+      <c r="D59" s="62">
+        <f>SUM(D2:D58)</f>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B54:C54"/>
+  <mergeCells count="13">
+    <mergeCell ref="B59:C59"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A20"/>
@@ -2962,6 +3045,7 @@
     <mergeCell ref="A41:A44"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="A48:A53"/>
+    <mergeCell ref="A54:A58"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2990,193 +3074,199 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="97">
+      <c r="A2" s="104">
         <v>45253</v>
       </c>
-      <c r="B2" s="98"/>
+      <c r="B2" s="105"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="97">
+      <c r="A3" s="104">
         <v>45254</v>
       </c>
-      <c r="B3" s="98"/>
+      <c r="B3" s="105"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="97">
+      <c r="A4" s="104">
         <v>45255</v>
       </c>
-      <c r="B4" s="98"/>
+      <c r="B4" s="105"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="97">
+      <c r="A5" s="104">
         <v>45256</v>
       </c>
-      <c r="B5" s="98"/>
+      <c r="B5" s="105"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="97">
+      <c r="A6" s="104">
         <v>45257</v>
       </c>
-      <c r="B6" s="98"/>
+      <c r="B6" s="105"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="97">
+      <c r="A7" s="104">
         <v>45258</v>
       </c>
-      <c r="B7" s="98"/>
+      <c r="B7" s="105"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="97">
+      <c r="A8" s="104">
         <v>45259</v>
       </c>
-      <c r="B8" s="98"/>
+      <c r="B8" s="105"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="97">
+      <c r="A9" s="104">
         <v>45260</v>
       </c>
-      <c r="B9" s="98"/>
+      <c r="B9" s="105"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="97">
+      <c r="A10" s="104">
         <v>45261</v>
       </c>
-      <c r="B10" s="98"/>
+      <c r="B10" s="105"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="97">
+      <c r="A11" s="104">
         <v>45262</v>
       </c>
-      <c r="B11" s="98"/>
+      <c r="B11" s="105"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="97">
+      <c r="A12" s="104">
         <v>45263</v>
       </c>
-      <c r="B12" s="98"/>
+      <c r="B12" s="105"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="97">
+      <c r="A13" s="104">
         <v>45264</v>
       </c>
-      <c r="B13" s="98"/>
+      <c r="B13" s="105"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="97">
+      <c r="A14" s="104">
         <v>45265</v>
       </c>
-      <c r="B14" s="98"/>
+      <c r="B14" s="105"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="97">
+      <c r="A15" s="104">
         <v>45266</v>
       </c>
-      <c r="B15" s="98"/>
+      <c r="B15" s="105"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="97">
+      <c r="A16" s="104">
         <v>45267</v>
       </c>
-      <c r="B16" s="98"/>
+      <c r="B16" s="105"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="97">
+      <c r="A17" s="104">
         <v>45268</v>
       </c>
-      <c r="B17" s="98"/>
+      <c r="B17" s="105"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="97">
+      <c r="A18" s="104">
         <v>45269</v>
       </c>
-      <c r="B18" s="98"/>
+      <c r="B18" s="105"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="97">
+      <c r="A19" s="104">
         <v>45270</v>
       </c>
-      <c r="B19" s="98"/>
+      <c r="B19" s="105"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="97">
+      <c r="A20" s="104">
         <v>45271</v>
       </c>
-      <c r="B20" s="98"/>
+      <c r="B20" s="105"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="97">
+      <c r="A21" s="104">
         <v>45272</v>
       </c>
-      <c r="B21" s="98"/>
+      <c r="B21" s="105"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="97">
+      <c r="A22" s="104">
         <v>45273</v>
       </c>
-      <c r="B22" s="98"/>
+      <c r="B22" s="105"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="97">
+      <c r="A23" s="104">
         <v>45274</v>
       </c>
-      <c r="B23" s="98"/>
+      <c r="B23" s="105"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="97">
+      <c r="A24" s="104">
         <v>45275</v>
       </c>
-      <c r="B24" s="98"/>
+      <c r="B24" s="105"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="97">
+      <c r="A25" s="104">
         <v>45276</v>
       </c>
-      <c r="B25" s="98"/>
+      <c r="B25" s="105"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="97">
+      <c r="A26" s="104">
         <v>45277</v>
       </c>
-      <c r="B26" s="98"/>
+      <c r="B26" s="105"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="97">
+      <c r="A27" s="104">
         <v>45278</v>
       </c>
-      <c r="B27" s="98"/>
+      <c r="B27" s="105"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="97">
+      <c r="A28" s="104">
         <v>45279</v>
       </c>
-      <c r="B28" s="98"/>
+      <c r="B28" s="105"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="97">
+      <c r="A29" s="104">
         <v>45280</v>
       </c>
-      <c r="B29" s="98"/>
+      <c r="B29" s="105"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="97">
+      <c r="A30" s="104">
         <v>45281</v>
       </c>
-      <c r="B30" s="98"/>
+      <c r="B30" s="105"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="97">
+      <c r="A31" s="104">
         <v>45282</v>
       </c>
-      <c r="B31" s="98"/>
+      <c r="B31" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
@@ -3189,18 +3279,12 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/CORRIDAS TK MULTIMARCAS.xlsx
+++ b/CORRIDAS TK MULTIMARCAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\CORRIDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AE1D03-70DD-45E2-8404-40A5F21BCB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB1EEBA-4CF0-4351-B725-EE05CAFE3ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="57">
   <si>
     <t>VALOR</t>
   </si>
@@ -273,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="69">
+  <borders count="70">
     <border>
       <left/>
       <right/>
@@ -1149,11 +1149,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1395,21 +1408,36 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1422,18 +1450,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1462,6 +1478,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1470,16 +1495,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1825,14 +1847,14 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="86">
+      <c r="A2" s="91">
         <v>45192</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="81">
+      <c r="B2" s="92"/>
+      <c r="C2" s="89">
         <v>45205</v>
       </c>
-      <c r="D2" s="82"/>
+      <c r="D2" s="90"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
@@ -1849,10 +1871,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="88">
+      <c r="A4" s="93">
         <v>45194</v>
       </c>
-      <c r="B4" s="89"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="10">
         <v>15</v>
       </c>
@@ -1875,10 +1897,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="88">
+      <c r="A6" s="93">
         <v>45195</v>
       </c>
-      <c r="B6" s="89"/>
+      <c r="B6" s="94"/>
       <c r="C6" s="10">
         <v>15</v>
       </c>
@@ -1901,10 +1923,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="88">
+      <c r="A8" s="93">
         <v>45196</v>
       </c>
-      <c r="B8" s="89"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="10">
         <v>5</v>
       </c>
@@ -1933,10 +1955,10 @@
       <c r="B10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="83">
+      <c r="C10" s="88">
         <v>45208</v>
       </c>
-      <c r="D10" s="84"/>
+      <c r="D10" s="87"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -1981,14 +2003,14 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="88">
+      <c r="A14" s="93">
         <v>45197</v>
       </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="83">
+      <c r="B14" s="94"/>
+      <c r="C14" s="88">
         <v>45209</v>
       </c>
-      <c r="D14" s="84"/>
+      <c r="D14" s="87"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -2005,10 +2027,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="85">
+      <c r="A16" s="86">
         <v>45198</v>
       </c>
-      <c r="B16" s="84"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="10">
         <v>15</v>
       </c>
@@ -2037,10 +2059,10 @@
       <c r="B18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="83">
+      <c r="C18" s="88">
         <v>45212</v>
       </c>
-      <c r="D18" s="84"/>
+      <c r="D18" s="87"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -2071,10 +2093,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="85">
+      <c r="A21" s="86">
         <v>45201</v>
       </c>
-      <c r="B21" s="84"/>
+      <c r="B21" s="87"/>
       <c r="C21" s="10">
         <v>15</v>
       </c>
@@ -2103,10 +2125,10 @@
       <c r="B23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="83">
+      <c r="C23" s="88">
         <v>45213</v>
       </c>
-      <c r="D23" s="84"/>
+      <c r="D23" s="87"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
@@ -2129,16 +2151,16 @@
       <c r="B25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="83">
+      <c r="C25" s="88">
         <v>45215</v>
       </c>
-      <c r="D25" s="84"/>
+      <c r="D25" s="87"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="85">
+      <c r="A26" s="86">
         <v>45202</v>
       </c>
-      <c r="B26" s="84"/>
+      <c r="B26" s="87"/>
       <c r="C26" s="10">
         <v>12</v>
       </c>
@@ -2167,16 +2189,16 @@
       <c r="B28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="83">
+      <c r="C28" s="88">
         <v>45216</v>
       </c>
-      <c r="D28" s="84"/>
+      <c r="D28" s="87"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="85">
+      <c r="A29" s="86">
         <v>45203</v>
       </c>
-      <c r="B29" s="84"/>
+      <c r="B29" s="87"/>
       <c r="C29" s="10">
         <v>15</v>
       </c>
@@ -2191,10 +2213,10 @@
       <c r="B30" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="83">
+      <c r="C30" s="88">
         <v>45218</v>
       </c>
-      <c r="D30" s="84"/>
+      <c r="D30" s="87"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
@@ -2213,10 +2235,10 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
-      <c r="C32" s="83">
+      <c r="C32" s="88">
         <v>45219</v>
       </c>
-      <c r="D32" s="84"/>
+      <c r="D32" s="87"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
@@ -2229,25 +2251,18 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="90" t="s">
+      <c r="A34" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="91"/>
-      <c r="C34" s="92">
+      <c r="B34" s="83"/>
+      <c r="C34" s="84">
         <f>SUM(A3,A5,A7,A9:A13,A15,A17:A20,A22:A25,A27:A28,A30:A31,C3:C9,C11:C13,C15:C17,C19:C22,C24,C26:C27,C29,C31,C33)</f>
         <v>477</v>
       </c>
-      <c r="D34" s="93"/>
+      <c r="D34" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A29:B29"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="A21:B21"/>
@@ -2261,6 +2276,13 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="115" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2269,10 +2291,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39585085-A1B2-4FF0-B72D-E02CCA4A4823}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2299,7 +2321,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="96">
+      <c r="A2" s="97">
         <v>4</v>
       </c>
       <c r="B2" s="33">
@@ -2313,7 +2335,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="97"/>
+      <c r="A3" s="98"/>
       <c r="B3" s="28">
         <v>45227</v>
       </c>
@@ -2325,7 +2347,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="97"/>
+      <c r="A4" s="98"/>
       <c r="B4" s="29">
         <v>45227</v>
       </c>
@@ -2337,7 +2359,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="98"/>
+      <c r="A5" s="99"/>
       <c r="B5" s="31">
         <v>45227</v>
       </c>
@@ -2391,7 +2413,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="96">
+      <c r="A9" s="97">
         <v>4</v>
       </c>
       <c r="B9" s="33">
@@ -2405,7 +2427,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="97"/>
+      <c r="A10" s="98"/>
       <c r="B10" s="28">
         <v>45234</v>
       </c>
@@ -2417,7 +2439,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="97"/>
+      <c r="A11" s="98"/>
       <c r="B11" s="28">
         <v>45234</v>
       </c>
@@ -2429,7 +2451,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="98"/>
+      <c r="A12" s="99"/>
       <c r="B12" s="31">
         <v>45234</v>
       </c>
@@ -2441,7 +2463,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="96">
+      <c r="A13" s="97">
         <v>8</v>
       </c>
       <c r="B13" s="35">
@@ -2455,7 +2477,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="97"/>
+      <c r="A14" s="98"/>
       <c r="B14" s="28">
         <v>45236</v>
       </c>
@@ -2467,7 +2489,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="97"/>
+      <c r="A15" s="98"/>
       <c r="B15" s="28">
         <v>45236</v>
       </c>
@@ -2480,7 +2502,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="97"/>
+      <c r="A16" s="98"/>
       <c r="B16" s="28">
         <v>45236</v>
       </c>
@@ -2492,7 +2514,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="97"/>
+      <c r="A17" s="98"/>
       <c r="B17" s="29">
         <v>45236</v>
       </c>
@@ -2504,7 +2526,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="97"/>
+      <c r="A18" s="98"/>
       <c r="B18" s="28">
         <v>45236</v>
       </c>
@@ -2516,7 +2538,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="97"/>
+      <c r="A19" s="98"/>
       <c r="B19" s="28">
         <v>45236</v>
       </c>
@@ -2528,7 +2550,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="98"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="38">
         <v>45236</v>
       </c>
@@ -2540,7 +2562,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="96">
+      <c r="A21" s="97">
         <v>7</v>
       </c>
       <c r="B21" s="33">
@@ -2554,7 +2576,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="97"/>
+      <c r="A22" s="98"/>
       <c r="B22" s="35">
         <v>45238</v>
       </c>
@@ -2566,7 +2588,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="97"/>
+      <c r="A23" s="98"/>
       <c r="B23" s="28">
         <v>45238</v>
       </c>
@@ -2578,7 +2600,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="97"/>
+      <c r="A24" s="98"/>
       <c r="B24" s="36">
         <v>45238</v>
       </c>
@@ -2590,7 +2612,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="97"/>
+      <c r="A25" s="98"/>
       <c r="B25" s="28">
         <v>45238</v>
       </c>
@@ -2602,7 +2624,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="97"/>
+      <c r="A26" s="98"/>
       <c r="B26" s="37">
         <v>45238</v>
       </c>
@@ -2614,7 +2636,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="98"/>
+      <c r="A27" s="99"/>
       <c r="B27" s="31">
         <v>45238</v>
       </c>
@@ -2626,7 +2648,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="96">
+      <c r="A28" s="97">
         <v>2</v>
       </c>
       <c r="B28" s="33">
@@ -2640,7 +2662,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="98"/>
+      <c r="A29" s="99"/>
       <c r="B29" s="49">
         <v>45239</v>
       </c>
@@ -2652,7 +2674,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="99">
+      <c r="A30" s="100">
         <v>6</v>
       </c>
       <c r="B30" s="33">
@@ -2666,7 +2688,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="100"/>
+      <c r="A31" s="101"/>
       <c r="B31" s="28">
         <v>45240</v>
       </c>
@@ -2678,7 +2700,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="100"/>
+      <c r="A32" s="101"/>
       <c r="B32" s="28">
         <v>45240</v>
       </c>
@@ -2690,7 +2712,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="100"/>
+      <c r="A33" s="101"/>
       <c r="B33" s="28">
         <v>45240</v>
       </c>
@@ -2702,7 +2724,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="100"/>
+      <c r="A34" s="101"/>
       <c r="B34" s="28">
         <v>45240</v>
       </c>
@@ -2714,7 +2736,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="101"/>
+      <c r="A35" s="102"/>
       <c r="B35" s="31">
         <v>45240</v>
       </c>
@@ -2740,7 +2762,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="96">
+      <c r="A37" s="97">
         <v>2</v>
       </c>
       <c r="B37" s="33">
@@ -2754,7 +2776,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="98"/>
+      <c r="A38" s="99"/>
       <c r="B38" s="67">
         <v>45245</v>
       </c>
@@ -2766,7 +2788,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="96">
+      <c r="A39" s="97">
         <v>2</v>
       </c>
       <c r="B39" s="74">
@@ -2780,7 +2802,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="98"/>
+      <c r="A40" s="99"/>
       <c r="B40" s="71">
         <v>45246</v>
       </c>
@@ -2792,7 +2814,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="99">
+      <c r="A41" s="100">
         <v>4</v>
       </c>
       <c r="B41" s="74">
@@ -2806,7 +2828,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="100"/>
+      <c r="A42" s="101"/>
       <c r="B42" s="73">
         <v>45247</v>
       </c>
@@ -2818,7 +2840,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="100"/>
+      <c r="A43" s="101"/>
       <c r="B43" s="36">
         <v>45247</v>
       </c>
@@ -2830,7 +2852,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="101"/>
+      <c r="A44" s="102"/>
       <c r="B44" s="49">
         <v>45247</v>
       </c>
@@ -2842,7 +2864,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="99">
+      <c r="A45" s="100">
         <v>2</v>
       </c>
       <c r="B45" s="33">
@@ -2856,7 +2878,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="101"/>
+      <c r="A46" s="102"/>
       <c r="B46" s="31">
         <v>45251</v>
       </c>
@@ -2882,7 +2904,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="102">
+      <c r="A48" s="103">
         <v>6</v>
       </c>
       <c r="B48" s="78">
@@ -2896,7 +2918,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="103"/>
+      <c r="A49" s="104"/>
       <c r="B49" s="49">
         <v>45253</v>
       </c>
@@ -2908,7 +2930,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="103"/>
+      <c r="A50" s="104"/>
       <c r="B50" s="28">
         <v>45253</v>
       </c>
@@ -2920,7 +2942,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="103"/>
+      <c r="A51" s="104"/>
       <c r="B51" s="28">
         <v>45253</v>
       </c>
@@ -2932,7 +2954,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="103"/>
+      <c r="A52" s="104"/>
       <c r="B52" s="28">
         <v>45253</v>
       </c>
@@ -2944,11 +2966,11 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="103"/>
+      <c r="A53" s="104"/>
       <c r="B53" s="37">
         <v>45253</v>
       </c>
-      <c r="C53" s="106" t="s">
+      <c r="C53" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D53" s="60">
@@ -2956,7 +2978,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="107">
+      <c r="A54" s="105">
         <v>5</v>
       </c>
       <c r="B54" s="33">
@@ -2970,7 +2992,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="108"/>
+      <c r="A55" s="106"/>
       <c r="B55" s="28">
         <v>45254</v>
       </c>
@@ -2982,7 +3004,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="108"/>
+      <c r="A56" s="106"/>
       <c r="B56" s="28">
         <v>45254</v>
       </c>
@@ -2994,7 +3016,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="108"/>
+      <c r="A57" s="106"/>
       <c r="B57" s="28">
         <v>45254</v>
       </c>
@@ -3006,7 +3028,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="109"/>
+      <c r="A58" s="107"/>
       <c r="B58" s="31">
         <v>45254</v>
       </c>
@@ -3018,22 +3040,62 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="47">
-        <f>SUM(A2:A58)</f>
-        <v>57</v>
-      </c>
-      <c r="B59" s="94" t="s">
+      <c r="A59" s="81">
+        <v>1</v>
+      </c>
+      <c r="B59" s="49">
+        <v>45255</v>
+      </c>
+      <c r="C59" s="112" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="110">
+        <v>2</v>
+      </c>
+      <c r="B60" s="33">
+        <v>45257</v>
+      </c>
+      <c r="C60" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="53">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="111"/>
+      <c r="B61" s="31">
+        <v>45257</v>
+      </c>
+      <c r="C61" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="47">
+        <f>SUM(A2:A61)</f>
+        <v>60</v>
+      </c>
+      <c r="B62" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="95"/>
-      <c r="D59" s="62">
-        <f>SUM(D2:D58)</f>
-        <v>620</v>
+      <c r="C62" s="96"/>
+      <c r="D62" s="62">
+        <f>SUM(D2:D61)</f>
+        <v>650</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B59:C59"/>
+  <mergeCells count="14">
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A20"/>
@@ -3046,6 +3108,7 @@
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="A48:A53"/>
     <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A60:A61"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3074,187 +3137,205 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="104">
+      <c r="A2" s="108">
         <v>45253</v>
       </c>
-      <c r="B2" s="105"/>
+      <c r="B2" s="109"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="104">
+      <c r="A3" s="108">
         <v>45254</v>
       </c>
-      <c r="B3" s="105"/>
+      <c r="B3" s="109"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="104">
+      <c r="A4" s="108">
         <v>45255</v>
       </c>
-      <c r="B4" s="105"/>
+      <c r="B4" s="109"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="104">
+      <c r="A5" s="108">
         <v>45256</v>
       </c>
-      <c r="B5" s="105"/>
+      <c r="B5" s="109"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="104">
+      <c r="A6" s="108">
         <v>45257</v>
       </c>
-      <c r="B6" s="105"/>
+      <c r="B6" s="109"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="104">
+      <c r="A7" s="108">
         <v>45258</v>
       </c>
-      <c r="B7" s="105"/>
+      <c r="B7" s="109"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="104">
+      <c r="A8" s="108">
         <v>45259</v>
       </c>
-      <c r="B8" s="105"/>
+      <c r="B8" s="109"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="104">
+      <c r="A9" s="108">
         <v>45260</v>
       </c>
-      <c r="B9" s="105"/>
+      <c r="B9" s="109"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="104">
+      <c r="A10" s="108">
         <v>45261</v>
       </c>
-      <c r="B10" s="105"/>
+      <c r="B10" s="109"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="104">
+      <c r="A11" s="108">
         <v>45262</v>
       </c>
-      <c r="B11" s="105"/>
+      <c r="B11" s="109"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="104">
+      <c r="A12" s="108">
         <v>45263</v>
       </c>
-      <c r="B12" s="105"/>
+      <c r="B12" s="109"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="104">
+      <c r="A13" s="108">
         <v>45264</v>
       </c>
-      <c r="B13" s="105"/>
+      <c r="B13" s="109"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="104">
+      <c r="A14" s="108">
         <v>45265</v>
       </c>
-      <c r="B14" s="105"/>
+      <c r="B14" s="109"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="104">
+      <c r="A15" s="108">
         <v>45266</v>
       </c>
-      <c r="B15" s="105"/>
+      <c r="B15" s="109"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="104">
+      <c r="A16" s="108">
         <v>45267</v>
       </c>
-      <c r="B16" s="105"/>
+      <c r="B16" s="109"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="104">
+      <c r="A17" s="108">
         <v>45268</v>
       </c>
-      <c r="B17" s="105"/>
+      <c r="B17" s="109"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="104">
+      <c r="A18" s="108">
         <v>45269</v>
       </c>
-      <c r="B18" s="105"/>
+      <c r="B18" s="109"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="104">
+      <c r="A19" s="108">
         <v>45270</v>
       </c>
-      <c r="B19" s="105"/>
+      <c r="B19" s="109"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="104">
+      <c r="A20" s="108">
         <v>45271</v>
       </c>
-      <c r="B20" s="105"/>
+      <c r="B20" s="109"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="104">
+      <c r="A21" s="108">
         <v>45272</v>
       </c>
-      <c r="B21" s="105"/>
+      <c r="B21" s="109"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="104">
+      <c r="A22" s="108">
         <v>45273</v>
       </c>
-      <c r="B22" s="105"/>
+      <c r="B22" s="109"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="104">
+      <c r="A23" s="108">
         <v>45274</v>
       </c>
-      <c r="B23" s="105"/>
+      <c r="B23" s="109"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="104">
+      <c r="A24" s="108">
         <v>45275</v>
       </c>
-      <c r="B24" s="105"/>
+      <c r="B24" s="109"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="104">
+      <c r="A25" s="108">
         <v>45276</v>
       </c>
-      <c r="B25" s="105"/>
+      <c r="B25" s="109"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="104">
+      <c r="A26" s="108">
         <v>45277</v>
       </c>
-      <c r="B26" s="105"/>
+      <c r="B26" s="109"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="104">
+      <c r="A27" s="108">
         <v>45278</v>
       </c>
-      <c r="B27" s="105"/>
+      <c r="B27" s="109"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="104">
+      <c r="A28" s="108">
         <v>45279</v>
       </c>
-      <c r="B28" s="105"/>
+      <c r="B28" s="109"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="104">
+      <c r="A29" s="108">
         <v>45280</v>
       </c>
-      <c r="B29" s="105"/>
+      <c r="B29" s="109"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="104">
+      <c r="A30" s="108">
         <v>45281</v>
       </c>
-      <c r="B30" s="105"/>
+      <c r="B30" s="109"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="104">
+      <c r="A31" s="108">
         <v>45282</v>
       </c>
-      <c r="B31" s="105"/>
+      <c r="B31" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
@@ -3267,24 +3348,6 @@
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/CORRIDAS TK MULTIMARCAS.xlsx
+++ b/CORRIDAS TK MULTIMARCAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\CORRIDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB1EEBA-4CF0-4351-B725-EE05CAFE3ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39712FFF-2839-4F05-84E8-DCD4C7836FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="57">
   <si>
     <t>VALOR</t>
   </si>
@@ -273,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="70">
+  <borders count="69">
     <border>
       <left/>
       <right/>
@@ -1128,15 +1128,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="dotted">
         <color indexed="64"/>
       </left>
@@ -1166,7 +1157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1315,9 +1306,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1405,10 +1393,43 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1423,33 +1444,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1463,21 +1457,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1494,15 +1473,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1847,14 +1817,14 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="91">
+      <c r="A2" s="88">
         <v>45192</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="89">
+      <c r="B2" s="89"/>
+      <c r="C2" s="83">
         <v>45205</v>
       </c>
-      <c r="D2" s="90"/>
+      <c r="D2" s="84"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
@@ -1871,10 +1841,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="93">
+      <c r="A4" s="90">
         <v>45194</v>
       </c>
-      <c r="B4" s="94"/>
+      <c r="B4" s="91"/>
       <c r="C4" s="10">
         <v>15</v>
       </c>
@@ -1897,10 +1867,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="93">
+      <c r="A6" s="90">
         <v>45195</v>
       </c>
-      <c r="B6" s="94"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="10">
         <v>15</v>
       </c>
@@ -1923,10 +1893,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="93">
+      <c r="A8" s="90">
         <v>45196</v>
       </c>
-      <c r="B8" s="94"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="10">
         <v>5</v>
       </c>
@@ -1955,10 +1925,10 @@
       <c r="B10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="88">
+      <c r="C10" s="85">
         <v>45208</v>
       </c>
-      <c r="D10" s="87"/>
+      <c r="D10" s="86"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -2003,14 +1973,14 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="93">
+      <c r="A14" s="90">
         <v>45197</v>
       </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="88">
+      <c r="B14" s="91"/>
+      <c r="C14" s="85">
         <v>45209</v>
       </c>
-      <c r="D14" s="87"/>
+      <c r="D14" s="86"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -2027,10 +1997,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="86">
+      <c r="A16" s="87">
         <v>45198</v>
       </c>
-      <c r="B16" s="87"/>
+      <c r="B16" s="86"/>
       <c r="C16" s="10">
         <v>15</v>
       </c>
@@ -2059,10 +2029,10 @@
       <c r="B18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="88">
+      <c r="C18" s="85">
         <v>45212</v>
       </c>
-      <c r="D18" s="87"/>
+      <c r="D18" s="86"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -2093,10 +2063,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="86">
+      <c r="A21" s="87">
         <v>45201</v>
       </c>
-      <c r="B21" s="87"/>
+      <c r="B21" s="86"/>
       <c r="C21" s="10">
         <v>15</v>
       </c>
@@ -2125,10 +2095,10 @@
       <c r="B23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="88">
+      <c r="C23" s="85">
         <v>45213</v>
       </c>
-      <c r="D23" s="87"/>
+      <c r="D23" s="86"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
@@ -2151,16 +2121,16 @@
       <c r="B25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="88">
+      <c r="C25" s="85">
         <v>45215</v>
       </c>
-      <c r="D25" s="87"/>
+      <c r="D25" s="86"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="86">
+      <c r="A26" s="87">
         <v>45202</v>
       </c>
-      <c r="B26" s="87"/>
+      <c r="B26" s="86"/>
       <c r="C26" s="10">
         <v>12</v>
       </c>
@@ -2189,16 +2159,16 @@
       <c r="B28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="88">
+      <c r="C28" s="85">
         <v>45216</v>
       </c>
-      <c r="D28" s="87"/>
+      <c r="D28" s="86"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="86">
+      <c r="A29" s="87">
         <v>45203</v>
       </c>
-      <c r="B29" s="87"/>
+      <c r="B29" s="86"/>
       <c r="C29" s="10">
         <v>15</v>
       </c>
@@ -2213,10 +2183,10 @@
       <c r="B30" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="88">
+      <c r="C30" s="85">
         <v>45218</v>
       </c>
-      <c r="D30" s="87"/>
+      <c r="D30" s="86"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
@@ -2235,10 +2205,10 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
-      <c r="C32" s="88">
+      <c r="C32" s="85">
         <v>45219</v>
       </c>
-      <c r="D32" s="87"/>
+      <c r="D32" s="86"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
@@ -2251,18 +2221,25 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="82" t="s">
+      <c r="A34" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="83"/>
-      <c r="C34" s="84">
+      <c r="B34" s="93"/>
+      <c r="C34" s="94">
         <f>SUM(A3,A5,A7,A9:A13,A15,A17:A20,A22:A25,A27:A28,A30:A31,C3:C9,C11:C13,C15:C17,C19:C22,C24,C26:C27,C29,C31,C33)</f>
         <v>477</v>
       </c>
-      <c r="D34" s="85"/>
+      <c r="D34" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="A21:B21"/>
@@ -2276,13 +2253,6 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="115" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2291,10 +2261,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39585085-A1B2-4FF0-B72D-E02CCA4A4823}">
-  <dimension ref="A1:F62"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2302,7 +2275,7 @@
     <col min="1" max="1" width="2.7109375" style="46" customWidth="1"/>
     <col min="2" max="2" width="36" style="22" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" style="21" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="63" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="62" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -2316,12 +2289,12 @@
       <c r="C1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="51" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97">
+      <c r="A2" s="98">
         <v>4</v>
       </c>
       <c r="B2" s="33">
@@ -2330,43 +2303,43 @@
       <c r="C2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="53">
+      <c r="D2" s="52">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="98"/>
+      <c r="A3" s="99"/>
       <c r="B3" s="28">
         <v>45227</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="54">
+      <c r="D3" s="53">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="98"/>
+      <c r="A4" s="99"/>
       <c r="B4" s="29">
         <v>45227</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="54">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="99"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="31">
         <v>45227</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="56">
+      <c r="D5" s="55">
         <v>5</v>
       </c>
     </row>
@@ -2380,7 +2353,7 @@
       <c r="C6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="56">
         <v>5</v>
       </c>
     </row>
@@ -2394,7 +2367,7 @@
       <c r="C7" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="56">
         <v>15</v>
       </c>
     </row>
@@ -2408,12 +2381,12 @@
       <c r="C8" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="57">
+      <c r="D8" s="56">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="97">
+      <c r="A9" s="98">
         <v>4</v>
       </c>
       <c r="B9" s="33">
@@ -2422,48 +2395,48 @@
       <c r="C9" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="53">
+      <c r="D9" s="52">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="98"/>
+      <c r="A10" s="99"/>
       <c r="B10" s="28">
         <v>45234</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="53">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="98"/>
+      <c r="A11" s="99"/>
       <c r="B11" s="28">
         <v>45234</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="53">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="99"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="31">
         <v>45234</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="56">
+      <c r="D12" s="55">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="97">
+      <c r="A13" s="98">
         <v>8</v>
       </c>
       <c r="B13" s="35">
@@ -2472,97 +2445,97 @@
       <c r="C13" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="57">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="98"/>
+      <c r="A14" s="99"/>
       <c r="B14" s="28">
         <v>45236</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="54">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="98"/>
+      <c r="A15" s="99"/>
       <c r="B15" s="28">
         <v>45236</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="53">
         <v>10</v>
       </c>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="98"/>
+      <c r="A16" s="99"/>
       <c r="B16" s="28">
         <v>45236</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="54">
+      <c r="D16" s="53">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="98"/>
+      <c r="A17" s="99"/>
       <c r="B17" s="29">
         <v>45236</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="55">
+      <c r="D17" s="54">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="98"/>
+      <c r="A18" s="99"/>
       <c r="B18" s="28">
         <v>45236</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="54">
+      <c r="D18" s="53">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="98"/>
+      <c r="A19" s="99"/>
       <c r="B19" s="28">
         <v>45236</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="54">
+      <c r="D19" s="53">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="99"/>
+      <c r="A20" s="100"/>
       <c r="B20" s="38">
         <v>45236</v>
       </c>
       <c r="C20" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="59">
+      <c r="D20" s="58">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="97">
+      <c r="A21" s="98">
         <v>7</v>
       </c>
       <c r="B21" s="33">
@@ -2571,84 +2544,84 @@
       <c r="C21" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="53">
+      <c r="D21" s="52">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="98"/>
+      <c r="A22" s="99"/>
       <c r="B22" s="35">
         <v>45238</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="60">
+      <c r="D22" s="59">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="98"/>
+      <c r="A23" s="99"/>
       <c r="B23" s="28">
         <v>45238</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="54">
+      <c r="D23" s="53">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="98"/>
+      <c r="A24" s="99"/>
       <c r="B24" s="36">
         <v>45238</v>
       </c>
       <c r="C24" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="54">
+      <c r="D24" s="53">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="98"/>
+      <c r="A25" s="99"/>
       <c r="B25" s="28">
         <v>45238</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="54">
+      <c r="D25" s="53">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="98"/>
+      <c r="A26" s="99"/>
       <c r="B26" s="37">
         <v>45238</v>
       </c>
       <c r="C26" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="54">
+      <c r="D26" s="53">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="99"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="31">
         <v>45238</v>
       </c>
       <c r="C27" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="59">
+      <c r="D27" s="58">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="97">
+      <c r="A28" s="98">
         <v>2</v>
       </c>
       <c r="B28" s="33">
@@ -2657,24 +2630,24 @@
       <c r="C28" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="61">
+      <c r="D28" s="60">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="99"/>
+      <c r="A29" s="100"/>
       <c r="B29" s="49">
         <v>45239</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="60">
+      <c r="D29" s="59">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="100">
+      <c r="A30" s="98">
         <v>6</v>
       </c>
       <c r="B30" s="33">
@@ -2683,86 +2656,86 @@
       <c r="C30" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="53">
+      <c r="D30" s="52">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="101"/>
+      <c r="A31" s="99"/>
       <c r="B31" s="28">
         <v>45240</v>
       </c>
       <c r="C31" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="54">
+      <c r="D31" s="53">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="101"/>
+      <c r="A32" s="99"/>
       <c r="B32" s="28">
         <v>45240</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="54">
+      <c r="D32" s="53">
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="101"/>
+      <c r="A33" s="99"/>
       <c r="B33" s="28">
         <v>45240</v>
       </c>
       <c r="C33" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="54">
+      <c r="D33" s="53">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="101"/>
+      <c r="A34" s="99"/>
       <c r="B34" s="28">
         <v>45240</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="54">
+      <c r="D34" s="53">
         <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="102"/>
+      <c r="A35" s="100"/>
       <c r="B35" s="31">
         <v>45240</v>
       </c>
       <c r="C35" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="56">
+      <c r="D35" s="55">
         <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="50">
+      <c r="A36" s="81">
         <v>1</v>
       </c>
-      <c r="B36" s="64">
+      <c r="B36" s="63">
         <v>45243</v>
       </c>
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="65">
+      <c r="D36" s="64">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="97">
+      <c r="A37" s="98">
         <v>2</v>
       </c>
       <c r="B37" s="33">
@@ -2771,100 +2744,100 @@
       <c r="C37" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="69">
+      <c r="D37" s="68">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="99"/>
-      <c r="B38" s="67">
+      <c r="A38" s="100"/>
+      <c r="B38" s="66">
         <v>45245</v>
       </c>
-      <c r="C38" s="68" t="s">
+      <c r="C38" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="56">
+      <c r="D38" s="55">
         <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="97">
+      <c r="A39" s="98">
         <v>2</v>
       </c>
-      <c r="B39" s="74">
+      <c r="B39" s="73">
         <v>45246</v>
       </c>
       <c r="C39" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="53">
+      <c r="D39" s="52">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="99"/>
-      <c r="B40" s="71">
+      <c r="A40" s="100"/>
+      <c r="B40" s="70">
         <v>45246</v>
       </c>
       <c r="C40" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="70">
+      <c r="D40" s="69">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="100">
+      <c r="A41" s="98">
         <v>4</v>
       </c>
-      <c r="B41" s="74">
+      <c r="B41" s="73">
         <v>45247</v>
       </c>
-      <c r="C41" s="75" t="s">
+      <c r="C41" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="53">
+      <c r="D41" s="52">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="101"/>
-      <c r="B42" s="73">
+      <c r="A42" s="99"/>
+      <c r="B42" s="72">
         <v>45247</v>
       </c>
       <c r="C42" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="72">
+      <c r="D42" s="71">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="101"/>
+      <c r="A43" s="99"/>
       <c r="B43" s="36">
         <v>45247</v>
       </c>
       <c r="C43" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="54">
+      <c r="D43" s="53">
         <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="102"/>
+      <c r="A44" s="100"/>
       <c r="B44" s="49">
         <v>45247</v>
       </c>
       <c r="C44" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="60">
+      <c r="D44" s="59">
         <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="100">
+      <c r="A45" s="98">
         <v>2</v>
       </c>
       <c r="B45" s="33">
@@ -2873,24 +2846,24 @@
       <c r="C45" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="53">
+      <c r="D45" s="52">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="102"/>
+      <c r="A46" s="100"/>
       <c r="B46" s="31">
         <v>45251</v>
       </c>
       <c r="C46" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D46" s="56">
+      <c r="D46" s="55">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="50">
+      <c r="A47" s="81">
         <v>1</v>
       </c>
       <c r="B47" s="27">
@@ -2899,86 +2872,86 @@
       <c r="C47" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="57">
+      <c r="D47" s="56">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="103">
+      <c r="A48" s="101">
         <v>6</v>
       </c>
-      <c r="B48" s="78">
+      <c r="B48" s="77">
         <v>45253</v>
       </c>
-      <c r="C48" s="80" t="s">
+      <c r="C48" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="53">
+      <c r="D48" s="52">
         <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="104"/>
+      <c r="A49" s="102"/>
       <c r="B49" s="49">
         <v>45253</v>
       </c>
-      <c r="C49" s="79" t="s">
+      <c r="C49" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="58">
+      <c r="D49" s="57">
         <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="104"/>
+      <c r="A50" s="102"/>
       <c r="B50" s="28">
         <v>45253</v>
       </c>
-      <c r="C50" s="76" t="s">
+      <c r="C50" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="77">
+      <c r="D50" s="76">
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="104"/>
+      <c r="A51" s="102"/>
       <c r="B51" s="28">
         <v>45253</v>
       </c>
       <c r="C51" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="72">
+      <c r="D51" s="71">
         <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="104"/>
+      <c r="A52" s="102"/>
       <c r="B52" s="28">
         <v>45253</v>
       </c>
       <c r="C52" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="54">
+      <c r="D52" s="53">
         <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="104"/>
+      <c r="A53" s="103"/>
       <c r="B53" s="37">
         <v>45253</v>
       </c>
       <c r="C53" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="60">
+      <c r="D53" s="59">
         <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="105">
+      <c r="A54" s="101">
         <v>5</v>
       </c>
       <c r="B54" s="33">
@@ -2987,74 +2960,74 @@
       <c r="C54" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="53">
+      <c r="D54" s="52">
         <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="106"/>
+      <c r="A55" s="102"/>
       <c r="B55" s="28">
         <v>45254</v>
       </c>
       <c r="C55" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D55" s="54">
+      <c r="D55" s="53">
         <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="106"/>
+      <c r="A56" s="102"/>
       <c r="B56" s="28">
         <v>45254</v>
       </c>
       <c r="C56" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D56" s="54">
+      <c r="D56" s="53">
         <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="106"/>
+      <c r="A57" s="102"/>
       <c r="B57" s="28">
         <v>45254</v>
       </c>
       <c r="C57" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="54">
+      <c r="D57" s="53">
         <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="107"/>
+      <c r="A58" s="103"/>
       <c r="B58" s="31">
         <v>45254</v>
       </c>
       <c r="C58" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D58" s="56">
+      <c r="D58" s="55">
         <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="81">
+      <c r="A59" s="80">
         <v>1</v>
       </c>
       <c r="B59" s="49">
         <v>45255</v>
       </c>
-      <c r="C59" s="112" t="s">
+      <c r="C59" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="D59" s="57">
+      <c r="D59" s="56">
         <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="110">
+      <c r="A60" s="101">
         <v>2</v>
       </c>
       <c r="B60" s="33">
@@ -3063,39 +3036,67 @@
       <c r="C60" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="53">
+      <c r="D60" s="52">
         <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="111"/>
+      <c r="A61" s="103"/>
       <c r="B61" s="31">
         <v>45257</v>
       </c>
       <c r="C61" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="56">
+      <c r="D61" s="55">
         <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="47">
-        <f>SUM(A2:A61)</f>
-        <v>60</v>
-      </c>
-      <c r="B62" s="95" t="s">
+      <c r="A62" s="80">
+        <v>1</v>
+      </c>
+      <c r="B62" s="66">
+        <v>45259</v>
+      </c>
+      <c r="C62" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" s="56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="80">
+        <v>1</v>
+      </c>
+      <c r="B63" s="27">
+        <v>45260</v>
+      </c>
+      <c r="C63" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="69">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="47">
+        <f>SUM(A2:A63)</f>
+        <v>62</v>
+      </c>
+      <c r="B64" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="96"/>
-      <c r="D62" s="62">
-        <f>SUM(D2:D61)</f>
-        <v>650</v>
+      <c r="C64" s="97"/>
+      <c r="D64" s="61">
+        <f>SUM(D2:D63)</f>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B64:C64"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A20"/>
@@ -3110,8 +3111,8 @@
     <mergeCell ref="A54:A58"/>
     <mergeCell ref="A60:A61"/>
   </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="1.4173228346456694" right="0.23622047244094491" top="0.19685039370078741" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="81" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3137,193 +3138,199 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="108">
+      <c r="A2" s="104">
         <v>45253</v>
       </c>
-      <c r="B2" s="109"/>
+      <c r="B2" s="105"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="108">
+      <c r="A3" s="104">
         <v>45254</v>
       </c>
-      <c r="B3" s="109"/>
+      <c r="B3" s="105"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="108">
+      <c r="A4" s="104">
         <v>45255</v>
       </c>
-      <c r="B4" s="109"/>
+      <c r="B4" s="105"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="108">
+      <c r="A5" s="104">
         <v>45256</v>
       </c>
-      <c r="B5" s="109"/>
+      <c r="B5" s="105"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="108">
+      <c r="A6" s="104">
         <v>45257</v>
       </c>
-      <c r="B6" s="109"/>
+      <c r="B6" s="105"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="108">
+      <c r="A7" s="104">
         <v>45258</v>
       </c>
-      <c r="B7" s="109"/>
+      <c r="B7" s="105"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="108">
+      <c r="A8" s="104">
         <v>45259</v>
       </c>
-      <c r="B8" s="109"/>
+      <c r="B8" s="105"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="108">
+      <c r="A9" s="104">
         <v>45260</v>
       </c>
-      <c r="B9" s="109"/>
+      <c r="B9" s="105"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="108">
+      <c r="A10" s="104">
         <v>45261</v>
       </c>
-      <c r="B10" s="109"/>
+      <c r="B10" s="105"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="108">
+      <c r="A11" s="104">
         <v>45262</v>
       </c>
-      <c r="B11" s="109"/>
+      <c r="B11" s="105"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="108">
+      <c r="A12" s="104">
         <v>45263</v>
       </c>
-      <c r="B12" s="109"/>
+      <c r="B12" s="105"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="108">
+      <c r="A13" s="104">
         <v>45264</v>
       </c>
-      <c r="B13" s="109"/>
+      <c r="B13" s="105"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="108">
+      <c r="A14" s="104">
         <v>45265</v>
       </c>
-      <c r="B14" s="109"/>
+      <c r="B14" s="105"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="108">
+      <c r="A15" s="104">
         <v>45266</v>
       </c>
-      <c r="B15" s="109"/>
+      <c r="B15" s="105"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="108">
+      <c r="A16" s="104">
         <v>45267</v>
       </c>
-      <c r="B16" s="109"/>
+      <c r="B16" s="105"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="108">
+      <c r="A17" s="104">
         <v>45268</v>
       </c>
-      <c r="B17" s="109"/>
+      <c r="B17" s="105"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="108">
+      <c r="A18" s="104">
         <v>45269</v>
       </c>
-      <c r="B18" s="109"/>
+      <c r="B18" s="105"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="108">
+      <c r="A19" s="104">
         <v>45270</v>
       </c>
-      <c r="B19" s="109"/>
+      <c r="B19" s="105"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="108">
+      <c r="A20" s="104">
         <v>45271</v>
       </c>
-      <c r="B20" s="109"/>
+      <c r="B20" s="105"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="108">
+      <c r="A21" s="104">
         <v>45272</v>
       </c>
-      <c r="B21" s="109"/>
+      <c r="B21" s="105"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="108">
+      <c r="A22" s="104">
         <v>45273</v>
       </c>
-      <c r="B22" s="109"/>
+      <c r="B22" s="105"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="108">
+      <c r="A23" s="104">
         <v>45274</v>
       </c>
-      <c r="B23" s="109"/>
+      <c r="B23" s="105"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="108">
+      <c r="A24" s="104">
         <v>45275</v>
       </c>
-      <c r="B24" s="109"/>
+      <c r="B24" s="105"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="108">
+      <c r="A25" s="104">
         <v>45276</v>
       </c>
-      <c r="B25" s="109"/>
+      <c r="B25" s="105"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="108">
+      <c r="A26" s="104">
         <v>45277</v>
       </c>
-      <c r="B26" s="109"/>
+      <c r="B26" s="105"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="108">
+      <c r="A27" s="104">
         <v>45278</v>
       </c>
-      <c r="B27" s="109"/>
+      <c r="B27" s="105"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="108">
+      <c r="A28" s="104">
         <v>45279</v>
       </c>
-      <c r="B28" s="109"/>
+      <c r="B28" s="105"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="108">
+      <c r="A29" s="104">
         <v>45280</v>
       </c>
-      <c r="B29" s="109"/>
+      <c r="B29" s="105"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="108">
+      <c r="A30" s="104">
         <v>45281</v>
       </c>
-      <c r="B30" s="109"/>
+      <c r="B30" s="105"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="108">
+      <c r="A31" s="104">
         <v>45282</v>
       </c>
-      <c r="B31" s="109"/>
+      <c r="B31" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
@@ -3336,18 +3343,12 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/CORRIDAS TK MULTIMARCAS.xlsx
+++ b/CORRIDAS TK MULTIMARCAS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\CORRIDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39712FFF-2839-4F05-84E8-DCD4C7836FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BC072D-6AD7-4DB6-AC50-F98AB24883C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{BA201D9A-D5BA-455E-A537-71F0991FBCDD}"/>
   </bookViews>
   <sheets>
     <sheet name="MES 01" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="68">
   <si>
     <t>VALOR</t>
   </si>
@@ -198,6 +198,39 @@
   </si>
   <si>
     <t>MARTINS JORGE</t>
+  </si>
+  <si>
+    <t>DESPACHE</t>
+  </si>
+  <si>
+    <t>TEREZINHA</t>
+  </si>
+  <si>
+    <t>CAMPELO</t>
+  </si>
+  <si>
+    <t>NEBLINA</t>
+  </si>
+  <si>
+    <t>JARDIM PAULISTA</t>
+  </si>
+  <si>
+    <t>TOCANTINS</t>
+  </si>
+  <si>
+    <t>EXPLANADA</t>
+  </si>
+  <si>
+    <t>KOTCHE</t>
+  </si>
+  <si>
+    <t>MARACANA</t>
+  </si>
+  <si>
+    <t>LAGO AZUL 04</t>
+  </si>
+  <si>
+    <t>VILA GOIAS</t>
   </si>
 </sst>
 </file>
@@ -273,7 +306,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="69">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -282,21 +315,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1153,70 +1171,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1225,91 +1270,94 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="6" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1318,136 +1366,139 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1456,7 +1507,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1465,14 +1516,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1796,450 +1856,443 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="3" customWidth="1"/>
     <col min="2" max="4" width="20.7109375" style="1" customWidth="1"/>
     <col min="5" max="7" width="9.140625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="88">
+      <c r="A2" s="91">
         <v>45192</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="83">
+      <c r="B2" s="92"/>
+      <c r="C2" s="89">
         <v>45205</v>
       </c>
-      <c r="D2" s="84"/>
+      <c r="D2" s="90"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>10</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="10">
+        <v>10</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10">
-        <v>10</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="8">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="90">
+      <c r="A4" s="93">
         <v>45194</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="10">
-        <v>15</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="94"/>
+      <c r="C4" s="8">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>10</v>
-      </c>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="5">
+        <v>10</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="10">
-        <v>5</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="8">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="90">
+      <c r="A6" s="93">
         <v>45195</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="10">
-        <v>15</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="B6" s="94"/>
+      <c r="C6" s="8">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>15</v>
-      </c>
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>15</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="10">
-        <v>10</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="8">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="90">
+      <c r="A8" s="93">
         <v>45196</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="10">
-        <v>5</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="B8" s="94"/>
+      <c r="C8" s="8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>15</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="10">
-        <v>5</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="A9" s="5">
+        <v>15</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>5</v>
-      </c>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="85">
+      <c r="C10" s="88">
         <v>45208</v>
       </c>
-      <c r="D10" s="86"/>
+      <c r="D10" s="87"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="10">
-        <v>15</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="8">
+        <v>15</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>5</v>
-      </c>
-      <c r="B12" s="14" t="s">
+      <c r="A12" s="5">
+        <v>5</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="10">
-        <v>5</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="8">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>15</v>
-      </c>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="5">
+        <v>15</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="10">
-        <v>15</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="8">
+        <v>15</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="90">
+      <c r="A14" s="93">
         <v>45197</v>
       </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="85">
+      <c r="B14" s="94"/>
+      <c r="C14" s="88">
         <v>45209</v>
       </c>
-      <c r="D14" s="86"/>
+      <c r="D14" s="87"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>10</v>
-      </c>
-      <c r="B15" s="14" t="s">
+      <c r="A15" s="5">
+        <v>10</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="10">
-        <v>10</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="8">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="87">
+      <c r="A16" s="86">
         <v>45198</v>
       </c>
-      <c r="B16" s="86"/>
-      <c r="C16" s="10">
-        <v>15</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="B16" s="87"/>
+      <c r="C16" s="8">
+        <v>15</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>10</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="10">
-        <v>15</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="A17" s="10">
+        <v>10</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="8">
+        <v>15</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
-        <v>15</v>
-      </c>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="10">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="85">
+      <c r="C18" s="88">
         <v>45212</v>
       </c>
-      <c r="D18" s="86"/>
+      <c r="D18" s="87"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
-        <v>5</v>
-      </c>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="10">
+        <v>5</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="10">
-        <v>10</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="C19" s="8">
+        <v>10</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
-        <v>15</v>
-      </c>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="10">
+        <v>15</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="10">
-        <v>10</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="C20" s="8">
+        <v>10</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="87">
+      <c r="A21" s="86">
         <v>45201</v>
       </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="10">
-        <v>15</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="B21" s="87"/>
+      <c r="C21" s="8">
+        <v>15</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
-        <v>15</v>
-      </c>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="10">
+        <v>15</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="10">
-        <v>5</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="C22" s="8">
+        <v>5</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>15</v>
-      </c>
-      <c r="B23" s="8" t="s">
+      <c r="A23" s="5">
+        <v>15</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="85">
+      <c r="C23" s="88">
         <v>45213</v>
       </c>
-      <c r="D23" s="86"/>
+      <c r="D23" s="87"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>5</v>
-      </c>
-      <c r="B24" s="8" t="s">
+      <c r="A24" s="5">
+        <v>5</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="10">
-        <v>10</v>
-      </c>
-      <c r="D24" s="8" t="s">
+      <c r="C24" s="8">
+        <v>10</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <v>10</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="85">
+      <c r="A25" s="5">
+        <v>10</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="88">
         <v>45215</v>
       </c>
-      <c r="D25" s="86"/>
+      <c r="D25" s="87"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="87">
+      <c r="A26" s="86">
         <v>45202</v>
       </c>
-      <c r="B26" s="86"/>
-      <c r="C26" s="10">
+      <c r="B26" s="87"/>
+      <c r="C26" s="8">
         <v>12</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
-        <v>15</v>
-      </c>
-      <c r="B27" s="8" t="s">
+      <c r="A27" s="5">
+        <v>15</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="10">
-        <v>10</v>
-      </c>
-      <c r="D27" s="8" t="s">
+      <c r="C27" s="8">
+        <v>10</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
-        <v>10</v>
-      </c>
-      <c r="B28" s="8" t="s">
+      <c r="A28" s="5">
+        <v>10</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="85">
+      <c r="C28" s="88">
         <v>45216</v>
       </c>
-      <c r="D28" s="86"/>
+      <c r="D28" s="87"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="87">
+      <c r="A29" s="86">
         <v>45203</v>
       </c>
-      <c r="B29" s="86"/>
-      <c r="C29" s="10">
-        <v>15</v>
-      </c>
-      <c r="D29" s="8" t="s">
+      <c r="B29" s="87"/>
+      <c r="C29" s="8">
+        <v>15</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <v>5</v>
-      </c>
-      <c r="B30" s="8" t="s">
+      <c r="A30" s="5">
+        <v>5</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="85">
+      <c r="C30" s="88">
         <v>45218</v>
       </c>
-      <c r="D30" s="86"/>
+      <c r="D30" s="87"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <v>5</v>
-      </c>
-      <c r="B31" s="8" t="s">
+      <c r="A31" s="5">
+        <v>5</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="10">
-        <v>15</v>
-      </c>
-      <c r="D31" s="8" t="s">
+      <c r="C31" s="8">
+        <v>15</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="85">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="88">
         <v>45219</v>
       </c>
-      <c r="D32" s="86"/>
+      <c r="D32" s="87"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="11">
-        <v>15</v>
-      </c>
-      <c r="D33" s="9" t="s">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="9">
+        <v>15</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="92" t="s">
+      <c r="A34" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="93"/>
-      <c r="C34" s="94">
+      <c r="B34" s="83"/>
+      <c r="C34" s="84">
         <f>SUM(A3,A5,A7,A9:A13,A15,A17:A20,A22:A25,A27:A28,A30:A31,C3:C9,C11:C13,C15:C17,C19:C22,C24,C26:C27,C29,C31,C33)</f>
         <v>477</v>
       </c>
-      <c r="D34" s="95"/>
+      <c r="D34" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A29:B29"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="A21:B21"/>
@@ -2253,6 +2306,13 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="115" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2266,830 +2326,830 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D64" sqref="A1:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="46" customWidth="1"/>
-    <col min="2" max="2" width="36" style="22" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="21" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="62" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="44" customWidth="1"/>
+    <col min="2" max="2" width="36" style="20" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="60" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="49" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98">
+      <c r="A2" s="97">
         <v>4</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="31">
         <v>45227</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="52">
+      <c r="D2" s="50">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="99"/>
-      <c r="B3" s="28">
+      <c r="A3" s="98"/>
+      <c r="B3" s="26">
         <v>45227</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="53">
+      <c r="D3" s="51">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="99"/>
-      <c r="B4" s="29">
+      <c r="A4" s="98"/>
+      <c r="B4" s="27">
         <v>45227</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D4" s="52">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="100"/>
-      <c r="B5" s="31">
+      <c r="A5" s="99"/>
+      <c r="B5" s="29">
         <v>45227</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="53">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48">
+      <c r="A6" s="46">
         <v>1</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="25">
         <v>45230</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="54">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="48">
+      <c r="A7" s="46">
         <v>1</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="25">
         <v>45231</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="54">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="48">
+      <c r="A8" s="46">
         <v>1</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="25">
         <v>45233</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="54">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="98">
+      <c r="A9" s="97">
         <v>4</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="31">
         <v>45234</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="50">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="99"/>
-      <c r="B10" s="28">
+      <c r="A10" s="98"/>
+      <c r="B10" s="26">
         <v>45234</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="51">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="99"/>
-      <c r="B11" s="28">
+      <c r="A11" s="98"/>
+      <c r="B11" s="26">
         <v>45234</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="53">
+      <c r="D11" s="51">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
-      <c r="B12" s="31">
+      <c r="A12" s="99"/>
+      <c r="B12" s="29">
         <v>45234</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="53">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="98">
+      <c r="A13" s="97">
         <v>8</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="33">
         <v>45236</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="57">
+      <c r="D13" s="55">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="99"/>
-      <c r="B14" s="28">
+      <c r="A14" s="98"/>
+      <c r="B14" s="26">
         <v>45236</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="52">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="99"/>
-      <c r="B15" s="28">
+      <c r="A15" s="98"/>
+      <c r="B15" s="26">
         <v>45236</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="53">
-        <v>10</v>
-      </c>
-      <c r="F15" s="5"/>
+      <c r="D15" s="51">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="99"/>
-      <c r="B16" s="28">
+      <c r="A16" s="98"/>
+      <c r="B16" s="26">
         <v>45236</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D16" s="51">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="99"/>
-      <c r="B17" s="29">
+      <c r="A17" s="98"/>
+      <c r="B17" s="27">
         <v>45236</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="54">
+      <c r="D17" s="52">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="99"/>
-      <c r="B18" s="28">
+      <c r="A18" s="98"/>
+      <c r="B18" s="26">
         <v>45236</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="53">
+      <c r="D18" s="51">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="99"/>
-      <c r="B19" s="28">
+      <c r="A19" s="98"/>
+      <c r="B19" s="26">
         <v>45236</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="51">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="100"/>
-      <c r="B20" s="38">
+      <c r="A20" s="99"/>
+      <c r="B20" s="36">
         <v>45236</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="58">
+      <c r="D20" s="56">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="98">
+      <c r="A21" s="97">
         <v>7</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="31">
         <v>45238</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="52">
+      <c r="D21" s="50">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="99"/>
-      <c r="B22" s="35">
+      <c r="A22" s="98"/>
+      <c r="B22" s="33">
         <v>45238</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="59">
+      <c r="D22" s="57">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="99"/>
-      <c r="B23" s="28">
+      <c r="A23" s="98"/>
+      <c r="B23" s="26">
         <v>45238</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="53">
+      <c r="D23" s="51">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="99"/>
-      <c r="B24" s="36">
+      <c r="A24" s="98"/>
+      <c r="B24" s="34">
         <v>45238</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="53">
+      <c r="D24" s="51">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="99"/>
-      <c r="B25" s="28">
+      <c r="A25" s="98"/>
+      <c r="B25" s="26">
         <v>45238</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="53">
+      <c r="D25" s="51">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="99"/>
-      <c r="B26" s="37">
+      <c r="A26" s="98"/>
+      <c r="B26" s="35">
         <v>45238</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="53">
+      <c r="D26" s="51">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="100"/>
-      <c r="B27" s="31">
+      <c r="A27" s="99"/>
+      <c r="B27" s="29">
         <v>45238</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="58">
+      <c r="D27" s="56">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="98">
+      <c r="A28" s="97">
         <v>2</v>
       </c>
-      <c r="B28" s="33">
+      <c r="B28" s="31">
         <v>45239</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="60">
+      <c r="D28" s="58">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="100"/>
-      <c r="B29" s="49">
+      <c r="A29" s="99"/>
+      <c r="B29" s="47">
         <v>45239</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="59">
+      <c r="D29" s="57">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="98">
+      <c r="A30" s="97">
         <v>6</v>
       </c>
-      <c r="B30" s="33">
+      <c r="B30" s="31">
         <v>45240</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="52">
+      <c r="D30" s="50">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="99"/>
-      <c r="B31" s="28">
+      <c r="A31" s="98"/>
+      <c r="B31" s="26">
         <v>45240</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="53">
+      <c r="D31" s="51">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="99"/>
-      <c r="B32" s="28">
+      <c r="A32" s="98"/>
+      <c r="B32" s="26">
         <v>45240</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="53">
+      <c r="D32" s="51">
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="99"/>
-      <c r="B33" s="28">
+      <c r="A33" s="98"/>
+      <c r="B33" s="26">
         <v>45240</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="53">
+      <c r="D33" s="51">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="99"/>
-      <c r="B34" s="28">
+      <c r="A34" s="98"/>
+      <c r="B34" s="26">
         <v>45240</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="53">
+      <c r="D34" s="51">
         <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="100"/>
-      <c r="B35" s="31">
+      <c r="A35" s="99"/>
+      <c r="B35" s="29">
         <v>45240</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="55">
+      <c r="D35" s="53">
         <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="81">
+      <c r="A36" s="79">
         <v>1</v>
       </c>
-      <c r="B36" s="63">
+      <c r="B36" s="61">
         <v>45243</v>
       </c>
-      <c r="C36" s="65" t="s">
+      <c r="C36" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="64">
+      <c r="D36" s="62">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="98">
+      <c r="A37" s="97">
         <v>2</v>
       </c>
-      <c r="B37" s="33">
+      <c r="B37" s="31">
         <v>45245</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="68">
+      <c r="D37" s="66">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="100"/>
-      <c r="B38" s="66">
+      <c r="A38" s="99"/>
+      <c r="B38" s="64">
         <v>45245</v>
       </c>
-      <c r="C38" s="67" t="s">
+      <c r="C38" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="55">
+      <c r="D38" s="53">
         <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="98">
+      <c r="A39" s="97">
         <v>2</v>
       </c>
-      <c r="B39" s="73">
+      <c r="B39" s="71">
         <v>45246</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="C39" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="52">
+      <c r="D39" s="50">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="100"/>
-      <c r="B40" s="70">
+      <c r="A40" s="99"/>
+      <c r="B40" s="68">
         <v>45246</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="69">
+      <c r="D40" s="67">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="98">
+      <c r="A41" s="97">
         <v>4</v>
       </c>
-      <c r="B41" s="73">
+      <c r="B41" s="71">
         <v>45247</v>
       </c>
-      <c r="C41" s="74" t="s">
+      <c r="C41" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="52">
+      <c r="D41" s="50">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="99"/>
-      <c r="B42" s="72">
+      <c r="A42" s="98"/>
+      <c r="B42" s="70">
         <v>45247</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="71">
+      <c r="D42" s="69">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="99"/>
-      <c r="B43" s="36">
+      <c r="A43" s="98"/>
+      <c r="B43" s="34">
         <v>45247</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="53">
+      <c r="D43" s="51">
         <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="100"/>
-      <c r="B44" s="49">
+      <c r="A44" s="99"/>
+      <c r="B44" s="47">
         <v>45247</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="59">
+      <c r="D44" s="57">
         <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="98">
+      <c r="A45" s="97">
         <v>2</v>
       </c>
-      <c r="B45" s="33">
+      <c r="B45" s="31">
         <v>45251</v>
       </c>
-      <c r="C45" s="41" t="s">
+      <c r="C45" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="52">
+      <c r="D45" s="50">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="100"/>
-      <c r="B46" s="31">
+      <c r="A46" s="99"/>
+      <c r="B46" s="29">
         <v>45251</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D46" s="55">
+      <c r="D46" s="53">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="81">
+      <c r="A47" s="79">
         <v>1</v>
       </c>
-      <c r="B47" s="27">
+      <c r="B47" s="25">
         <v>45252</v>
       </c>
-      <c r="C47" s="39" t="s">
+      <c r="C47" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="56">
+      <c r="D47" s="54">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="101">
+      <c r="A48" s="100">
         <v>6</v>
       </c>
-      <c r="B48" s="77">
+      <c r="B48" s="75">
         <v>45253</v>
       </c>
-      <c r="C48" s="79" t="s">
+      <c r="C48" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="52">
+      <c r="D48" s="50">
         <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="102"/>
-      <c r="B49" s="49">
+      <c r="A49" s="101"/>
+      <c r="B49" s="47">
         <v>45253</v>
       </c>
-      <c r="C49" s="78" t="s">
+      <c r="C49" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="57">
+      <c r="D49" s="55">
         <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="102"/>
-      <c r="B50" s="28">
+      <c r="A50" s="101"/>
+      <c r="B50" s="26">
         <v>45253</v>
       </c>
-      <c r="C50" s="75" t="s">
+      <c r="C50" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="76">
+      <c r="D50" s="74">
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="102"/>
-      <c r="B51" s="28">
+      <c r="A51" s="101"/>
+      <c r="B51" s="26">
         <v>45253</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="71">
+      <c r="D51" s="69">
         <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="102"/>
-      <c r="B52" s="28">
+      <c r="A52" s="101"/>
+      <c r="B52" s="26">
         <v>45253</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="53">
+      <c r="D52" s="51">
         <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="103"/>
-      <c r="B53" s="37">
+      <c r="A53" s="102"/>
+      <c r="B53" s="35">
         <v>45253</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="59">
+      <c r="D53" s="57">
         <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="101">
-        <v>5</v>
-      </c>
-      <c r="B54" s="33">
+      <c r="A54" s="100">
+        <v>5</v>
+      </c>
+      <c r="B54" s="31">
         <v>45254</v>
       </c>
-      <c r="C54" s="41" t="s">
+      <c r="C54" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="52">
+      <c r="D54" s="50">
         <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="102"/>
-      <c r="B55" s="28">
+      <c r="A55" s="101"/>
+      <c r="B55" s="26">
         <v>45254</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C55" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D55" s="53">
+      <c r="D55" s="51">
         <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="102"/>
-      <c r="B56" s="28">
+      <c r="A56" s="101"/>
+      <c r="B56" s="26">
         <v>45254</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D56" s="53">
+      <c r="D56" s="51">
         <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="102"/>
-      <c r="B57" s="28">
+      <c r="A57" s="101"/>
+      <c r="B57" s="26">
         <v>45254</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="53">
+      <c r="D57" s="51">
         <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="103"/>
-      <c r="B58" s="31">
+      <c r="A58" s="102"/>
+      <c r="B58" s="29">
         <v>45254</v>
       </c>
-      <c r="C58" s="32" t="s">
+      <c r="C58" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D58" s="55">
+      <c r="D58" s="53">
         <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="80">
+      <c r="A59" s="78">
         <v>1</v>
       </c>
-      <c r="B59" s="49">
+      <c r="B59" s="47">
         <v>45255</v>
       </c>
-      <c r="C59" s="82" t="s">
+      <c r="C59" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="D59" s="56">
+      <c r="D59" s="54">
         <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="101">
+      <c r="A60" s="100">
         <v>2</v>
       </c>
-      <c r="B60" s="33">
+      <c r="B60" s="31">
         <v>45257</v>
       </c>
-      <c r="C60" s="41" t="s">
+      <c r="C60" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="52">
+      <c r="D60" s="50">
         <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="103"/>
-      <c r="B61" s="31">
+      <c r="A61" s="102"/>
+      <c r="B61" s="29">
         <v>45257</v>
       </c>
-      <c r="C61" s="32" t="s">
+      <c r="C61" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="55">
+      <c r="D61" s="53">
         <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="80">
+      <c r="A62" s="78">
         <v>1</v>
       </c>
-      <c r="B62" s="66">
+      <c r="B62" s="64">
         <v>45259</v>
       </c>
-      <c r="C62" s="82" t="s">
+      <c r="C62" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="D62" s="56">
+      <c r="D62" s="54">
         <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="80">
+      <c r="A63" s="78">
         <v>1</v>
       </c>
-      <c r="B63" s="27">
+      <c r="B63" s="25">
         <v>45260</v>
       </c>
-      <c r="C63" s="65" t="s">
+      <c r="C63" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="D63" s="69">
+      <c r="D63" s="67">
         <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="47">
+      <c r="A64" s="45">
         <f>SUM(A2:A63)</f>
         <v>62</v>
       </c>
-      <c r="B64" s="96" t="s">
+      <c r="B64" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="C64" s="97"/>
-      <c r="D64" s="61">
+      <c r="C64" s="96"/>
+      <c r="D64" s="59">
         <f>SUM(D2:D63)</f>
         <v>675</v>
       </c>
@@ -3118,238 +3178,338 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F71169E-94C5-484E-9D00-89DE074673BD}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="81">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="104">
-        <v>45253</v>
-      </c>
-      <c r="B2" s="105"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="104">
-        <v>45254</v>
-      </c>
-      <c r="B3" s="105"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="104">
-        <v>45255</v>
-      </c>
-      <c r="B4" s="105"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="104">
-        <v>45256</v>
-      </c>
-      <c r="B5" s="105"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="104">
-        <v>45257</v>
-      </c>
-      <c r="B6" s="105"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="104">
-        <v>45258</v>
-      </c>
-      <c r="B7" s="105"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="104">
-        <v>45259</v>
-      </c>
-      <c r="B8" s="105"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="104">
-        <v>45260</v>
-      </c>
-      <c r="B9" s="105"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="104">
+      <c r="B2" s="107">
         <v>45261</v>
       </c>
-      <c r="B10" s="105"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="104">
+      <c r="C2" s="103" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="58">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="97">
+        <v>4</v>
+      </c>
+      <c r="B3" s="108">
         <v>45262</v>
       </c>
-      <c r="B11" s="105"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="104">
-        <v>45263</v>
-      </c>
-      <c r="B12" s="105"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="104">
-        <v>45264</v>
-      </c>
-      <c r="B13" s="105"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="104">
-        <v>45265</v>
-      </c>
-      <c r="B14" s="105"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="104">
+      <c r="C3" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="98"/>
+      <c r="B4" s="104">
+        <v>45262</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="98"/>
+      <c r="B5" s="104">
+        <v>45262</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="99"/>
+      <c r="B6" s="106">
+        <v>45262</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="97">
+        <v>2</v>
+      </c>
+      <c r="B7" s="108">
         <v>45266</v>
       </c>
-      <c r="B15" s="105"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="104">
+      <c r="C7" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="99"/>
+      <c r="B8" s="106">
+        <v>45266</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="97">
+        <v>5</v>
+      </c>
+      <c r="B9" s="108">
         <v>45267</v>
       </c>
-      <c r="B16" s="105"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="104">
+      <c r="C9" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="98"/>
+      <c r="B10" s="104">
+        <v>45267</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="98"/>
+      <c r="B11" s="104">
+        <v>45267</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="98"/>
+      <c r="B12" s="104">
+        <v>45267</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="99"/>
+      <c r="B13" s="106">
+        <v>45267</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="97">
+        <v>5</v>
+      </c>
+      <c r="B14" s="108">
         <v>45268</v>
       </c>
-      <c r="B17" s="105"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="104">
+      <c r="C14" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="98"/>
+      <c r="B15" s="104">
+        <v>45268</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="98"/>
+      <c r="B16" s="104">
+        <v>45268</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="98"/>
+      <c r="B17" s="104">
+        <v>45268</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="51">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="99"/>
+      <c r="B18" s="106">
+        <v>45268</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="97">
+        <v>3</v>
+      </c>
+      <c r="B19" s="108">
         <v>45269</v>
       </c>
-      <c r="B18" s="105"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="104">
-        <v>45270</v>
-      </c>
-      <c r="B19" s="105"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="104">
-        <v>45271</v>
-      </c>
-      <c r="B20" s="105"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="104">
+      <c r="C19" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="98"/>
+      <c r="B20" s="104">
+        <v>45269</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="51">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="99"/>
+      <c r="B21" s="106">
+        <v>45269</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="97">
+        <v>2</v>
+      </c>
+      <c r="B22" s="108">
         <v>45272</v>
       </c>
-      <c r="B21" s="105"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="104">
-        <v>45273</v>
-      </c>
-      <c r="B22" s="105"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="104">
-        <v>45274</v>
-      </c>
-      <c r="B23" s="105"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="104">
-        <v>45275</v>
-      </c>
-      <c r="B24" s="105"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="104">
-        <v>45276</v>
-      </c>
-      <c r="B25" s="105"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="104">
-        <v>45277</v>
-      </c>
-      <c r="B26" s="105"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="104">
-        <v>45278</v>
-      </c>
-      <c r="B27" s="105"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="104">
-        <v>45279</v>
-      </c>
-      <c r="B28" s="105"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="104">
-        <v>45280</v>
-      </c>
-      <c r="B29" s="105"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="104">
-        <v>45281</v>
-      </c>
-      <c r="B30" s="105"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="104">
-        <v>45282</v>
-      </c>
-      <c r="B31" s="105"/>
+      <c r="C22" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="99"/>
+      <c r="B23" s="106">
+        <v>45272</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="105">
+        <f>SUM(A2:A23)</f>
+        <v>22</v>
+      </c>
+      <c r="B24" s="95" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="96"/>
+      <c r="D24" s="59">
+        <f>SUM(D2:D23)</f>
+        <v>221</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+  <mergeCells count="7">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B24:C24"/>
   </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="1.1023622047244095" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>